--- a/dati_config4.xlsx
+++ b/dati_config4.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzecchinel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franco\Desktop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C47C7A72-6C4E-4B5B-92B2-D0848A0EB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pump Size" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="Materials" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="1743">
   <si>
     <t>Pump Model</t>
   </si>
@@ -4937,12 +4936,339 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>70B1</t>
+  </si>
+  <si>
+    <t>70D4</t>
+  </si>
+  <si>
+    <t>70M1</t>
+  </si>
+  <si>
+    <t>70L5</t>
+  </si>
+  <si>
+    <t>70D5</t>
+  </si>
+  <si>
+    <t>70H5</t>
+  </si>
+  <si>
+    <t>70L2</t>
+  </si>
+  <si>
+    <t>70F4</t>
+  </si>
+  <si>
+    <t>70H6</t>
+  </si>
+  <si>
+    <t>70S5</t>
+  </si>
+  <si>
+    <t>70E6</t>
+  </si>
+  <si>
+    <t>70L6</t>
+  </si>
+  <si>
+    <t>70D3</t>
+  </si>
+  <si>
+    <t>70A1</t>
+  </si>
+  <si>
+    <t>70A2</t>
+  </si>
+  <si>
+    <t>70S3</t>
+  </si>
+  <si>
+    <t>70Q9</t>
+  </si>
+  <si>
+    <t>70C2</t>
+  </si>
+  <si>
+    <t>70D8</t>
+  </si>
+  <si>
+    <t>70E1</t>
+  </si>
+  <si>
+    <t>70E2</t>
+  </si>
+  <si>
+    <t>70E3</t>
+  </si>
+  <si>
+    <t>70D6</t>
+  </si>
+  <si>
+    <t>70C1</t>
+  </si>
+  <si>
+    <t>70M7</t>
+  </si>
+  <si>
+    <t>70L1</t>
+  </si>
+  <si>
+    <t>70P2</t>
+  </si>
+  <si>
+    <t>70M9</t>
+  </si>
+  <si>
+    <t>70L9</t>
+  </si>
+  <si>
+    <t>70P3</t>
+  </si>
+  <si>
+    <t>70Q5</t>
+  </si>
+  <si>
+    <t>70Q7</t>
+  </si>
+  <si>
+    <t>70P6</t>
+  </si>
+  <si>
+    <t>70G8</t>
+  </si>
+  <si>
+    <t>70P7</t>
+  </si>
+  <si>
+    <t>70E4</t>
+  </si>
+  <si>
+    <t>70E7</t>
+  </si>
+  <si>
+    <t>70H8</t>
+  </si>
+  <si>
+    <t>70H9</t>
+  </si>
+  <si>
+    <t>70B9</t>
+  </si>
+  <si>
+    <t>70C5</t>
+  </si>
+  <si>
+    <t>70B6</t>
+  </si>
+  <si>
+    <t>70F3</t>
+  </si>
+  <si>
+    <t>70G5</t>
+  </si>
+  <si>
+    <t>70A6</t>
+  </si>
+  <si>
+    <t>70A5</t>
+  </si>
+  <si>
+    <t>70L3</t>
+  </si>
+  <si>
+    <t>70N3</t>
+  </si>
+  <si>
+    <t>70M4</t>
+  </si>
+  <si>
+    <t>70N6</t>
+  </si>
+  <si>
+    <t>70A3</t>
+  </si>
+  <si>
+    <t>70D9</t>
+  </si>
+  <si>
+    <t>70Q1</t>
+  </si>
+  <si>
+    <t>70N9</t>
+  </si>
+  <si>
+    <t>70E9</t>
+  </si>
+  <si>
+    <t>70D7</t>
+  </si>
+  <si>
+    <t>70M6</t>
+  </si>
+  <si>
+    <t>70F1</t>
+  </si>
+  <si>
+    <t>7017</t>
+  </si>
+  <si>
+    <t>70N2</t>
+  </si>
+  <si>
+    <t>70G1</t>
+  </si>
+  <si>
+    <t>70B5</t>
+  </si>
+  <si>
+    <t>70B4</t>
+  </si>
+  <si>
+    <t>70C7</t>
+  </si>
+  <si>
+    <t>70A7</t>
+  </si>
+  <si>
+    <t>70B8</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>70C4</t>
+  </si>
+  <si>
+    <t>70E8</t>
+  </si>
+  <si>
+    <t>7069</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>70B2</t>
+  </si>
+  <si>
+    <t>70H4</t>
+  </si>
+  <si>
+    <t>70P8</t>
+  </si>
+  <si>
+    <t>70S2</t>
+  </si>
+  <si>
+    <t>70E5</t>
+  </si>
+  <si>
+    <t>70F6</t>
+  </si>
+  <si>
+    <t>70C3</t>
+  </si>
+  <si>
+    <t>70C6</t>
+  </si>
+  <si>
+    <t>70F2</t>
+  </si>
+  <si>
+    <t>70S1</t>
+  </si>
+  <si>
+    <t>70A8</t>
+  </si>
+  <si>
+    <t>70H7</t>
+  </si>
+  <si>
+    <t>70H3</t>
+  </si>
+  <si>
+    <t>70H2</t>
+  </si>
+  <si>
+    <t>70N1</t>
+  </si>
+  <si>
+    <t>70L4</t>
+  </si>
+  <si>
+    <t>70R1</t>
+  </si>
+  <si>
+    <t>70P5</t>
+  </si>
+  <si>
+    <t>70S6</t>
+  </si>
+  <si>
+    <t>70B7</t>
+  </si>
+  <si>
+    <t>70D1</t>
+  </si>
+  <si>
+    <t>70H1</t>
+  </si>
+  <si>
+    <t>70M2</t>
+  </si>
+  <si>
+    <t>70G9</t>
+  </si>
+  <si>
+    <t>70M5</t>
+  </si>
+  <si>
+    <t>70C8</t>
+  </si>
+  <si>
+    <t>70R3</t>
+  </si>
+  <si>
+    <t>70Q2</t>
+  </si>
+  <si>
+    <t>70R5</t>
+  </si>
+  <si>
+    <t>70P1</t>
+  </si>
+  <si>
+    <t>70P9</t>
+  </si>
+  <si>
+    <t>70P4</t>
+  </si>
+  <si>
+    <t>70N5</t>
+  </si>
+  <si>
+    <t>70R9</t>
+  </si>
+  <si>
+    <t>70M3</t>
+  </si>
+  <si>
+    <t>70L8</t>
+  </si>
+  <si>
+    <t>Casting code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5011,7 +5337,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5027,9 +5353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5067,9 +5393,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5104,7 +5430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5139,7 +5465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5312,7 +5638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8267,7 +8593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9002,11 +9328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D724"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E724"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,9 +9341,10 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="188.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9030,8 +9357,11 @@
       <c r="D1" s="3" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9041,8 +9371,9 @@
       <c r="D2" s="4" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9055,8 +9386,9 @@
       <c r="D3" s="4" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9066,8 +9398,9 @@
       <c r="D4" s="4" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -9077,8 +9410,9 @@
       <c r="D5" s="4" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9091,8 +9425,9 @@
       <c r="D6" s="4" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9105,8 +9440,9 @@
       <c r="D7" s="4" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9119,8 +9455,9 @@
       <c r="D8" s="4" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -9133,8 +9470,9 @@
       <c r="D9" s="4" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9147,8 +9485,9 @@
       <c r="D10" s="4" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9161,8 +9500,9 @@
       <c r="D11" s="4" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -9175,8 +9515,9 @@
       <c r="D12" s="4" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -9189,8 +9530,9 @@
       <c r="D13" s="4" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -9203,8 +9545,9 @@
       <c r="D14" s="4" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -9217,8 +9560,9 @@
       <c r="D15" s="4" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -9231,8 +9575,9 @@
       <c r="D16" s="4" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -9245,8 +9590,9 @@
       <c r="D17" s="4" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -9259,8 +9605,9 @@
       <c r="D18" s="4" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9273,8 +9620,9 @@
       <c r="D19" s="4" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -9287,8 +9635,9 @@
       <c r="D20" s="4" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9301,8 +9650,9 @@
       <c r="D21" s="4" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9315,8 +9665,9 @@
       <c r="D22" s="4" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9329,8 +9680,9 @@
       <c r="D23" s="4" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -9343,8 +9695,9 @@
       <c r="D24" s="4" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -9357,8 +9710,9 @@
       <c r="D25" s="4" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -9371,8 +9725,9 @@
       <c r="D26" s="4" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -9385,8 +9740,9 @@
       <c r="D27" s="4" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -9399,8 +9755,9 @@
       <c r="D28" s="4" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -9413,8 +9770,9 @@
       <c r="D29" s="4" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -9427,8 +9785,9 @@
       <c r="D30" s="4" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -9441,8 +9800,9 @@
       <c r="D31" s="4" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -9455,8 +9815,9 @@
       <c r="D32" s="4" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -9469,8 +9830,9 @@
       <c r="D33" s="4" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -9483,8 +9845,9 @@
       <c r="D34" s="4" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -9497,8 +9860,9 @@
       <c r="D35" s="4" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -9511,8 +9875,9 @@
       <c r="D36" s="4" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -9525,8 +9890,9 @@
       <c r="D37" s="4" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -9539,8 +9905,9 @@
       <c r="D38" s="4" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -9553,8 +9920,9 @@
       <c r="D39" s="4" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -9567,8 +9935,9 @@
       <c r="D40" s="4" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -9581,8 +9950,9 @@
       <c r="D41" s="4" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -9595,8 +9965,9 @@
       <c r="D42" s="4" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -9609,8 +9980,9 @@
       <c r="D43" s="4" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -9623,8 +9995,9 @@
       <c r="D44" s="4" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -9637,8 +10010,9 @@
       <c r="D45" s="4" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -9651,8 +10025,9 @@
       <c r="D46" s="4" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -9665,8 +10040,9 @@
       <c r="D47" s="4" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -9679,8 +10055,9 @@
       <c r="D48" s="4" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -9693,8 +10070,9 @@
       <c r="D49" s="4" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -9707,8 +10085,9 @@
       <c r="D50" s="4" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -9721,8 +10100,9 @@
       <c r="D51" s="4" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -9735,8 +10115,9 @@
       <c r="D52" s="4" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -9749,8 +10130,9 @@
       <c r="D53" s="4" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -9763,8 +10145,9 @@
       <c r="D54" s="4" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -9777,8 +10160,9 @@
       <c r="D55" s="4" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -9791,8 +10175,9 @@
       <c r="D56" s="4" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -9805,8 +10190,9 @@
       <c r="D57" s="4" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -9819,8 +10205,9 @@
       <c r="D58" s="4" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -9833,8 +10220,9 @@
       <c r="D59" s="4" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -9847,8 +10235,9 @@
       <c r="D60" s="4" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -9861,8 +10250,11 @@
       <c r="D61" s="4" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -9875,8 +10267,11 @@
       <c r="D62" s="4" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="4">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -9889,8 +10284,9 @@
       <c r="D63" s="4" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -9903,8 +10299,11 @@
       <c r="D64" s="4" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -9917,8 +10316,11 @@
       <c r="D65" s="4" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -9931,8 +10333,11 @@
       <c r="D66" s="4" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -9945,8 +10350,11 @@
       <c r="D67" s="4" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -9959,8 +10367,11 @@
       <c r="D68" s="4" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -9973,8 +10384,11 @@
       <c r="D69" s="4" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -9987,8 +10401,11 @@
       <c r="D70" s="4" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -10001,8 +10418,11 @@
       <c r="D71" s="4" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -10015,8 +10435,11 @@
       <c r="D72" s="4" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -10029,8 +10452,11 @@
       <c r="D73" s="4" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -10043,8 +10469,11 @@
       <c r="D74" s="4" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="4">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -10057,8 +10486,9 @@
       <c r="D75" s="4" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -10071,8 +10501,11 @@
       <c r="D76" s="4" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -10085,8 +10518,11 @@
       <c r="D77" s="4" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -10099,8 +10535,11 @@
       <c r="D78" s="4" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -10113,8 +10552,11 @@
       <c r="D79" s="4" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -10127,8 +10569,11 @@
       <c r="D80" s="4" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4">
+        <v>7062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -10141,8 +10586,11 @@
       <c r="D81" s="4" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -10155,8 +10603,9 @@
       <c r="D82" s="4" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -10169,8 +10618,9 @@
       <c r="D83" s="4" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -10183,8 +10633,9 @@
       <c r="D84" s="4" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -10197,8 +10648,9 @@
       <c r="D85" s="4" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -10211,8 +10663,9 @@
       <c r="D86" s="4" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -10225,8 +10678,9 @@
       <c r="D87" s="4" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -10239,8 +10693,9 @@
       <c r="D88" s="4" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -10253,8 +10708,9 @@
       <c r="D89" s="4" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -10267,8 +10723,9 @@
       <c r="D90" s="4" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -10281,8 +10738,9 @@
       <c r="D91" s="4" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -10295,8 +10753,9 @@
       <c r="D92" s="4" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -10309,8 +10768,9 @@
       <c r="D93" s="4" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -10323,8 +10783,9 @@
       <c r="D94" s="4" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -10337,8 +10798,9 @@
       <c r="D95" s="4" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -10351,8 +10813,9 @@
       <c r="D96" s="4" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -10365,8 +10828,9 @@
       <c r="D97" s="4" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -10379,8 +10843,9 @@
       <c r="D98" s="4" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -10393,8 +10858,9 @@
       <c r="D99" s="4" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -10407,8 +10873,9 @@
       <c r="D100" s="4" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -10421,8 +10888,9 @@
       <c r="D101" s="4" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -10435,8 +10903,9 @@
       <c r="D102" s="4" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -10449,8 +10918,9 @@
       <c r="D103" s="4" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -10463,8 +10933,9 @@
       <c r="D104" s="4" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -10477,8 +10948,9 @@
       <c r="D105" s="4" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -10491,8 +10963,9 @@
       <c r="D106" s="4" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -10505,8 +10978,9 @@
       <c r="D107" s="4" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -10519,8 +10993,9 @@
       <c r="D108" s="4" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -10533,8 +11008,9 @@
       <c r="D109" s="4" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -10547,8 +11023,9 @@
       <c r="D110" s="4" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -10561,8 +11038,9 @@
       <c r="D111" s="4" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -10575,8 +11053,9 @@
       <c r="D112" s="4" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -10589,8 +11068,9 @@
       <c r="D113" s="4" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -10603,8 +11083,9 @@
       <c r="D114" s="4" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -10617,8 +11098,9 @@
       <c r="D115" s="4" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -10631,8 +11113,9 @@
       <c r="D116" s="4" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -10645,8 +11128,9 @@
       <c r="D117" s="4" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -10659,8 +11143,9 @@
       <c r="D118" s="4" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -10673,8 +11158,9 @@
       <c r="D119" s="4" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -10687,8 +11173,9 @@
       <c r="D120" s="4" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -10701,8 +11188,9 @@
       <c r="D121" s="4" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -10715,8 +11203,9 @@
       <c r="D122" s="4" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -10729,8 +11218,9 @@
       <c r="D123" s="4" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -10743,8 +11233,9 @@
       <c r="D124" s="4" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -10757,8 +11248,9 @@
       <c r="D125" s="4" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -10771,8 +11263,9 @@
       <c r="D126" s="4" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -10785,8 +11278,9 @@
       <c r="D127" s="4" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -10799,8 +11293,9 @@
       <c r="D128" s="4" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -10813,8 +11308,9 @@
       <c r="D129" s="4" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -10827,8 +11323,9 @@
       <c r="D130" s="4" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -10841,8 +11338,9 @@
       <c r="D131" s="4" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -10855,8 +11353,9 @@
       <c r="D132" s="4" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -10869,8 +11368,9 @@
       <c r="D133" s="4" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -10883,8 +11383,9 @@
       <c r="D134" s="4" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -10897,8 +11398,9 @@
       <c r="D135" s="4" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -10911,8 +11413,9 @@
       <c r="D136" s="4" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -10925,8 +11428,9 @@
       <c r="D137" s="4" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -10939,8 +11443,9 @@
       <c r="D138" s="4" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -10953,8 +11458,9 @@
       <c r="D139" s="4" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -10967,8 +11473,9 @@
       <c r="D140" s="4" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -10981,8 +11488,9 @@
       <c r="D141" s="4" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -10995,8 +11503,9 @@
       <c r="D142" s="4" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -11009,8 +11518,9 @@
       <c r="D143" s="4" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -11023,8 +11533,9 @@
       <c r="D144" s="4" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -11037,8 +11548,9 @@
       <c r="D145" s="4" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -11051,8 +11563,11 @@
       <c r="D146" s="4" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="4">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -11065,8 +11580,11 @@
       <c r="D147" s="4" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="4">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -11079,8 +11597,11 @@
       <c r="D148" s="4" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="4" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -11093,8 +11614,11 @@
       <c r="D149" s="4" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="4">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -11107,8 +11631,11 @@
       <c r="D150" s="4" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="4">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -11121,8 +11648,9 @@
       <c r="D151" s="4" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -11135,8 +11663,9 @@
       <c r="D152" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -11149,8 +11678,9 @@
       <c r="D153" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -11163,8 +11693,9 @@
       <c r="D154" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -11177,8 +11708,9 @@
       <c r="D155" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -11191,8 +11723,9 @@
       <c r="D156" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -11205,8 +11738,9 @@
       <c r="D157" s="4" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -11219,8 +11753,9 @@
       <c r="D158" s="4" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -11233,8 +11768,9 @@
       <c r="D159" s="4" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -11247,8 +11783,9 @@
       <c r="D160" s="4" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -11261,8 +11798,9 @@
       <c r="D161" s="4" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -11275,8 +11813,9 @@
       <c r="D162" s="4" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -11289,8 +11828,9 @@
       <c r="D163" s="4" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -11303,8 +11843,9 @@
       <c r="D164" s="4" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -11317,8 +11858,9 @@
       <c r="D165" s="4" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -11331,8 +11873,9 @@
       <c r="D166" s="4" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -11345,8 +11888,9 @@
       <c r="D167" s="4" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -11359,8 +11903,9 @@
       <c r="D168" s="4" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -11373,8 +11918,9 @@
       <c r="D169" s="4" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -11387,8 +11933,9 @@
       <c r="D170" s="4" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -11401,8 +11948,9 @@
       <c r="D171" s="4" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -11415,8 +11963,9 @@
       <c r="D172" s="4" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -11429,8 +11978,9 @@
       <c r="D173" s="4" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -11443,8 +11993,9 @@
       <c r="D174" s="4" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -11457,8 +12008,9 @@
       <c r="D175" s="4" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -11471,8 +12023,9 @@
       <c r="D176" s="4" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -11485,8 +12038,9 @@
       <c r="D177" s="4" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -11499,8 +12053,9 @@
       <c r="D178" s="4" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -11513,8 +12068,9 @@
       <c r="D179" s="4" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -11527,8 +12083,9 @@
       <c r="D180" s="4" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -11541,8 +12098,9 @@
       <c r="D181" s="4" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11555,8 +12113,9 @@
       <c r="D182" s="4" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -11569,8 +12128,9 @@
       <c r="D183" s="4" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -11583,8 +12143,9 @@
       <c r="D184" s="4" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -11597,8 +12158,9 @@
       <c r="D185" s="4" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -11611,8 +12173,9 @@
       <c r="D186" s="4" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -11625,8 +12188,9 @@
       <c r="D187" s="4" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -11639,8 +12203,9 @@
       <c r="D188" s="4" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -11653,8 +12218,9 @@
       <c r="D189" s="4" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -11667,8 +12233,9 @@
       <c r="D190" s="4" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -11681,8 +12248,9 @@
       <c r="D191" s="4" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -11695,8 +12263,9 @@
       <c r="D192" s="4" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>20</v>
       </c>
@@ -11709,8 +12278,9 @@
       <c r="D193" s="4" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -11723,8 +12293,9 @@
       <c r="D194" s="4" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -11737,8 +12308,9 @@
       <c r="D195" s="4" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -11751,8 +12323,11 @@
       <c r="D196" s="4" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="4">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -11765,8 +12340,11 @@
       <c r="D197" s="4" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="4">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -11779,8 +12357,11 @@
       <c r="D198" s="4" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="4">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -11793,8 +12374,11 @@
       <c r="D199" s="4" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="4">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -11807,8 +12391,11 @@
       <c r="D200" s="4" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="4">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -11821,8 +12408,11 @@
       <c r="D201" s="4" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="4">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -11835,8 +12425,11 @@
       <c r="D202" s="4" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="4">
+        <v>7051</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -11849,8 +12442,11 @@
       <c r="D203" s="4" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="4">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -11863,8 +12459,11 @@
       <c r="D204" s="4" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="4" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -11877,8 +12476,11 @@
       <c r="D205" s="4" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="4">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -11891,8 +12493,11 @@
       <c r="D206" s="4" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -11905,8 +12510,11 @@
       <c r="D207" s="4" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="4" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -11919,8 +12527,11 @@
       <c r="D208" s="4" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="4" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -11933,8 +12544,11 @@
       <c r="D209" s="4" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="4">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -11947,8 +12561,11 @@
       <c r="D210" s="4" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="4">
+        <v>7051</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -11961,8 +12578,11 @@
       <c r="D211" s="4" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -11975,8 +12595,11 @@
       <c r="D212" s="4" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="4">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -11989,8 +12612,11 @@
       <c r="D213" s="4" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="4">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -12003,8 +12629,11 @@
       <c r="D214" s="4" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="4">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -12017,8 +12646,9 @@
       <c r="D215" s="4" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -12031,8 +12661,11 @@
       <c r="D216" s="4" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="4">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -12045,8 +12678,9 @@
       <c r="D217" s="4" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -12059,8 +12693,11 @@
       <c r="D218" s="4" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="4">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -12073,8 +12710,11 @@
       <c r="D219" s="4" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="4">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -12087,8 +12727,11 @@
       <c r="D220" s="4" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="4">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -12101,8 +12744,11 @@
       <c r="D221" s="4" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -12115,8 +12761,11 @@
       <c r="D222" s="4" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="4">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -12129,8 +12778,11 @@
       <c r="D223" s="4" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="4" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -12143,8 +12795,11 @@
       <c r="D224" s="4" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="4" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -12157,8 +12812,11 @@
       <c r="D225" s="4" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="4" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -12171,8 +12829,11 @@
       <c r="D226" s="4" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="4" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -12185,8 +12846,11 @@
       <c r="D227" s="4" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="4" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -12199,8 +12863,11 @@
       <c r="D228" s="4" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="4" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -12213,8 +12880,11 @@
       <c r="D229" s="4" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="4">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -12227,8 +12897,11 @@
       <c r="D230" s="4" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="4" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -12241,8 +12914,11 @@
       <c r="D231" s="4" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="4" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -12255,8 +12931,11 @@
       <c r="D232" s="4" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="4">
+        <v>7042</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -12269,8 +12948,11 @@
       <c r="D233" s="4" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="4" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -12283,8 +12965,9 @@
       <c r="D234" s="4" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -12297,8 +12980,9 @@
       <c r="D235" s="4" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -12311,8 +12995,9 @@
       <c r="D236" s="4" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -12325,8 +13010,9 @@
       <c r="D237" s="4" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -12339,8 +13025,9 @@
       <c r="D238" s="4" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -12353,8 +13040,9 @@
       <c r="D239" s="4" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -12367,8 +13055,9 @@
       <c r="D240" s="4" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -12381,8 +13070,9 @@
       <c r="D241" s="4" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -12395,8 +13085,9 @@
       <c r="D242" s="4" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -12409,8 +13100,9 @@
       <c r="D243" s="4" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -12423,8 +13115,9 @@
       <c r="D244" s="4" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -12437,8 +13130,9 @@
       <c r="D245" s="4" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -12451,8 +13145,9 @@
       <c r="D246" s="4" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -12465,8 +13160,9 @@
       <c r="D247" s="4" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -12479,8 +13175,9 @@
       <c r="D248" s="4" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -12493,8 +13190,9 @@
       <c r="D249" s="4" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -12507,8 +13205,9 @@
       <c r="D250" s="4" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -12521,8 +13220,9 @@
       <c r="D251" s="4" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -12535,8 +13235,11 @@
       <c r="D252" s="4" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="4">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -12549,8 +13252,11 @@
       <c r="D253" s="4" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="4">
+        <v>7074</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -12563,8 +13269,11 @@
       <c r="D254" s="4" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="4">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -12577,8 +13286,9 @@
       <c r="D255" s="4" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -12591,8 +13301,11 @@
       <c r="D256" s="4" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="4">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -12605,8 +13318,9 @@
       <c r="D257" s="4" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -12619,8 +13333,11 @@
       <c r="D258" s="4" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="4">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -12633,8 +13350,9 @@
       <c r="D259" s="4" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -12647,8 +13365,11 @@
       <c r="D260" s="4" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="4">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -12661,8 +13382,9 @@
       <c r="D261" s="4" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -12675,8 +13397,11 @@
       <c r="D262" s="4" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="4">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -12689,8 +13414,9 @@
       <c r="D263" s="4" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -12703,8 +13429,9 @@
       <c r="D264" s="4" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -12717,8 +13444,11 @@
       <c r="D265" s="4" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="4" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -12731,8 +13461,11 @@
       <c r="D266" s="4" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="4">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -12745,8 +13478,11 @@
       <c r="D267" s="4" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="4">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -12759,8 +13495,9 @@
       <c r="D268" s="4" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>20</v>
       </c>
@@ -12773,8 +13510,9 @@
       <c r="D269" s="4" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -12787,8 +13525,9 @@
       <c r="D270" s="4" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -12801,8 +13540,9 @@
       <c r="D271" s="4" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>20</v>
       </c>
@@ -12815,8 +13555,9 @@
       <c r="D272" s="4" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -12829,8 +13570,9 @@
       <c r="D273" s="4" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -12843,8 +13585,9 @@
       <c r="D274" s="4" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -12857,8 +13600,9 @@
       <c r="D275" s="4" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -12871,8 +13615,9 @@
       <c r="D276" s="4" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -12885,8 +13630,9 @@
       <c r="D277" s="4" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -12899,8 +13645,9 @@
       <c r="D278" s="4" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -12913,8 +13660,9 @@
       <c r="D279" s="4" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -12927,8 +13675,9 @@
       <c r="D280" s="4" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -12941,8 +13690,9 @@
       <c r="D281" s="4" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -12955,8 +13705,9 @@
       <c r="D282" s="4" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -12969,8 +13720,9 @@
       <c r="D283" s="4" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -12983,8 +13735,9 @@
       <c r="D284" s="4" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -12997,8 +13750,9 @@
       <c r="D285" s="4" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -13011,8 +13765,9 @@
       <c r="D286" s="4" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -13025,8 +13780,9 @@
       <c r="D287" s="4" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -13039,8 +13795,9 @@
       <c r="D288" s="4" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -13053,8 +13810,9 @@
       <c r="D289" s="4" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -13067,8 +13825,9 @@
       <c r="D290" s="4" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -13081,8 +13840,9 @@
       <c r="D291" s="4" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -13095,8 +13855,9 @@
       <c r="D292" s="4" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -13109,8 +13870,11 @@
       <c r="D293" s="4" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="4" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -13123,8 +13887,9 @@
       <c r="D294" s="4" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -13137,8 +13902,11 @@
       <c r="D295" s="4" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="4" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -13151,8 +13919,9 @@
       <c r="D296" s="4" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -13165,8 +13934,9 @@
       <c r="D297" s="4" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -13179,8 +13949,11 @@
       <c r="D298" s="4" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="4" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -13193,8 +13966,9 @@
       <c r="D299" s="4" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -13207,8 +13981,11 @@
       <c r="D300" s="4" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="4" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -13221,8 +13998,11 @@
       <c r="D301" s="4" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="4" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -13235,8 +14015,9 @@
       <c r="D302" s="4" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -13249,8 +14030,9 @@
       <c r="D303" s="4" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -13263,8 +14045,9 @@
       <c r="D304" s="4" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -13277,8 +14060,11 @@
       <c r="D305" s="4" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="4" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -13291,8 +14077,9 @@
       <c r="D306" s="4" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -13305,8 +14092,11 @@
       <c r="D307" s="4" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="4" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -13319,8 +14109,11 @@
       <c r="D308" s="4" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="4">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -13333,8 +14126,11 @@
       <c r="D309" s="4" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="4">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -13347,8 +14143,9 @@
       <c r="D310" s="4" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -13361,8 +14158,11 @@
       <c r="D311" s="4" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -13375,8 +14175,11 @@
       <c r="D312" s="4" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="4" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -13389,8 +14192,11 @@
       <c r="D313" s="4" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="4" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -13403,8 +14209,11 @@
       <c r="D314" s="4" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="4" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -13417,8 +14226,11 @@
       <c r="D315" s="4" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="4" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -13431,8 +14243,11 @@
       <c r="D316" s="4" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="4" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -13445,8 +14260,11 @@
       <c r="D317" s="4" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="4">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -13459,8 +14277,11 @@
       <c r="D318" s="4" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="4" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -13473,8 +14294,11 @@
       <c r="D319" s="4" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="4" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -13487,8 +14311,11 @@
       <c r="D320" s="4" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="4">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>20</v>
       </c>
@@ -13501,8 +14328,11 @@
       <c r="D321" s="4" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="4" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>20</v>
       </c>
@@ -13512,8 +14342,9 @@
       <c r="D322" s="4" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>20</v>
       </c>
@@ -13526,8 +14357,11 @@
       <c r="D323" s="4" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="4">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>20</v>
       </c>
@@ -13540,8 +14374,9 @@
       <c r="D324" s="4" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -13554,8 +14389,11 @@
       <c r="D325" s="4" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="4" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>20</v>
       </c>
@@ -13568,8 +14406,11 @@
       <c r="D326" s="4" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="4">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>20</v>
       </c>
@@ -13582,8 +14423,11 @@
       <c r="D327" s="4" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="4">
+        <v>7057</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -13596,8 +14440,9 @@
       <c r="D328" s="4" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -13610,8 +14455,9 @@
       <c r="D329" s="4" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>20</v>
       </c>
@@ -13624,8 +14470,11 @@
       <c r="D330" s="4" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="4" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>20</v>
       </c>
@@ -13638,8 +14487,9 @@
       <c r="D331" s="4" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>20</v>
       </c>
@@ -13652,8 +14502,11 @@
       <c r="D332" s="4" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="4">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -13666,8 +14519,11 @@
       <c r="D333" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="4">
+        <v>7045</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -13680,8 +14536,9 @@
       <c r="D334" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -13694,8 +14551,9 @@
       <c r="D335" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>20</v>
       </c>
@@ -13708,8 +14566,11 @@
       <c r="D336" s="4" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="4">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -13722,8 +14583,11 @@
       <c r="D337" s="4" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="4" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>20</v>
       </c>
@@ -13736,8 +14600,11 @@
       <c r="D338" s="4" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="4" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>20</v>
       </c>
@@ -13750,8 +14617,9 @@
       <c r="D339" s="4" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>20</v>
       </c>
@@ -13764,8 +14632,11 @@
       <c r="D340" s="4" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="4" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>20</v>
       </c>
@@ -13778,8 +14649,11 @@
       <c r="D341" s="4" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="4">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>20</v>
       </c>
@@ -13792,8 +14666,11 @@
       <c r="D342" s="4" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="4">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>20</v>
       </c>
@@ -13806,8 +14683,9 @@
       <c r="D343" s="4" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>20</v>
       </c>
@@ -13820,8 +14698,9 @@
       <c r="D344" s="4" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -13834,8 +14713,9 @@
       <c r="D345" s="4" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>20</v>
       </c>
@@ -13848,8 +14728,11 @@
       <c r="D346" s="4" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="4">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>20</v>
       </c>
@@ -13862,8 +14745,9 @@
       <c r="D347" s="4" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="4"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -13876,8 +14760,11 @@
       <c r="D348" s="4" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="4" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -13890,8 +14777,11 @@
       <c r="D349" s="4" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="4" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>20</v>
       </c>
@@ -13904,8 +14794,9 @@
       <c r="D350" s="4" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="4"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>20</v>
       </c>
@@ -13918,8 +14809,9 @@
       <c r="D351" s="4" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="4"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>20</v>
       </c>
@@ -13932,8 +14824,9 @@
       <c r="D352" s="4" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="4"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -13946,8 +14839,9 @@
       <c r="D353" s="4" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -13960,8 +14854,9 @@
       <c r="D354" s="4" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -13974,8 +14869,9 @@
       <c r="D355" s="4" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -13988,8 +14884,9 @@
       <c r="D356" s="4" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="4"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -14002,8 +14899,9 @@
       <c r="D357" s="4" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="4"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -14016,8 +14914,9 @@
       <c r="D358" s="4" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="4"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -14030,8 +14929,9 @@
       <c r="D359" s="4" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="4"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -14044,8 +14944,9 @@
       <c r="D360" s="4" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="4"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -14058,8 +14959,9 @@
       <c r="D361" s="4" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="4"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -14072,8 +14974,9 @@
       <c r="D362" s="4" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="4"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -14086,8 +14989,9 @@
       <c r="D363" s="4" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="4"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -14100,8 +15004,9 @@
       <c r="D364" s="4" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="4"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -14114,8 +15019,9 @@
       <c r="D365" s="4" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="4"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -14128,8 +15034,9 @@
       <c r="D366" s="4" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="4"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -14142,8 +15049,9 @@
       <c r="D367" s="4" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="4"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -14156,8 +15064,11 @@
       <c r="D368" s="4" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="4">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -14170,8 +15081,11 @@
       <c r="D369" s="4" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" s="4" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -14184,8 +15098,11 @@
       <c r="D370" s="4" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="4">
+        <v>7076</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>20</v>
       </c>
@@ -14198,8 +15115,9 @@
       <c r="D371" s="4" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="4"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>20</v>
       </c>
@@ -14212,8 +15130,11 @@
       <c r="D372" s="4" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" s="4">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>20</v>
       </c>
@@ -14226,8 +15147,11 @@
       <c r="D373" s="4" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="4">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>20</v>
       </c>
@@ -14240,8 +15164,9 @@
       <c r="D374" s="4" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" s="4"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>20</v>
       </c>
@@ -14254,8 +15179,11 @@
       <c r="D375" s="4" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="4">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>20</v>
       </c>
@@ -14268,8 +15196,9 @@
       <c r="D376" s="4" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="4"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>20</v>
       </c>
@@ -14282,8 +15211,9 @@
       <c r="D377" s="4" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="4"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>20</v>
       </c>
@@ -14296,8 +15226,9 @@
       <c r="D378" s="4" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="4"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>20</v>
       </c>
@@ -14310,8 +15241,9 @@
       <c r="D379" s="4" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" s="4"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -14324,8 +15256,9 @@
       <c r="D380" s="4" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="4"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>20</v>
       </c>
@@ -14338,8 +15271,9 @@
       <c r="D381" s="4" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" s="4"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -14352,8 +15286,9 @@
       <c r="D382" s="4" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" s="4"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>20</v>
       </c>
@@ -14366,8 +15301,9 @@
       <c r="D383" s="4" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="4"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>20</v>
       </c>
@@ -14380,8 +15316,9 @@
       <c r="D384" s="4" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>20</v>
       </c>
@@ -14394,8 +15331,9 @@
       <c r="D385" s="4" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" s="4"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>20</v>
       </c>
@@ -14408,8 +15346,9 @@
       <c r="D386" s="4" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" s="4"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -14422,8 +15361,9 @@
       <c r="D387" s="4" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" s="4"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -14436,8 +15376,9 @@
       <c r="D388" s="4" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" s="4"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>20</v>
       </c>
@@ -14450,8 +15391,9 @@
       <c r="D389" s="4" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" s="4"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>20</v>
       </c>
@@ -14464,8 +15406,9 @@
       <c r="D390" s="4" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" s="4"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>20</v>
       </c>
@@ -14478,8 +15421,9 @@
       <c r="D391" s="4" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" s="4"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>20</v>
       </c>
@@ -14492,8 +15436,9 @@
       <c r="D392" s="4" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" s="4"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>20</v>
       </c>
@@ -14506,8 +15451,9 @@
       <c r="D393" s="4" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" s="4"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>20</v>
       </c>
@@ -14520,8 +15466,9 @@
       <c r="D394" s="4" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" s="4"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>20</v>
       </c>
@@ -14534,8 +15481,9 @@
       <c r="D395" s="4" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" s="4"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>20</v>
       </c>
@@ -14548,8 +15496,9 @@
       <c r="D396" s="4" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" s="4"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>20</v>
       </c>
@@ -14562,8 +15511,9 @@
       <c r="D397" s="4" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" s="4"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -14576,8 +15526,9 @@
       <c r="D398" s="4" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" s="4"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -14590,8 +15541,9 @@
       <c r="D399" s="4" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" s="4"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>20</v>
       </c>
@@ -14604,8 +15556,9 @@
       <c r="D400" s="4" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>20</v>
       </c>
@@ -14618,8 +15571,9 @@
       <c r="D401" s="4" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>20</v>
       </c>
@@ -14632,8 +15586,9 @@
       <c r="D402" s="4" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" s="4"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>20</v>
       </c>
@@ -14646,8 +15601,9 @@
       <c r="D403" s="4" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" s="4"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>20</v>
       </c>
@@ -14660,8 +15616,9 @@
       <c r="D404" s="4" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" s="4"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>20</v>
       </c>
@@ -14674,8 +15631,11 @@
       <c r="D405" s="4" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" s="4" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>20</v>
       </c>
@@ -14688,8 +15648,9 @@
       <c r="D406" s="4" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" s="4"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>20</v>
       </c>
@@ -14702,8 +15663,11 @@
       <c r="D407" s="4" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>20</v>
       </c>
@@ -14716,8 +15680,9 @@
       <c r="D408" s="4" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>20</v>
       </c>
@@ -14730,8 +15695,11 @@
       <c r="D409" s="4" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>20</v>
       </c>
@@ -14744,8 +15712,9 @@
       <c r="D410" s="4" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" s="4"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>20</v>
       </c>
@@ -14758,8 +15727,11 @@
       <c r="D411" s="4" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -14772,8 +15744,9 @@
       <c r="D412" s="4" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" s="4"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>20</v>
       </c>
@@ -14786,8 +15759,11 @@
       <c r="D413" s="4" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" s="4">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>20</v>
       </c>
@@ -14800,8 +15776,9 @@
       <c r="D414" s="4" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" s="4"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>20</v>
       </c>
@@ -14814,8 +15791,9 @@
       <c r="D415" s="4" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" s="4"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>20</v>
       </c>
@@ -14828,8 +15806,11 @@
       <c r="D416" s="4" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" s="4">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>20</v>
       </c>
@@ -14842,8 +15823,9 @@
       <c r="D417" s="4" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" s="4"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>20</v>
       </c>
@@ -14856,8 +15838,9 @@
       <c r="D418" s="4" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" s="4"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>20</v>
       </c>
@@ -14870,8 +15853,11 @@
       <c r="D419" s="4" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" s="4" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>20</v>
       </c>
@@ -14884,8 +15870,11 @@
       <c r="D420" s="4" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>20</v>
       </c>
@@ -14898,8 +15887,11 @@
       <c r="D421" s="4" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>20</v>
       </c>
@@ -14912,8 +15904,9 @@
       <c r="D422" s="4" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" s="4"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>20</v>
       </c>
@@ -14926,8 +15919,11 @@
       <c r="D423" s="4" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" s="4" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>20</v>
       </c>
@@ -14940,8 +15936,9 @@
       <c r="D424" s="4" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" s="4"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>20</v>
       </c>
@@ -14954,8 +15951,11 @@
       <c r="D425" s="4" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" s="4" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>20</v>
       </c>
@@ -14968,8 +15968,9 @@
       <c r="D426" s="4" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" s="4"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>20</v>
       </c>
@@ -14982,8 +15983,11 @@
       <c r="D427" s="4" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>20</v>
       </c>
@@ -14996,8 +16000,9 @@
       <c r="D428" s="4" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" s="4"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>20</v>
       </c>
@@ -15010,8 +16015,9 @@
       <c r="D429" s="4" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" s="4"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>20</v>
       </c>
@@ -15024,8 +16030,11 @@
       <c r="D430" s="4" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>20</v>
       </c>
@@ -15038,8 +16047,11 @@
       <c r="D431" s="4" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>20</v>
       </c>
@@ -15052,8 +16064,9 @@
       <c r="D432" s="4" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" s="4"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>20</v>
       </c>
@@ -15066,8 +16079,11 @@
       <c r="D433" s="4" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>20</v>
       </c>
@@ -15080,8 +16096,9 @@
       <c r="D434" s="4" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" s="4"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>20</v>
       </c>
@@ -15094,8 +16111,11 @@
       <c r="D435" s="4" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>20</v>
       </c>
@@ -15108,8 +16128,9 @@
       <c r="D436" s="4" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" s="4"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>20</v>
       </c>
@@ -15122,8 +16143,9 @@
       <c r="D437" s="4" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" s="4"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>20</v>
       </c>
@@ -15136,8 +16158,9 @@
       <c r="D438" s="4" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" s="4"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>20</v>
       </c>
@@ -15150,8 +16173,9 @@
       <c r="D439" s="4" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" s="4"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>20</v>
       </c>
@@ -15164,8 +16188,9 @@
       <c r="D440" s="4" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" s="4"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>20</v>
       </c>
@@ -15178,8 +16203,9 @@
       <c r="D441" s="4" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" s="4"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>20</v>
       </c>
@@ -15192,8 +16218,9 @@
       <c r="D442" s="4" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" s="4"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>20</v>
       </c>
@@ -15206,8 +16233,9 @@
       <c r="D443" s="4" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" s="4"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -15220,8 +16248,9 @@
       <c r="D444" s="4" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" s="4"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>20</v>
       </c>
@@ -15234,8 +16263,9 @@
       <c r="D445" s="4" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" s="4"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>20</v>
       </c>
@@ -15248,8 +16278,9 @@
       <c r="D446" s="4" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" s="4"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>20</v>
       </c>
@@ -15262,8 +16293,9 @@
       <c r="D447" s="4" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" s="4"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>20</v>
       </c>
@@ -15276,8 +16308,9 @@
       <c r="D448" s="4" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" s="4"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>20</v>
       </c>
@@ -15290,8 +16323,9 @@
       <c r="D449" s="4" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" s="4"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>20</v>
       </c>
@@ -15304,8 +16338,9 @@
       <c r="D450" s="4" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" s="4"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>20</v>
       </c>
@@ -15318,8 +16353,9 @@
       <c r="D451" s="4" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" s="4"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>20</v>
       </c>
@@ -15332,8 +16368,9 @@
       <c r="D452" s="4" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" s="4"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>20</v>
       </c>
@@ -15346,8 +16383,9 @@
       <c r="D453" s="4" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" s="4"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>20</v>
       </c>
@@ -15360,8 +16398,9 @@
       <c r="D454" s="4" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" s="4"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>20</v>
       </c>
@@ -15374,8 +16413,9 @@
       <c r="D455" s="4" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" s="4"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>20</v>
       </c>
@@ -15388,8 +16428,9 @@
       <c r="D456" s="4" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" s="4"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>20</v>
       </c>
@@ -15402,8 +16443,9 @@
       <c r="D457" s="4" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" s="4"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>20</v>
       </c>
@@ -15416,8 +16458,11 @@
       <c r="D458" s="4" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>20</v>
       </c>
@@ -15430,8 +16475,11 @@
       <c r="D459" s="4" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>20</v>
       </c>
@@ -15444,8 +16492,11 @@
       <c r="D460" s="4" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" s="4">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>20</v>
       </c>
@@ -15458,8 +16509,11 @@
       <c r="D461" s="4" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>20</v>
       </c>
@@ -15472,8 +16526,11 @@
       <c r="D462" s="4" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>20</v>
       </c>
@@ -15486,8 +16543,9 @@
       <c r="D463" s="4" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" s="4"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>20</v>
       </c>
@@ -15500,8 +16558,11 @@
       <c r="D464" s="4" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>20</v>
       </c>
@@ -15514,8 +16575,9 @@
       <c r="D465" s="4" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" s="4"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>20</v>
       </c>
@@ -15528,8 +16590,11 @@
       <c r="D466" s="4" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" s="4">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>20</v>
       </c>
@@ -15542,8 +16607,9 @@
       <c r="D467" s="4" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" s="4"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>20</v>
       </c>
@@ -15556,8 +16622,11 @@
       <c r="D468" s="4" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>20</v>
       </c>
@@ -15570,8 +16639,9 @@
       <c r="D469" s="4" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" s="4"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>20</v>
       </c>
@@ -15584,8 +16654,9 @@
       <c r="D470" s="4" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" s="4"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>20</v>
       </c>
@@ -15598,8 +16669,11 @@
       <c r="D471" s="4" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>20</v>
       </c>
@@ -15612,8 +16686,11 @@
       <c r="D472" s="4" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>20</v>
       </c>
@@ -15626,8 +16703,9 @@
       <c r="D473" s="4" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" s="4"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>20</v>
       </c>
@@ -15640,8 +16718,11 @@
       <c r="D474" s="4" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>20</v>
       </c>
@@ -15654,8 +16735,9 @@
       <c r="D475" s="4" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" s="4"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>20</v>
       </c>
@@ -15668,8 +16750,11 @@
       <c r="D476" s="4" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>20</v>
       </c>
@@ -15682,8 +16767,9 @@
       <c r="D477" s="4" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477" s="4"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>20</v>
       </c>
@@ -15696,8 +16782,11 @@
       <c r="D478" s="4" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478" s="4">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>20</v>
       </c>
@@ -15710,8 +16799,11 @@
       <c r="D479" s="4" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479" s="4" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>20</v>
       </c>
@@ -15724,8 +16816,11 @@
       <c r="D480" s="4" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480" s="4" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>20</v>
       </c>
@@ -15738,8 +16833,9 @@
       <c r="D481" s="4" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" s="4"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>20</v>
       </c>
@@ -15752,8 +16848,11 @@
       <c r="D482" s="4" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>20</v>
       </c>
@@ -15766,8 +16865,11 @@
       <c r="D483" s="4" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E483" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>20</v>
       </c>
@@ -15780,8 +16882,11 @@
       <c r="D484" s="4" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484" s="4">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>20</v>
       </c>
@@ -15794,8 +16899,9 @@
       <c r="D485" s="4" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485" s="4"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>20</v>
       </c>
@@ -15808,8 +16914,11 @@
       <c r="D486" s="4" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" s="4">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>20</v>
       </c>
@@ -15822,8 +16931,9 @@
       <c r="D487" s="4" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" s="4"/>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>20</v>
       </c>
@@ -15836,8 +16946,11 @@
       <c r="D488" s="4" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" s="4">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>20</v>
       </c>
@@ -15850,8 +16963,9 @@
       <c r="D489" s="4" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" s="4"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>20</v>
       </c>
@@ -15864,8 +16978,9 @@
       <c r="D490" s="4" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490" s="4"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>20</v>
       </c>
@@ -15878,8 +16993,9 @@
       <c r="D491" s="4" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" s="4"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>20</v>
       </c>
@@ -15892,8 +17008,9 @@
       <c r="D492" s="4" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E492" s="4"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>20</v>
       </c>
@@ -15906,8 +17023,11 @@
       <c r="D493" s="4" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E493" s="4">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>20</v>
       </c>
@@ -15920,8 +17040,9 @@
       <c r="D494" s="4" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E494" s="4"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>20</v>
       </c>
@@ -15934,8 +17055,9 @@
       <c r="D495" s="4" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E495" s="4"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>20</v>
       </c>
@@ -15948,8 +17070,9 @@
       <c r="D496" s="4" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E496" s="4"/>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>20</v>
       </c>
@@ -15962,8 +17085,11 @@
       <c r="D497" s="4" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E497" s="4" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>20</v>
       </c>
@@ -15976,8 +17102,9 @@
       <c r="D498" s="4" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E498" s="4"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>20</v>
       </c>
@@ -15990,8 +17117,9 @@
       <c r="D499" s="4" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E499" s="4"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>20</v>
       </c>
@@ -16004,8 +17132,9 @@
       <c r="D500" s="4" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E500" s="4"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>20</v>
       </c>
@@ -16018,8 +17147,9 @@
       <c r="D501" s="4" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E501" s="4"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>20</v>
       </c>
@@ -16032,8 +17162,9 @@
       <c r="D502" s="4" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E502" s="4"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>20</v>
       </c>
@@ -16046,8 +17177,9 @@
       <c r="D503" s="4" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E503" s="4"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>20</v>
       </c>
@@ -16060,8 +17192,9 @@
       <c r="D504" s="4" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E504" s="4"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>20</v>
       </c>
@@ -16074,8 +17207,9 @@
       <c r="D505" s="4" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E505" s="4"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>20</v>
       </c>
@@ -16088,8 +17222,11 @@
       <c r="D506" s="4" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E506" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>20</v>
       </c>
@@ -16102,8 +17239,11 @@
       <c r="D507" s="4" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E507" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>20</v>
       </c>
@@ -16116,8 +17256,11 @@
       <c r="D508" s="4" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E508" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>20</v>
       </c>
@@ -16130,8 +17273,11 @@
       <c r="D509" s="4" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E509" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>20</v>
       </c>
@@ -16144,8 +17290,9 @@
       <c r="D510" s="4" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E510" s="4"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>20</v>
       </c>
@@ -16158,8 +17305,11 @@
       <c r="D511" s="4" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E511" s="4" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>20</v>
       </c>
@@ -16172,8 +17322,11 @@
       <c r="D512" s="4" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="4" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>20</v>
       </c>
@@ -16186,8 +17339,11 @@
       <c r="D513" s="4" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E513" s="4" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>20</v>
       </c>
@@ -16200,8 +17356,11 @@
       <c r="D514" s="4" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>20</v>
       </c>
@@ -16214,8 +17373,9 @@
       <c r="D515" s="4" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E515" s="4"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>20</v>
       </c>
@@ -16228,8 +17388,11 @@
       <c r="D516" s="4" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E516" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>20</v>
       </c>
@@ -16242,8 +17405,9 @@
       <c r="D517" s="4" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E517" s="4"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>20</v>
       </c>
@@ -16256,8 +17420,11 @@
       <c r="D518" s="4" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E518" s="4">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>20</v>
       </c>
@@ -16270,8 +17437,9 @@
       <c r="D519" s="4" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E519" s="4"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>20</v>
       </c>
@@ -16284,8 +17452,11 @@
       <c r="D520" s="4" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E520" s="4">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>20</v>
       </c>
@@ -16298,8 +17469,9 @@
       <c r="D521" s="4" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E521" s="4"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>20</v>
       </c>
@@ -16312,8 +17484,11 @@
       <c r="D522" s="4" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E522" s="4">
+        <v>7091</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>20</v>
       </c>
@@ -16326,8 +17501,9 @@
       <c r="D523" s="4" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E523" s="4"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>20</v>
       </c>
@@ -16340,8 +17516,9 @@
       <c r="D524" s="4" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E524" s="4"/>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>20</v>
       </c>
@@ -16354,8 +17531,9 @@
       <c r="D525" s="4" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E525" s="4"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>20</v>
       </c>
@@ -16368,8 +17546,9 @@
       <c r="D526" s="4" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E526" s="4"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>20</v>
       </c>
@@ -16382,8 +17561,11 @@
       <c r="D527" s="4" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E527" s="4">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>20</v>
       </c>
@@ -16396,8 +17578,9 @@
       <c r="D528" s="4" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E528" s="4"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>20</v>
       </c>
@@ -16410,8 +17593,11 @@
       <c r="D529" s="4" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E529" s="4">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>20</v>
       </c>
@@ -16424,8 +17610,9 @@
       <c r="D530" s="4" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E530" s="4"/>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>20</v>
       </c>
@@ -16438,8 +17625,9 @@
       <c r="D531" s="4" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E531" s="4"/>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>20</v>
       </c>
@@ -16452,8 +17640,9 @@
       <c r="D532" s="4" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E532" s="4"/>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>20</v>
       </c>
@@ -16466,8 +17655,9 @@
       <c r="D533" s="4" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E533" s="4"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>20</v>
       </c>
@@ -16480,8 +17670,9 @@
       <c r="D534" s="4" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E534" s="4"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>20</v>
       </c>
@@ -16494,8 +17685,11 @@
       <c r="D535" s="4" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E535" s="4">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>20</v>
       </c>
@@ -16508,8 +17702,9 @@
       <c r="D536" s="4" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E536" s="4"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>20</v>
       </c>
@@ -16522,8 +17717,9 @@
       <c r="D537" s="4" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E537" s="4"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>20</v>
       </c>
@@ -16536,8 +17732,9 @@
       <c r="D538" s="4" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E538" s="4"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>20</v>
       </c>
@@ -16550,8 +17747,9 @@
       <c r="D539" s="4" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E539" s="4"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>20</v>
       </c>
@@ -16564,8 +17762,9 @@
       <c r="D540" s="4" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E540" s="4"/>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>20</v>
       </c>
@@ -16578,8 +17777,9 @@
       <c r="D541" s="4" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E541" s="4"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>20</v>
       </c>
@@ -16592,8 +17792,9 @@
       <c r="D542" s="4" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E542" s="4"/>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>20</v>
       </c>
@@ -16606,8 +17807,11 @@
       <c r="D543" s="4" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E543" s="4">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>20</v>
       </c>
@@ -16620,8 +17824,9 @@
       <c r="D544" s="4" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E544" s="4"/>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>20</v>
       </c>
@@ -16634,8 +17839,9 @@
       <c r="D545" s="4" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E545" s="4"/>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>20</v>
       </c>
@@ -16648,8 +17854,9 @@
       <c r="D546" s="4" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E546" s="4"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>20</v>
       </c>
@@ -16662,8 +17869,11 @@
       <c r="D547" s="4" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E547" s="4">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>20</v>
       </c>
@@ -16676,8 +17886,9 @@
       <c r="D548" s="4" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E548" s="4"/>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>20</v>
       </c>
@@ -16690,8 +17901,11 @@
       <c r="D549" s="4" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E549" s="4">
+        <v>7088</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>20</v>
       </c>
@@ -16704,8 +17918,9 @@
       <c r="D550" s="4" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E550" s="4"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>20</v>
       </c>
@@ -16718,8 +17933,11 @@
       <c r="D551" s="4" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E551" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>20</v>
       </c>
@@ -16732,8 +17950,11 @@
       <c r="D552" s="4" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E552" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>20</v>
       </c>
@@ -16746,8 +17967,9 @@
       <c r="D553" s="4" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E553" s="4"/>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>20</v>
       </c>
@@ -16760,8 +17982,9 @@
       <c r="D554" s="4" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E554" s="4"/>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>20</v>
       </c>
@@ -16774,8 +17997,9 @@
       <c r="D555" s="4" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E555" s="4"/>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>20</v>
       </c>
@@ -16788,8 +18012,9 @@
       <c r="D556" s="4" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E556" s="4"/>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>20</v>
       </c>
@@ -16802,8 +18027,9 @@
       <c r="D557" s="4" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E557" s="4"/>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>20</v>
       </c>
@@ -16816,8 +18042,9 @@
       <c r="D558" s="4" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E558" s="4"/>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>20</v>
       </c>
@@ -16830,8 +18057,9 @@
       <c r="D559" s="4" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E559" s="4"/>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>20</v>
       </c>
@@ -16844,8 +18072,9 @@
       <c r="D560" s="4" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E560" s="4"/>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>20</v>
       </c>
@@ -16858,8 +18087,11 @@
       <c r="D561" s="4" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E561" s="4" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>20</v>
       </c>
@@ -16872,8 +18104,9 @@
       <c r="D562" s="4" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E562" s="4"/>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>20</v>
       </c>
@@ -16886,8 +18119,9 @@
       <c r="D563" s="4" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E563" s="4"/>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>20</v>
       </c>
@@ -16900,8 +18134,9 @@
       <c r="D564" s="4" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E564" s="4"/>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>20</v>
       </c>
@@ -16914,8 +18149,9 @@
       <c r="D565" s="4" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E565" s="4"/>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>20</v>
       </c>
@@ -16928,8 +18164,9 @@
       <c r="D566" s="4" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E566" s="4"/>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>20</v>
       </c>
@@ -16942,8 +18179,9 @@
       <c r="D567" s="4" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E567" s="4"/>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>20</v>
       </c>
@@ -16956,8 +18194,9 @@
       <c r="D568" s="4" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E568" s="4"/>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>20</v>
       </c>
@@ -16970,8 +18209,11 @@
       <c r="D569" s="4" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E569" s="4">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>20</v>
       </c>
@@ -16984,8 +18226,11 @@
       <c r="D570" s="4" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E570" s="4">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>20</v>
       </c>
@@ -16998,8 +18243,9 @@
       <c r="D571" s="4" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E571" s="4"/>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>20</v>
       </c>
@@ -17012,8 +18258,9 @@
       <c r="D572" s="4" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E572" s="4"/>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>20</v>
       </c>
@@ -17026,8 +18273,11 @@
       <c r="D573" s="4" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E573" s="4" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>20</v>
       </c>
@@ -17040,8 +18290,9 @@
       <c r="D574" s="4" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E574" s="4"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>20</v>
       </c>
@@ -17054,8 +18305,11 @@
       <c r="D575" s="4" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E575" s="4">
+        <v>7085</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>20</v>
       </c>
@@ -17068,8 +18322,9 @@
       <c r="D576" s="4" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E576" s="4"/>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>20</v>
       </c>
@@ -17082,8 +18337,9 @@
       <c r="D577" s="4" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E577" s="4"/>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>20</v>
       </c>
@@ -17096,8 +18352,9 @@
       <c r="D578" s="4" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E578" s="4"/>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>20</v>
       </c>
@@ -17110,8 +18367,9 @@
       <c r="D579" s="4" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E579" s="4"/>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>20</v>
       </c>
@@ -17124,8 +18382,11 @@
       <c r="D580" s="4" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E580" s="4">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>20</v>
       </c>
@@ -17138,8 +18399,9 @@
       <c r="D581" s="4" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E581" s="4"/>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>20</v>
       </c>
@@ -17152,8 +18414,9 @@
       <c r="D582" s="4" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E582" s="4"/>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>20</v>
       </c>
@@ -17166,8 +18429,11 @@
       <c r="D583" s="4" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E583" s="4">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>20</v>
       </c>
@@ -17180,8 +18446,9 @@
       <c r="D584" s="4" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E584" s="4"/>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>20</v>
       </c>
@@ -17194,8 +18461,11 @@
       <c r="D585" s="4" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E585" s="4">
+        <v>7082</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>20</v>
       </c>
@@ -17208,8 +18478,9 @@
       <c r="D586" s="4" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E586" s="4"/>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>20</v>
       </c>
@@ -17222,8 +18493,9 @@
       <c r="D587" s="4" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E587" s="4"/>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>20</v>
       </c>
@@ -17236,8 +18508,11 @@
       <c r="D588" s="4" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E588" s="4">
+        <v>7094</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>20</v>
       </c>
@@ -17250,8 +18525,11 @@
       <c r="D589" s="4" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E589" s="4">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>20</v>
       </c>
@@ -17264,8 +18542,9 @@
       <c r="D590" s="4" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E590" s="4"/>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>20</v>
       </c>
@@ -17278,8 +18557,9 @@
       <c r="D591" s="4" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E591" s="4"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>20</v>
       </c>
@@ -17292,8 +18572,9 @@
       <c r="D592" s="4" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E592" s="4"/>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>20</v>
       </c>
@@ -17306,8 +18587,9 @@
       <c r="D593" s="4" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E593" s="4"/>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>20</v>
       </c>
@@ -17320,8 +18602,9 @@
       <c r="D594" s="4" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E594" s="4"/>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>20</v>
       </c>
@@ -17334,8 +18617,11 @@
       <c r="D595" s="4" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E595" s="4" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>20</v>
       </c>
@@ -17348,8 +18634,11 @@
       <c r="D596" s="4" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E596" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>20</v>
       </c>
@@ -17362,8 +18651,9 @@
       <c r="D597" s="4" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E597" s="4"/>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>20</v>
       </c>
@@ -17376,8 +18666,9 @@
       <c r="D598" s="4" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E598" s="4"/>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>20</v>
       </c>
@@ -17390,8 +18681,9 @@
       <c r="D599" s="4" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E599" s="4"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>20</v>
       </c>
@@ -17404,8 +18696,9 @@
       <c r="D600" s="4" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E600" s="4"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>21</v>
       </c>
@@ -17418,8 +18711,11 @@
       <c r="D601" s="4" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E601" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>21</v>
       </c>
@@ -17432,8 +18728,11 @@
       <c r="D602" s="4" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E602" s="4" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>21</v>
       </c>
@@ -17446,8 +18745,11 @@
       <c r="D603" s="4" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E603" s="4" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>21</v>
       </c>
@@ -17460,8 +18762,9 @@
       <c r="D604" s="4" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E604" s="4"/>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>21</v>
       </c>
@@ -17474,8 +18777,11 @@
       <c r="D605" s="4" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E605" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>21</v>
       </c>
@@ -17488,8 +18794,9 @@
       <c r="D606" s="4" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E606" s="4"/>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>21</v>
       </c>
@@ -17502,8 +18809,9 @@
       <c r="D607" s="4" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E607" s="4"/>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>21</v>
       </c>
@@ -17516,8 +18824,9 @@
       <c r="D608" s="4" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E608" s="4"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>21</v>
       </c>
@@ -17530,8 +18839,9 @@
       <c r="D609" s="4" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E609" s="4"/>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>21</v>
       </c>
@@ -17544,8 +18854,9 @@
       <c r="D610" s="4" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E610" s="4"/>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>21</v>
       </c>
@@ -17558,8 +18869,9 @@
       <c r="D611" s="4" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E611" s="4"/>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>21</v>
       </c>
@@ -17572,8 +18884,9 @@
       <c r="D612" s="4" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E612" s="4"/>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>21</v>
       </c>
@@ -17586,8 +18899,9 @@
       <c r="D613" s="4" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E613" s="4"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>21</v>
       </c>
@@ -17600,8 +18914,9 @@
       <c r="D614" s="4" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E614" s="4"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>21</v>
       </c>
@@ -17614,8 +18929,9 @@
       <c r="D615" s="4" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E615" s="4"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>21</v>
       </c>
@@ -17628,8 +18944,9 @@
       <c r="D616" s="4" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E616" s="4"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>21</v>
       </c>
@@ -17642,8 +18959,9 @@
       <c r="D617" s="4" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E617" s="4"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>21</v>
       </c>
@@ -17656,8 +18974,9 @@
       <c r="D618" s="4" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E618" s="4"/>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>21</v>
       </c>
@@ -17670,8 +18989,9 @@
       <c r="D619" s="4" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E619" s="4"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>21</v>
       </c>
@@ -17684,8 +19004,9 @@
       <c r="D620" s="4" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E620" s="4"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>21</v>
       </c>
@@ -17698,8 +19019,9 @@
       <c r="D621" s="4" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E621" s="4"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>21</v>
       </c>
@@ -17712,8 +19034,9 @@
       <c r="D622" s="4" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E622" s="4"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>21</v>
       </c>
@@ -17726,8 +19049,9 @@
       <c r="D623" s="4" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E623" s="4"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>21</v>
       </c>
@@ -17740,8 +19064,9 @@
       <c r="D624" s="4" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E624" s="4"/>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>21</v>
       </c>
@@ -17754,8 +19079,9 @@
       <c r="D625" s="4" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E625" s="4"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>21</v>
       </c>
@@ -17768,8 +19094,9 @@
       <c r="D626" s="4" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E626" s="4"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>21</v>
       </c>
@@ -17782,8 +19109,9 @@
       <c r="D627" s="4" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E627" s="4"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>21</v>
       </c>
@@ -17796,8 +19124,9 @@
       <c r="D628" s="4" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E628" s="4"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>21</v>
       </c>
@@ -17810,8 +19139,9 @@
       <c r="D629" s="4" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E629" s="4"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>21</v>
       </c>
@@ -17824,8 +19154,9 @@
       <c r="D630" s="4" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E630" s="4"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>21</v>
       </c>
@@ -17838,8 +19169,9 @@
       <c r="D631" s="4" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E631" s="4"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>21</v>
       </c>
@@ -17852,8 +19184,9 @@
       <c r="D632" s="4" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E632" s="4"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>21</v>
       </c>
@@ -17866,8 +19199,9 @@
       <c r="D633" s="4" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E633" s="4"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>21</v>
       </c>
@@ -17880,8 +19214,9 @@
       <c r="D634" s="4" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E634" s="4"/>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>21</v>
       </c>
@@ -17894,8 +19229,9 @@
       <c r="D635" s="4" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E635" s="4"/>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>21</v>
       </c>
@@ -17908,8 +19244,11 @@
       <c r="D636" s="4" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E636" s="4" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>21</v>
       </c>
@@ -17922,8 +19261,11 @@
       <c r="D637" s="4" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E637" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>21</v>
       </c>
@@ -17936,8 +19278,11 @@
       <c r="D638" s="4" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E638" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>21</v>
       </c>
@@ -17950,8 +19295,11 @@
       <c r="D639" s="4" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E639" s="4" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>21</v>
       </c>
@@ -17964,8 +19312,11 @@
       <c r="D640" s="4" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E640" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>21</v>
       </c>
@@ -17978,8 +19329,11 @@
       <c r="D641" s="4" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E641" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>21</v>
       </c>
@@ -17992,8 +19346,11 @@
       <c r="D642" s="4" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E642" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>21</v>
       </c>
@@ -18006,8 +19363,9 @@
       <c r="D643" s="4" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E643" s="4"/>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>21</v>
       </c>
@@ -18020,8 +19378,9 @@
       <c r="D644" s="4" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E644" s="4"/>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>21</v>
       </c>
@@ -18034,8 +19393,9 @@
       <c r="D645" s="4" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E645" s="4"/>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>21</v>
       </c>
@@ -18048,8 +19408,9 @@
       <c r="D646" s="4" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E646" s="4"/>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>21</v>
       </c>
@@ -18062,8 +19423,11 @@
       <c r="D647" s="4" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E647" s="4" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>21</v>
       </c>
@@ -18076,8 +19440,9 @@
       <c r="D648" s="4" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E648" s="4"/>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>21</v>
       </c>
@@ -18090,8 +19455,9 @@
       <c r="D649" s="4" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E649" s="4"/>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>21</v>
       </c>
@@ -18104,8 +19470,9 @@
       <c r="D650" s="4" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E650" s="4"/>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>21</v>
       </c>
@@ -18118,8 +19485,11 @@
       <c r="D651" s="4" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E651" s="4" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>21</v>
       </c>
@@ -18132,8 +19502,11 @@
       <c r="D652" s="4" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E652" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>21</v>
       </c>
@@ -18146,8 +19519,11 @@
       <c r="D653" s="4" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E653" s="4" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>21</v>
       </c>
@@ -18160,8 +19536,11 @@
       <c r="D654" s="4" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E654" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>21</v>
       </c>
@@ -18174,8 +19553,11 @@
       <c r="D655" s="4" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E655" s="4" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>22</v>
       </c>
@@ -18188,8 +19570,9 @@
       <c r="D656" s="4" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E656" s="4"/>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>22</v>
       </c>
@@ -18202,8 +19585,9 @@
       <c r="D657" s="4" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E657" s="4"/>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>22</v>
       </c>
@@ -18216,8 +19600,11 @@
       <c r="D658" s="4" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E658" s="4">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>22</v>
       </c>
@@ -18230,8 +19617,9 @@
       <c r="D659" s="4" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E659" s="4"/>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>22</v>
       </c>
@@ -18244,8 +19632,9 @@
       <c r="D660" s="4" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E660" s="4"/>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>22</v>
       </c>
@@ -18258,8 +19647,9 @@
       <c r="D661" s="4" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E661" s="4"/>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>22</v>
       </c>
@@ -18272,8 +19662,9 @@
       <c r="D662" s="4" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E662" s="4"/>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>22</v>
       </c>
@@ -18286,8 +19677,11 @@
       <c r="D663" s="4" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E663" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>22</v>
       </c>
@@ -18300,8 +19694,11 @@
       <c r="D664" s="4" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E664" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>22</v>
       </c>
@@ -18314,8 +19711,9 @@
       <c r="D665" s="4" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E665" s="4"/>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>22</v>
       </c>
@@ -18328,8 +19726,9 @@
       <c r="D666" s="4" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E666" s="4"/>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>22</v>
       </c>
@@ -18342,8 +19741,9 @@
       <c r="D667" s="4" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E667" s="4"/>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>22</v>
       </c>
@@ -18356,8 +19756,9 @@
       <c r="D668" s="4" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E668" s="4"/>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>22</v>
       </c>
@@ -18370,8 +19771,9 @@
       <c r="D669" s="4" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E669" s="4"/>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>22</v>
       </c>
@@ -18384,8 +19786,9 @@
       <c r="D670" s="4" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E670" s="4"/>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>22</v>
       </c>
@@ -18398,8 +19801,11 @@
       <c r="D671" s="4" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E671" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>22</v>
       </c>
@@ -18412,8 +19818,9 @@
       <c r="D672" s="4" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E672" s="4"/>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>22</v>
       </c>
@@ -18426,8 +19833,9 @@
       <c r="D673" s="4" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E673" s="4"/>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>22</v>
       </c>
@@ -18440,8 +19848,9 @@
       <c r="D674" s="4" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E674" s="4"/>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>22</v>
       </c>
@@ -18454,8 +19863,9 @@
       <c r="D675" s="4" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E675" s="4"/>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>22</v>
       </c>
@@ -18468,8 +19878,9 @@
       <c r="D676" s="4" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E676" s="4"/>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>22</v>
       </c>
@@ -18482,8 +19893,9 @@
       <c r="D677" s="4" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E677" s="4"/>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>22</v>
       </c>
@@ -18496,8 +19908,9 @@
       <c r="D678" s="4" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E678" s="4"/>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>22</v>
       </c>
@@ -18510,8 +19923,9 @@
       <c r="D679" s="4" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E679" s="4"/>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>22</v>
       </c>
@@ -18524,8 +19938,9 @@
       <c r="D680" s="4" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E680" s="4"/>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>22</v>
       </c>
@@ -18538,8 +19953,9 @@
       <c r="D681" s="4" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E681" s="4"/>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>22</v>
       </c>
@@ -18552,8 +19968,9 @@
       <c r="D682" s="4" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E682" s="4"/>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>22</v>
       </c>
@@ -18566,8 +19983,9 @@
       <c r="D683" s="4" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E683" s="4"/>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>22</v>
       </c>
@@ -18580,8 +19998,9 @@
       <c r="D684" s="4" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E684" s="4"/>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>22</v>
       </c>
@@ -18594,8 +20013,9 @@
       <c r="D685" s="4" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E685" s="4"/>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>22</v>
       </c>
@@ -18608,8 +20028,9 @@
       <c r="D686" s="4" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E686" s="4"/>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>22</v>
       </c>
@@ -18622,8 +20043,9 @@
       <c r="D687" s="4" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E687" s="4"/>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>22</v>
       </c>
@@ -18636,8 +20058,9 @@
       <c r="D688" s="4" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E688" s="4"/>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>22</v>
       </c>
@@ -18650,8 +20073,9 @@
       <c r="D689" s="4" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E689" s="4"/>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>22</v>
       </c>
@@ -18664,8 +20088,9 @@
       <c r="D690" s="4" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E690" s="4"/>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>22</v>
       </c>
@@ -18678,8 +20103,9 @@
       <c r="D691" s="4" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E691" s="4"/>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>22</v>
       </c>
@@ -18692,8 +20118,9 @@
       <c r="D692" s="4" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E692" s="4"/>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>22</v>
       </c>
@@ -18706,8 +20133,9 @@
       <c r="D693" s="4" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E693" s="4"/>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>22</v>
       </c>
@@ -18720,8 +20148,9 @@
       <c r="D694" s="4" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E694" s="4"/>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>22</v>
       </c>
@@ -18734,8 +20163,9 @@
       <c r="D695" s="4" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E695" s="4"/>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>22</v>
       </c>
@@ -18748,8 +20178,9 @@
       <c r="D696" s="4" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E696" s="4"/>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>22</v>
       </c>
@@ -18762,8 +20193,9 @@
       <c r="D697" s="4" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E697" s="4"/>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>22</v>
       </c>
@@ -18776,8 +20208,9 @@
       <c r="D698" s="4" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E698" s="4"/>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>22</v>
       </c>
@@ -18790,8 +20223,9 @@
       <c r="D699" s="4" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E699" s="4"/>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>22</v>
       </c>
@@ -18804,8 +20238,9 @@
       <c r="D700" s="4" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E700" s="4"/>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>22</v>
       </c>
@@ -18818,8 +20253,9 @@
       <c r="D701" s="4" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E701" s="4"/>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>22</v>
       </c>
@@ -18832,8 +20268,9 @@
       <c r="D702" s="4" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E702" s="4"/>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>22</v>
       </c>
@@ -18846,8 +20283,9 @@
       <c r="D703" s="4" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E703" s="4"/>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>22</v>
       </c>
@@ -18860,8 +20298,9 @@
       <c r="D704" s="4" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E704" s="4"/>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>22</v>
       </c>
@@ -18874,8 +20313,9 @@
       <c r="D705" s="4" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E705" s="4"/>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>22</v>
       </c>
@@ -18888,8 +20328,9 @@
       <c r="D706" s="4" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E706" s="4"/>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>22</v>
       </c>
@@ -18902,8 +20343,9 @@
       <c r="D707" s="4" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E707" s="4"/>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>22</v>
       </c>
@@ -18916,8 +20358,9 @@
       <c r="D708" s="4" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E708" s="4"/>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>22</v>
       </c>
@@ -18930,8 +20373,9 @@
       <c r="D709" s="4" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E709" s="4"/>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>22</v>
       </c>
@@ -18944,8 +20388,9 @@
       <c r="D710" s="4" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E710" s="4"/>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>22</v>
       </c>
@@ -18958,8 +20403,9 @@
       <c r="D711" s="4" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E711" s="4"/>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>22</v>
       </c>
@@ -18972,8 +20418,9 @@
       <c r="D712" s="4" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E712" s="4"/>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>22</v>
       </c>
@@ -18986,8 +20433,9 @@
       <c r="D713" s="4" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E713" s="4"/>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>22</v>
       </c>
@@ -19000,8 +20448,9 @@
       <c r="D714" s="4" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E714" s="4"/>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>22</v>
       </c>
@@ -19014,8 +20463,9 @@
       <c r="D715" s="4" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E715" s="4"/>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>22</v>
       </c>
@@ -19028,8 +20478,9 @@
       <c r="D716" s="4" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E716" s="4"/>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>22</v>
       </c>
@@ -19042,8 +20493,9 @@
       <c r="D717" s="4" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E717" s="4"/>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>22</v>
       </c>
@@ -19056,8 +20508,9 @@
       <c r="D718" s="4" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E718" s="4"/>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>22</v>
       </c>
@@ -19070,8 +20523,9 @@
       <c r="D719" s="4" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E719" s="4"/>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>22</v>
       </c>
@@ -19084,8 +20538,9 @@
       <c r="D720" s="4" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E720" s="4"/>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>22</v>
       </c>
@@ -19098,8 +20553,9 @@
       <c r="D721" s="4" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E721" s="4"/>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>22</v>
       </c>
@@ -19112,8 +20568,9 @@
       <c r="D722" s="4" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E722" s="4"/>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>22</v>
       </c>
@@ -19126,8 +20583,9 @@
       <c r="D723" s="4" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E723" s="4"/>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>22</v>
       </c>
@@ -19140,6 +20598,7 @@
       <c r="D724" s="4" t="s">
         <v>1633</v>
       </c>
+      <c r="E724" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dati_config4.xlsx
+++ b/dati_config4.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="Materials" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Materials!$A$1:$E$725</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="1744">
   <si>
     <t>Pump Model</t>
   </si>
@@ -5263,6 +5266,9 @@
   </si>
   <si>
     <t>Casting code</t>
+  </si>
+  <si>
+    <t>D3223</t>
   </si>
 </sst>
 </file>
@@ -9329,10 +9335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E724"/>
+  <dimension ref="A1:E725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10913,10 +10919,10 @@
         <v>514</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1133</v>
+        <v>1743</v>
       </c>
       <c r="E103" s="4"/>
     </row>
@@ -10928,10 +10934,10 @@
         <v>514</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E104" s="4"/>
     </row>
@@ -10943,10 +10949,10 @@
         <v>514</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E105" s="4"/>
     </row>
@@ -10973,10 +10979,10 @@
         <v>514</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E107" s="4"/>
     </row>
@@ -10988,10 +10994,10 @@
         <v>514</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E108" s="4"/>
     </row>
@@ -11003,10 +11009,10 @@
         <v>514</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E109" s="4"/>
     </row>
@@ -11018,10 +11024,10 @@
         <v>514</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E110" s="4"/>
     </row>
@@ -11033,10 +11039,10 @@
         <v>514</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E111" s="4"/>
     </row>
@@ -11048,10 +11054,10 @@
         <v>514</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E112" s="4"/>
     </row>
@@ -11063,10 +11069,10 @@
         <v>514</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E113" s="4"/>
     </row>
@@ -11078,10 +11084,10 @@
         <v>514</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E114" s="4"/>
     </row>
@@ -11108,10 +11114,10 @@
         <v>514</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E116" s="4"/>
     </row>
@@ -11123,10 +11129,10 @@
         <v>514</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E117" s="4"/>
     </row>
@@ -11138,10 +11144,10 @@
         <v>514</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E118" s="4"/>
     </row>
@@ -11153,10 +11159,10 @@
         <v>514</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E119" s="4"/>
     </row>
@@ -11183,10 +11189,10 @@
         <v>514</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E121" s="4"/>
     </row>
@@ -11198,10 +11204,10 @@
         <v>514</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E122" s="4"/>
     </row>
@@ -11213,10 +11219,10 @@
         <v>514</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E123" s="4"/>
     </row>
@@ -11228,10 +11234,10 @@
         <v>514</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E124" s="4"/>
     </row>
@@ -11243,10 +11249,10 @@
         <v>514</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E125" s="4"/>
     </row>
@@ -11258,10 +11264,10 @@
         <v>514</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E126" s="4"/>
     </row>
@@ -11273,10 +11279,10 @@
         <v>514</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E127" s="4"/>
     </row>
@@ -11288,10 +11294,10 @@
         <v>514</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E128" s="4"/>
     </row>
@@ -11303,10 +11309,10 @@
         <v>514</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E129" s="4"/>
     </row>
@@ -11318,10 +11324,10 @@
         <v>514</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E130" s="4"/>
     </row>
@@ -11333,10 +11339,10 @@
         <v>514</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E131" s="4"/>
     </row>
@@ -11348,10 +11354,10 @@
         <v>514</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E132" s="4"/>
     </row>
@@ -11363,10 +11369,10 @@
         <v>514</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E133" s="4"/>
     </row>
@@ -11378,10 +11384,10 @@
         <v>514</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E134" s="4"/>
     </row>
@@ -11393,10 +11399,10 @@
         <v>514</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E135" s="4"/>
     </row>
@@ -11408,10 +11414,10 @@
         <v>514</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E136" s="4"/>
     </row>
@@ -11423,10 +11429,10 @@
         <v>514</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E137" s="4"/>
     </row>
@@ -11438,10 +11444,10 @@
         <v>514</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E138" s="4"/>
     </row>
@@ -11453,10 +11459,10 @@
         <v>514</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E139" s="4"/>
     </row>
@@ -11468,10 +11474,10 @@
         <v>514</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E140" s="4"/>
     </row>
@@ -11483,10 +11489,10 @@
         <v>514</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E141" s="4"/>
     </row>
@@ -11498,10 +11504,10 @@
         <v>514</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E142" s="4"/>
     </row>
@@ -11513,10 +11519,10 @@
         <v>514</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E143" s="4"/>
     </row>
@@ -11528,10 +11534,10 @@
         <v>514</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E144" s="4"/>
     </row>
@@ -11543,10 +11549,10 @@
         <v>514</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E145" s="4"/>
     </row>
@@ -11555,17 +11561,15 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E146" s="4">
-        <v>7065</v>
-      </c>
+        <v>1172</v>
+      </c>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -11575,13 +11579,13 @@
         <v>550</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E147" s="4">
-        <v>7061</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -11592,13 +11596,13 @@
         <v>550</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>1645</v>
+        <v>1174</v>
+      </c>
+      <c r="E148" s="4">
+        <v>7061</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -11609,13 +11613,13 @@
         <v>550</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E149" s="4">
-        <v>7066</v>
+        <v>1175</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -11626,13 +11630,13 @@
         <v>550</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E150" s="4">
-        <v>7067</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -11640,28 +11644,30 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>24</v>
+        <v>555</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E151" s="4"/>
+        <v>1177</v>
+      </c>
+      <c r="E151" s="4">
+        <v>7067</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E152" s="4"/>
     </row>
@@ -11745,13 +11751,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E158" s="4"/>
     </row>
@@ -11760,13 +11766,13 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>497</v>
+        <v>23</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E159" s="4"/>
     </row>
@@ -11808,10 +11814,10 @@
         <v>559</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E162" s="4"/>
     </row>
@@ -11853,10 +11859,10 @@
         <v>559</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E165" s="4"/>
     </row>
@@ -11865,13 +11871,13 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E166" s="4"/>
     </row>
@@ -11883,10 +11889,10 @@
         <v>561</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E167" s="4"/>
     </row>
@@ -11898,10 +11904,10 @@
         <v>561</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>446</v>
+        <v>563</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E168" s="4"/>
     </row>
@@ -11913,10 +11919,10 @@
         <v>561</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>564</v>
+        <v>446</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E169" s="4"/>
     </row>
@@ -11928,10 +11934,10 @@
         <v>561</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E170" s="4"/>
     </row>
@@ -11943,10 +11949,10 @@
         <v>561</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E171" s="4"/>
     </row>
@@ -11955,13 +11961,13 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E172" s="4"/>
     </row>
@@ -11973,10 +11979,10 @@
         <v>567</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E173" s="4"/>
     </row>
@@ -11988,10 +11994,10 @@
         <v>567</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E174" s="4"/>
     </row>
@@ -12003,10 +12009,10 @@
         <v>567</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E175" s="4"/>
     </row>
@@ -12015,13 +12021,13 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E176" s="4"/>
     </row>
@@ -12033,10 +12039,10 @@
         <v>572</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E177" s="4"/>
     </row>
@@ -12063,10 +12069,10 @@
         <v>572</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>459</v>
+        <v>574</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E179" s="4"/>
     </row>
@@ -12078,10 +12084,10 @@
         <v>572</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>575</v>
+        <v>459</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E180" s="4"/>
     </row>
@@ -12090,13 +12096,13 @@
         <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E181" s="4"/>
     </row>
@@ -12108,10 +12114,10 @@
         <v>576</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E182" s="4"/>
     </row>
@@ -12120,13 +12126,13 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E183" s="4"/>
     </row>
@@ -12135,13 +12141,13 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E184" s="4"/>
     </row>
@@ -12198,10 +12204,10 @@
         <v>581</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E188" s="4"/>
     </row>
@@ -12213,10 +12219,10 @@
         <v>581</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E189" s="4"/>
     </row>
@@ -12243,10 +12249,10 @@
         <v>581</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E191" s="4"/>
     </row>
@@ -12273,10 +12279,10 @@
         <v>581</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E193" s="4"/>
     </row>
@@ -12288,10 +12294,10 @@
         <v>581</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E194" s="4"/>
     </row>
@@ -12303,10 +12309,10 @@
         <v>581</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E195" s="4"/>
     </row>
@@ -12315,17 +12321,15 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E196" s="4">
-        <v>7024</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -12335,13 +12339,13 @@
         <v>589</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E197" s="4">
-        <v>7023</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -12352,13 +12356,13 @@
         <v>589</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E198" s="4">
-        <v>7014</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -12369,13 +12373,13 @@
         <v>589</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E199" s="4">
-        <v>7008</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -12386,13 +12390,13 @@
         <v>589</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E200" s="4">
-        <v>7016</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -12403,13 +12407,13 @@
         <v>589</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E201" s="4">
-        <v>7009</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -12420,13 +12424,13 @@
         <v>589</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E202" s="4">
-        <v>7051</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -12437,13 +12441,13 @@
         <v>589</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E203" s="4">
-        <v>7052</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -12454,13 +12458,13 @@
         <v>589</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>1646</v>
+        <v>1215</v>
+      </c>
+      <c r="E204" s="4">
+        <v>7052</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -12471,13 +12475,13 @@
         <v>589</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E205" s="4">
-        <v>7038</v>
+        <v>1216</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -12488,13 +12492,13 @@
         <v>589</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>1647</v>
+        <v>1217</v>
+      </c>
+      <c r="E206" s="4">
+        <v>7038</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -12505,13 +12509,13 @@
         <v>589</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -12522,13 +12526,13 @@
         <v>589</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -12539,13 +12543,13 @@
         <v>589</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E209" s="4">
-        <v>7014</v>
+        <v>1220</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -12556,13 +12560,13 @@
         <v>589</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E210" s="4">
-        <v>7051</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -12573,13 +12577,13 @@
         <v>589</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>1647</v>
+        <v>1222</v>
+      </c>
+      <c r="E211" s="4">
+        <v>7051</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -12590,13 +12594,13 @@
         <v>589</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E212" s="4">
-        <v>7014</v>
+        <v>1223</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -12607,10 +12611,10 @@
         <v>589</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E213" s="4">
         <v>7014</v>
@@ -12621,16 +12625,16 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E214" s="4">
-        <v>7012</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -12646,7 +12650,9 @@
       <c r="D215" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="E215" s="4"/>
+      <c r="E215" s="4">
+        <v>7012</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -12656,14 +12662,12 @@
         <v>608</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E216" s="4">
-        <v>7013</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -12678,7 +12682,9 @@
       <c r="D217" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="E217" s="4"/>
+      <c r="E217" s="4">
+        <v>7013</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -12688,14 +12694,12 @@
         <v>608</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E218" s="4">
-        <v>7011</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -12705,13 +12709,13 @@
         <v>608</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E219" s="4">
-        <v>7018</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,13 +12726,13 @@
         <v>608</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E220" s="4">
-        <v>7097</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,8 +12748,8 @@
       <c r="D221" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>1650</v>
+      <c r="E221" s="4">
+        <v>7097</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -12756,13 +12760,13 @@
         <v>608</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E222" s="4">
-        <v>7019</v>
+        <v>1230</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12773,13 +12777,13 @@
         <v>608</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>1651</v>
+        <v>1231</v>
+      </c>
+      <c r="E223" s="4">
+        <v>7019</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -12790,13 +12794,13 @@
         <v>608</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12807,13 +12811,13 @@
         <v>608</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -12824,13 +12828,13 @@
         <v>608</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -12841,13 +12845,13 @@
         <v>608</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -12858,13 +12862,13 @@
         <v>608</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -12875,13 +12879,13 @@
         <v>608</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E229" s="4">
-        <v>7011</v>
+        <v>1237</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -12892,13 +12896,13 @@
         <v>608</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>1657</v>
+        <v>1238</v>
+      </c>
+      <c r="E230" s="4">
+        <v>7011</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -12909,13 +12913,13 @@
         <v>608</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -12923,16 +12927,16 @@
         <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E232" s="4">
-        <v>7042</v>
+        <v>1240</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12943,13 +12947,13 @@
         <v>624</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>1658</v>
+        <v>1241</v>
+      </c>
+      <c r="E233" s="4">
+        <v>7042</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -12957,15 +12961,17 @@
         <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E234" s="4"/>
+        <v>1242</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
@@ -12975,10 +12981,10 @@
         <v>627</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E235" s="4"/>
     </row>
@@ -12990,10 +12996,10 @@
         <v>627</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E236" s="4"/>
     </row>
@@ -13005,10 +13011,10 @@
         <v>627</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E237" s="4"/>
     </row>
@@ -13020,10 +13026,10 @@
         <v>627</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E238" s="4"/>
     </row>
@@ -13035,10 +13041,10 @@
         <v>627</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E239" s="4"/>
     </row>
@@ -13050,10 +13056,10 @@
         <v>627</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E240" s="4"/>
     </row>
@@ -13065,10 +13071,10 @@
         <v>627</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E241" s="4"/>
     </row>
@@ -13080,10 +13086,10 @@
         <v>627</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E242" s="4"/>
     </row>
@@ -13095,10 +13101,10 @@
         <v>627</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E243" s="4"/>
     </row>
@@ -13110,10 +13116,10 @@
         <v>627</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E244" s="4"/>
     </row>
@@ -13125,10 +13131,10 @@
         <v>627</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E245" s="4"/>
     </row>
@@ -13140,10 +13146,10 @@
         <v>627</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E246" s="4"/>
     </row>
@@ -13152,13 +13158,13 @@
         <v>20</v>
       </c>
       <c r="B247" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E247" s="4"/>
     </row>
@@ -13170,10 +13176,10 @@
         <v>641</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E248" s="4"/>
     </row>
@@ -13200,10 +13206,10 @@
         <v>641</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E250" s="4"/>
     </row>
@@ -13215,10 +13221,10 @@
         <v>641</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E251" s="4"/>
     </row>
@@ -13227,17 +13233,15 @@
         <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E252" s="4">
-        <v>7071</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -13247,13 +13251,13 @@
         <v>646</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E253" s="4">
-        <v>7074</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -13264,13 +13268,13 @@
         <v>646</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E254" s="4">
-        <v>7060</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -13281,12 +13285,14 @@
         <v>646</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E255" s="4"/>
+        <v>1262</v>
+      </c>
+      <c r="E255" s="4">
+        <v>7060</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -13296,14 +13302,12 @@
         <v>646</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E256" s="4">
-        <v>7070</v>
-      </c>
+        <v>1263</v>
+      </c>
+      <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -13318,24 +13322,24 @@
       <c r="D257" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="E257" s="4"/>
+      <c r="E257" s="4">
+        <v>7070</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E258" s="4">
-        <v>7033</v>
-      </c>
+        <v>1264</v>
+      </c>
+      <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -13350,7 +13354,9 @@
       <c r="D259" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="E259" s="4"/>
+      <c r="E259" s="4">
+        <v>7033</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -13360,14 +13366,12 @@
         <v>651</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E260" s="4">
-        <v>7034</v>
-      </c>
+        <v>1265</v>
+      </c>
+      <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
@@ -13382,7 +13386,9 @@
       <c r="D261" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="E261" s="4"/>
+      <c r="E261" s="4">
+        <v>7034</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
@@ -13392,14 +13398,12 @@
         <v>651</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E262" s="4">
-        <v>7035</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
@@ -13414,7 +13418,9 @@
       <c r="D263" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="E263" s="4"/>
+      <c r="E263" s="4">
+        <v>7035</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -13439,30 +13445,28 @@
         <v>651</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>1659</v>
-      </c>
+        <v>1267</v>
+      </c>
+      <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E266" s="4">
-        <v>7031</v>
+        <v>1268</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -13473,13 +13477,13 @@
         <v>656</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E267" s="4">
-        <v>7032</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -13487,28 +13491,30 @@
         <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E268" s="4"/>
+        <v>1270</v>
+      </c>
+      <c r="E268" s="4">
+        <v>7032</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E269" s="4"/>
     </row>
@@ -13517,13 +13523,13 @@
         <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E270" s="4"/>
     </row>
@@ -13550,10 +13556,10 @@
         <v>663</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E272" s="4"/>
     </row>
@@ -13565,10 +13571,10 @@
         <v>663</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E273" s="4"/>
     </row>
@@ -13580,10 +13586,10 @@
         <v>663</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E274" s="4"/>
     </row>
@@ -13610,10 +13616,10 @@
         <v>663</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>497</v>
+        <v>667</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E276" s="4"/>
     </row>
@@ -13625,10 +13631,10 @@
         <v>663</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>668</v>
+        <v>497</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E277" s="4"/>
     </row>
@@ -13640,10 +13646,10 @@
         <v>663</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E278" s="4"/>
     </row>
@@ -13655,10 +13661,10 @@
         <v>663</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>498</v>
+        <v>669</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E279" s="4"/>
     </row>
@@ -13670,10 +13676,10 @@
         <v>663</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>670</v>
+        <v>498</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E280" s="4"/>
     </row>
@@ -13685,10 +13691,10 @@
         <v>663</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E281" s="4"/>
     </row>
@@ -13700,10 +13706,10 @@
         <v>663</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E282" s="4"/>
     </row>
@@ -13715,10 +13721,10 @@
         <v>663</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E283" s="4"/>
     </row>
@@ -13730,10 +13736,10 @@
         <v>663</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E284" s="4"/>
     </row>
@@ -13745,10 +13751,10 @@
         <v>663</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E285" s="4"/>
     </row>
@@ -13760,10 +13766,10 @@
         <v>663</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E286" s="4"/>
     </row>
@@ -13775,10 +13781,10 @@
         <v>663</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E287" s="4"/>
     </row>
@@ -13787,13 +13793,13 @@
         <v>20</v>
       </c>
       <c r="B288" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>497</v>
+        <v>677</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E288" s="4"/>
     </row>
@@ -13805,10 +13811,10 @@
         <v>678</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E289" s="4"/>
     </row>
@@ -13820,10 +13826,10 @@
         <v>678</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>679</v>
+        <v>498</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E290" s="4"/>
     </row>
@@ -13835,10 +13841,10 @@
         <v>678</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>522</v>
+        <v>679</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E291" s="4"/>
     </row>
@@ -13850,10 +13856,10 @@
         <v>678</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E292" s="4"/>
     </row>
@@ -13862,17 +13868,15 @@
         <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>1660</v>
-      </c>
+        <v>1293</v>
+      </c>
+      <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13887,7 +13891,9 @@
       <c r="D294" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="E294" s="4"/>
+      <c r="E294" s="4" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
@@ -13897,14 +13903,12 @@
         <v>680</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>1661</v>
-      </c>
+        <v>1294</v>
+      </c>
+      <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -13919,7 +13923,9 @@
       <c r="D296" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="E296" s="4"/>
+      <c r="E296" s="4" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
@@ -13929,10 +13935,10 @@
         <v>680</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E297" s="4"/>
     </row>
@@ -13944,14 +13950,12 @@
         <v>680</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>681</v>
+        <v>552</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>1662</v>
-      </c>
+        <v>1296</v>
+      </c>
+      <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -13966,7 +13970,9 @@
       <c r="D299" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="E299" s="4"/>
+      <c r="E299" s="4" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -13976,14 +13982,12 @@
         <v>680</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>1663</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -13993,13 +13997,13 @@
         <v>680</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>551</v>
+        <v>682</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -14015,7 +14019,9 @@
       <c r="D302" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="E302" s="4"/>
+      <c r="E302" s="4" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
@@ -14055,14 +14061,12 @@
         <v>680</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>683</v>
+        <v>551</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E305" s="4" t="s">
-        <v>1665</v>
-      </c>
+        <v>1299</v>
+      </c>
+      <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
@@ -14072,12 +14076,14 @@
         <v>680</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>555</v>
+        <v>683</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E306" s="4"/>
+        <v>1300</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -14087,30 +14093,28 @@
         <v>680</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>684</v>
+        <v>555</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>1666</v>
-      </c>
+        <v>1301</v>
+      </c>
+      <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E308" s="4">
-        <v>7020</v>
+        <v>1302</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -14121,13 +14125,13 @@
         <v>685</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E309" s="4">
-        <v>7064</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -14143,7 +14147,9 @@
       <c r="D310" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="E310" s="4"/>
+      <c r="E310" s="4">
+        <v>7064</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
@@ -14153,14 +14159,12 @@
         <v>685</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E311" s="4" t="s">
-        <v>1667</v>
-      </c>
+        <v>1304</v>
+      </c>
+      <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -14170,13 +14174,13 @@
         <v>685</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -14187,13 +14191,13 @@
         <v>685</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -14204,13 +14208,13 @@
         <v>685</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -14221,13 +14225,13 @@
         <v>685</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -14238,13 +14242,13 @@
         <v>685</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -14255,13 +14259,13 @@
         <v>685</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E317" s="4">
-        <v>7020</v>
+        <v>1310</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -14272,13 +14276,13 @@
         <v>685</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>1673</v>
+        <v>1311</v>
+      </c>
+      <c r="E318" s="4">
+        <v>7020</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -14289,13 +14293,13 @@
         <v>685</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -14306,13 +14310,13 @@
         <v>685</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E320" s="4">
-        <v>7064</v>
+        <v>1313</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -14323,13 +14327,13 @@
         <v>685</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>1671</v>
+        <v>1314</v>
+      </c>
+      <c r="E321" s="4">
+        <v>7064</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -14337,29 +14341,29 @@
         <v>20</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>685</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E322" s="4"/>
+        <v>1315</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>20</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E323" s="4">
-        <v>7049</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
@@ -14374,7 +14378,9 @@
       <c r="D324" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="E324" s="4"/>
+      <c r="E324" s="4">
+        <v>7049</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -14384,14 +14390,12 @@
         <v>700</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>1675</v>
-      </c>
+        <v>1317</v>
+      </c>
+      <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -14401,13 +14405,13 @@
         <v>700</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E326" s="4">
-        <v>7050</v>
+        <v>1318</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -14418,13 +14422,13 @@
         <v>700</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E327" s="4">
-        <v>7057</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -14435,12 +14439,14 @@
         <v>700</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="E328" s="4"/>
+      <c r="E328" s="4">
+        <v>7057</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -14450,10 +14456,10 @@
         <v>700</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E329" s="4"/>
     </row>
@@ -14465,14 +14471,12 @@
         <v>700</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>1676</v>
-      </c>
+        <v>1321</v>
+      </c>
+      <c r="E330" s="4"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -14487,7 +14491,9 @@
       <c r="D331" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="E331" s="4"/>
+      <c r="E331" s="4" t="s">
+        <v>1676</v>
+      </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -14497,14 +14503,12 @@
         <v>700</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E332" s="4">
-        <v>7010</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -14514,13 +14518,13 @@
         <v>700</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E333" s="4">
-        <v>7045</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -14536,7 +14540,9 @@
       <c r="D334" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="E334" s="4"/>
+      <c r="E334" s="4">
+        <v>7045</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
@@ -14561,14 +14567,12 @@
         <v>700</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E336" s="4">
-        <v>7055</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
@@ -14578,13 +14582,13 @@
         <v>700</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>1677</v>
+        <v>1325</v>
+      </c>
+      <c r="E337" s="4">
+        <v>7055</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -14595,13 +14599,13 @@
         <v>700</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -14617,7 +14621,9 @@
       <c r="D339" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="E339" s="4"/>
+      <c r="E339" s="4" t="s">
+        <v>1678</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
@@ -14627,14 +14633,12 @@
         <v>700</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E340" s="4" t="s">
-        <v>1679</v>
-      </c>
+        <v>1327</v>
+      </c>
+      <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
@@ -14644,13 +14648,13 @@
         <v>700</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E341" s="4">
-        <v>7047</v>
+        <v>1328</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -14661,13 +14665,13 @@
         <v>700</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E342" s="4">
-        <v>7054</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -14683,7 +14687,9 @@
       <c r="D343" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="E343" s="4"/>
+      <c r="E343" s="4">
+        <v>7054</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -14723,14 +14729,12 @@
         <v>700</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E346" s="4">
-        <v>7056</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -14745,7 +14749,9 @@
       <c r="D347" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="E347" s="4"/>
+      <c r="E347" s="4">
+        <v>7056</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -14755,14 +14761,12 @@
         <v>700</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E348" s="4" t="s">
-        <v>1680</v>
-      </c>
+        <v>1331</v>
+      </c>
+      <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -14772,13 +14776,13 @@
         <v>700</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -14786,15 +14790,17 @@
         <v>20</v>
       </c>
       <c r="B350" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E350" s="4"/>
+        <v>1333</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -14816,13 +14822,13 @@
         <v>20</v>
       </c>
       <c r="B352" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E352" s="4"/>
     </row>
@@ -14864,10 +14870,10 @@
         <v>721</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E355" s="4"/>
     </row>
@@ -14879,10 +14885,10 @@
         <v>721</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E356" s="4"/>
     </row>
@@ -14924,10 +14930,10 @@
         <v>721</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E359" s="4"/>
     </row>
@@ -14939,10 +14945,10 @@
         <v>721</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E360" s="4"/>
     </row>
@@ -14969,10 +14975,10 @@
         <v>721</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E362" s="4"/>
     </row>
@@ -14984,10 +14990,10 @@
         <v>721</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E363" s="4"/>
     </row>
@@ -15014,10 +15020,10 @@
         <v>721</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E365" s="4"/>
     </row>
@@ -15029,10 +15035,10 @@
         <v>721</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E366" s="4"/>
     </row>
@@ -15041,13 +15047,13 @@
         <v>20</v>
       </c>
       <c r="B367" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E367" s="4"/>
     </row>
@@ -15056,17 +15062,15 @@
         <v>20</v>
       </c>
       <c r="B368" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E368" s="4">
-        <v>7046</v>
-      </c>
+        <v>1344</v>
+      </c>
+      <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -15076,13 +15080,13 @@
         <v>730</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E369" s="4" t="s">
-        <v>1682</v>
+        <v>1345</v>
+      </c>
+      <c r="E369" s="4">
+        <v>7046</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -15090,16 +15094,16 @@
         <v>20</v>
       </c>
       <c r="B370" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>625</v>
+        <v>732</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E370" s="4">
-        <v>7076</v>
+        <v>1346</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -15115,7 +15119,9 @@
       <c r="D371" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="E371" s="4"/>
+      <c r="E371" s="4">
+        <v>7076</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -15125,14 +15131,12 @@
         <v>733</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>734</v>
+        <v>625</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E372" s="4">
-        <v>7041</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -15142,13 +15146,13 @@
         <v>733</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E373" s="4">
-        <v>7077</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -15164,7 +15168,9 @@
       <c r="D374" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="E374" s="4"/>
+      <c r="E374" s="4">
+        <v>7077</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -15174,42 +15180,42 @@
         <v>733</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E375" s="4">
-        <v>7078</v>
-      </c>
+        <v>1349</v>
+      </c>
+      <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>20</v>
       </c>
       <c r="B376" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E376" s="4"/>
+        <v>1350</v>
+      </c>
+      <c r="E376" s="4">
+        <v>7078</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>20</v>
       </c>
       <c r="B377" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E377" s="4"/>
     </row>
@@ -15236,10 +15242,10 @@
         <v>739</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E379" s="4"/>
     </row>
@@ -15251,10 +15257,10 @@
         <v>739</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E380" s="4"/>
     </row>
@@ -15266,10 +15272,10 @@
         <v>739</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E381" s="4"/>
     </row>
@@ -15281,10 +15287,10 @@
         <v>739</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E382" s="4"/>
     </row>
@@ -15296,10 +15302,10 @@
         <v>739</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E383" s="4"/>
     </row>
@@ -15311,10 +15317,10 @@
         <v>739</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E384" s="4"/>
     </row>
@@ -15326,10 +15332,10 @@
         <v>739</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E385" s="4"/>
     </row>
@@ -15338,13 +15344,13 @@
         <v>20</v>
       </c>
       <c r="B386" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E386" s="4"/>
     </row>
@@ -15386,10 +15392,10 @@
         <v>748</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E389" s="4"/>
     </row>
@@ -15401,10 +15407,10 @@
         <v>748</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E390" s="4"/>
     </row>
@@ -15416,10 +15422,10 @@
         <v>748</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E391" s="4"/>
     </row>
@@ -15431,10 +15437,10 @@
         <v>748</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E392" s="4"/>
     </row>
@@ -15446,10 +15452,10 @@
         <v>748</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E393" s="4"/>
     </row>
@@ -15461,10 +15467,10 @@
         <v>748</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E394" s="4"/>
     </row>
@@ -15473,13 +15479,13 @@
         <v>20</v>
       </c>
       <c r="B395" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E395" s="4"/>
     </row>
@@ -15491,10 +15497,10 @@
         <v>756</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E396" s="4"/>
     </row>
@@ -15506,10 +15512,10 @@
         <v>756</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E397" s="4"/>
     </row>
@@ -15521,10 +15527,10 @@
         <v>756</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E398" s="4"/>
     </row>
@@ -15536,10 +15542,10 @@
         <v>756</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E399" s="4"/>
     </row>
@@ -15548,13 +15554,13 @@
         <v>20</v>
       </c>
       <c r="B400" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E400" s="4"/>
     </row>
@@ -15563,13 +15569,13 @@
         <v>20</v>
       </c>
       <c r="B401" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E401" s="4"/>
     </row>
@@ -15581,10 +15587,10 @@
         <v>764</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E402" s="4"/>
     </row>
@@ -15596,10 +15602,10 @@
         <v>764</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E403" s="4"/>
     </row>
@@ -15608,13 +15614,13 @@
         <v>20</v>
       </c>
       <c r="B404" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E404" s="4"/>
     </row>
@@ -15623,17 +15629,15 @@
         <v>20</v>
       </c>
       <c r="B405" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>597</v>
+        <v>769</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>1683</v>
-      </c>
+        <v>1376</v>
+      </c>
+      <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
@@ -15648,7 +15652,9 @@
       <c r="D406" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="E406" s="4"/>
+      <c r="E406" s="4" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
@@ -15658,14 +15664,12 @@
         <v>770</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>771</v>
+        <v>597</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E407" s="4" t="s">
-        <v>1684</v>
-      </c>
+        <v>1377</v>
+      </c>
+      <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
@@ -15680,7 +15684,9 @@
       <c r="D408" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="E408" s="4"/>
+      <c r="E408" s="4" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
@@ -15690,14 +15696,12 @@
         <v>770</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>599</v>
+        <v>771</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E409" s="4" t="s">
-        <v>1685</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
@@ -15712,7 +15716,9 @@
       <c r="D410" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="E410" s="4"/>
+      <c r="E410" s="4" t="s">
+        <v>1685</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
@@ -15722,14 +15728,12 @@
         <v>770</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>1686</v>
-      </c>
+        <v>1379</v>
+      </c>
+      <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -15744,7 +15748,9 @@
       <c r="D412" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="E412" s="4"/>
+      <c r="E412" s="4" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
@@ -15754,14 +15760,12 @@
         <v>770</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E413" s="4">
-        <v>7007</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
@@ -15776,7 +15780,9 @@
       <c r="D414" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="E414" s="4"/>
+      <c r="E414" s="4">
+        <v>7007</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
@@ -15801,14 +15807,12 @@
         <v>770</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>772</v>
+        <v>490</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E416" s="4">
-        <v>7026</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
@@ -15823,7 +15827,9 @@
       <c r="D417" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="E417" s="4"/>
+      <c r="E417" s="4">
+        <v>7026</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -15848,14 +15854,12 @@
         <v>770</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E419" s="4" t="s">
-        <v>1687</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -15865,13 +15869,13 @@
         <v>770</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -15882,13 +15886,13 @@
         <v>770</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -15904,7 +15908,9 @@
       <c r="D422" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="E422" s="4"/>
+      <c r="E422" s="4" t="s">
+        <v>1689</v>
+      </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
@@ -15914,14 +15920,12 @@
         <v>770</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E423" s="4" t="s">
-        <v>1690</v>
-      </c>
+        <v>1385</v>
+      </c>
+      <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
@@ -15936,7 +15940,9 @@
       <c r="D424" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="E424" s="4"/>
+      <c r="E424" s="4" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
@@ -15946,14 +15952,12 @@
         <v>770</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E425" s="4" t="s">
-        <v>1691</v>
-      </c>
+        <v>1386</v>
+      </c>
+      <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
@@ -15968,7 +15972,9 @@
       <c r="D426" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="E426" s="4"/>
+      <c r="E426" s="4" t="s">
+        <v>1691</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
@@ -15978,14 +15984,12 @@
         <v>770</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>774</v>
+        <v>595</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E427" s="4" t="s">
-        <v>1692</v>
-      </c>
+        <v>1387</v>
+      </c>
+      <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
@@ -16000,7 +16004,9 @@
       <c r="D428" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="E428" s="4"/>
+      <c r="E428" s="4" t="s">
+        <v>1692</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
@@ -16010,10 +16016,10 @@
         <v>770</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E429" s="4"/>
     </row>
@@ -16030,9 +16036,7 @@
       <c r="D430" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="E430" s="4" t="s">
-        <v>1693</v>
-      </c>
+      <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
@@ -16042,13 +16046,13 @@
         <v>770</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>590</v>
+        <v>775</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -16064,7 +16068,9 @@
       <c r="D432" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="E432" s="4"/>
+      <c r="E432" s="4" t="s">
+        <v>1694</v>
+      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
@@ -16074,14 +16080,12 @@
         <v>770</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E433" s="4" t="s">
-        <v>1695</v>
-      </c>
+        <v>1390</v>
+      </c>
+      <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
@@ -16096,7 +16100,9 @@
       <c r="D434" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="E434" s="4"/>
+      <c r="E434" s="4" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
@@ -16106,14 +16112,12 @@
         <v>770</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>776</v>
+        <v>596</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E435" s="4" t="s">
-        <v>1696</v>
-      </c>
+        <v>1391</v>
+      </c>
+      <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
@@ -16123,12 +16127,14 @@
         <v>770</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E436" s="4"/>
+        <v>1392</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>1696</v>
+      </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
@@ -16138,10 +16144,10 @@
         <v>770</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E437" s="4"/>
     </row>
@@ -16153,10 +16159,10 @@
         <v>770</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E438" s="4"/>
     </row>
@@ -16168,10 +16174,10 @@
         <v>770</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E439" s="4"/>
     </row>
@@ -16183,10 +16189,10 @@
         <v>770</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E440" s="4"/>
     </row>
@@ -16198,10 +16204,10 @@
         <v>770</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E441" s="4"/>
     </row>
@@ -16213,10 +16219,10 @@
         <v>770</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E442" s="4"/>
     </row>
@@ -16228,10 +16234,10 @@
         <v>770</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E443" s="4"/>
     </row>
@@ -16243,10 +16249,10 @@
         <v>770</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E444" s="4"/>
     </row>
@@ -16258,10 +16264,10 @@
         <v>770</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E445" s="4"/>
     </row>
@@ -16273,10 +16279,10 @@
         <v>770</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>603</v>
+        <v>786</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E446" s="4"/>
     </row>
@@ -16288,10 +16294,10 @@
         <v>770</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>787</v>
+        <v>603</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E447" s="4"/>
     </row>
@@ -16303,10 +16309,10 @@
         <v>770</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E448" s="4"/>
     </row>
@@ -16318,10 +16324,10 @@
         <v>770</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E449" s="4"/>
     </row>
@@ -16333,10 +16339,10 @@
         <v>770</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E450" s="4"/>
     </row>
@@ -16348,10 +16354,10 @@
         <v>770</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E451" s="4"/>
     </row>
@@ -16363,10 +16369,10 @@
         <v>770</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E452" s="4"/>
     </row>
@@ -16378,10 +16384,10 @@
         <v>770</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E453" s="4"/>
     </row>
@@ -16393,10 +16399,10 @@
         <v>770</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E454" s="4"/>
     </row>
@@ -16408,10 +16414,10 @@
         <v>770</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E455" s="4"/>
     </row>
@@ -16423,10 +16429,10 @@
         <v>770</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>607</v>
+        <v>795</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E456" s="4"/>
     </row>
@@ -16438,10 +16444,10 @@
         <v>770</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>796</v>
+        <v>607</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E457" s="4"/>
     </row>
@@ -16450,17 +16456,15 @@
         <v>20</v>
       </c>
       <c r="B458" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>595</v>
+        <v>796</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E458" s="4" t="s">
-        <v>1697</v>
-      </c>
+        <v>1414</v>
+      </c>
+      <c r="E458" s="4"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
@@ -16470,13 +16474,13 @@
         <v>797</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -16487,13 +16491,13 @@
         <v>797</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>798</v>
+        <v>592</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E460" s="4">
-        <v>7053</v>
+        <v>1416</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -16504,13 +16508,13 @@
         <v>797</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>600</v>
+        <v>798</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E461" s="4" t="s">
-        <v>1699</v>
+        <v>1417</v>
+      </c>
+      <c r="E461" s="4">
+        <v>7053</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -16518,16 +16522,16 @@
         <v>20</v>
       </c>
       <c r="B462" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -16543,7 +16547,9 @@
       <c r="D463" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="E463" s="4"/>
+      <c r="E463" s="4" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
@@ -16553,14 +16559,12 @@
         <v>799</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E464" s="4" t="s">
-        <v>1700</v>
-      </c>
+        <v>1419</v>
+      </c>
+      <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
@@ -16575,7 +16579,9 @@
       <c r="D465" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="E465" s="4"/>
+      <c r="E465" s="4" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
@@ -16585,14 +16591,12 @@
         <v>799</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E466" s="4">
-        <v>7022</v>
-      </c>
+        <v>1420</v>
+      </c>
+      <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
@@ -16607,7 +16611,9 @@
       <c r="D467" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="E467" s="4"/>
+      <c r="E467" s="4">
+        <v>7022</v>
+      </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
@@ -16617,29 +16623,29 @@
         <v>799</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E468" s="4" t="s">
-        <v>1701</v>
-      </c>
+        <v>1421</v>
+      </c>
+      <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>20</v>
       </c>
       <c r="B469" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>424</v>
+        <v>803</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E469" s="4"/>
+        <v>1422</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>1701</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
@@ -16649,10 +16655,10 @@
         <v>804</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>805</v>
+        <v>424</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E470" s="4"/>
     </row>
@@ -16661,17 +16667,15 @@
         <v>20</v>
       </c>
       <c r="B471" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E471" s="4" t="s">
-        <v>1702</v>
-      </c>
+        <v>1424</v>
+      </c>
+      <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -16681,13 +16685,13 @@
         <v>806</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -16703,7 +16707,9 @@
       <c r="D473" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="E473" s="4"/>
+      <c r="E473" s="4" t="s">
+        <v>1703</v>
+      </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
@@ -16713,14 +16719,12 @@
         <v>806</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E474" s="4" t="s">
-        <v>1704</v>
-      </c>
+        <v>1426</v>
+      </c>
+      <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
@@ -16735,7 +16739,9 @@
       <c r="D475" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="E475" s="4"/>
+      <c r="E475" s="4" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
@@ -16745,14 +16751,12 @@
         <v>806</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E476" s="4" t="s">
-        <v>1705</v>
-      </c>
+        <v>1427</v>
+      </c>
+      <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
@@ -16767,7 +16771,9 @@
       <c r="D477" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="E477" s="4"/>
+      <c r="E477" s="4" t="s">
+        <v>1705</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
@@ -16777,14 +16783,12 @@
         <v>806</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E478" s="4">
-        <v>7098</v>
-      </c>
+        <v>1428</v>
+      </c>
+      <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
@@ -16794,13 +16798,13 @@
         <v>806</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E479" s="4" t="s">
-        <v>1706</v>
+        <v>1429</v>
+      </c>
+      <c r="E479" s="4">
+        <v>7098</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -16811,13 +16815,13 @@
         <v>806</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -16833,7 +16837,9 @@
       <c r="D481" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="E481" s="4"/>
+      <c r="E481" s="4" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
@@ -16843,14 +16849,12 @@
         <v>806</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E482" s="4" t="s">
-        <v>1708</v>
-      </c>
+        <v>1431</v>
+      </c>
+      <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
@@ -16860,13 +16864,13 @@
         <v>806</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -16877,13 +16881,13 @@
         <v>806</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E484" s="4">
-        <v>7036</v>
+        <v>1433</v>
+      </c>
+      <c r="E484" s="4" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -16899,7 +16903,9 @@
       <c r="D485" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="E485" s="4"/>
+      <c r="E485" s="4">
+        <v>7036</v>
+      </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
@@ -16909,14 +16915,12 @@
         <v>806</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E486" s="4">
-        <v>7069</v>
-      </c>
+        <v>1434</v>
+      </c>
+      <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
@@ -16931,7 +16935,9 @@
       <c r="D487" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="E487" s="4"/>
+      <c r="E487" s="4">
+        <v>7069</v>
+      </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
@@ -16941,14 +16947,12 @@
         <v>806</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E488" s="4">
-        <v>7036</v>
-      </c>
+        <v>1435</v>
+      </c>
+      <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
@@ -16963,7 +16967,9 @@
       <c r="D489" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="E489" s="4"/>
+      <c r="E489" s="4">
+        <v>7036</v>
+      </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
@@ -16973,10 +16979,10 @@
         <v>806</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E490" s="4"/>
     </row>
@@ -16988,10 +16994,10 @@
         <v>806</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E491" s="4"/>
     </row>
@@ -17003,10 +17009,10 @@
         <v>806</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E492" s="4"/>
     </row>
@@ -17018,14 +17024,12 @@
         <v>806</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E493" s="4">
-        <v>7036</v>
-      </c>
+        <v>1439</v>
+      </c>
+      <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
@@ -17040,7 +17044,9 @@
       <c r="D494" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="E494" s="4"/>
+      <c r="E494" s="4">
+        <v>7036</v>
+      </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
@@ -17050,10 +17056,10 @@
         <v>806</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E495" s="4"/>
     </row>
@@ -17065,10 +17071,10 @@
         <v>806</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E496" s="4"/>
     </row>
@@ -17080,14 +17086,12 @@
         <v>806</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E497" s="4" t="s">
-        <v>1707</v>
-      </c>
+        <v>1442</v>
+      </c>
+      <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
@@ -17102,7 +17106,9 @@
       <c r="D498" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="E498" s="4"/>
+      <c r="E498" s="4" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
@@ -17112,10 +17118,10 @@
         <v>806</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E499" s="4"/>
     </row>
@@ -17127,10 +17133,10 @@
         <v>806</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E500" s="4"/>
     </row>
@@ -17142,10 +17148,10 @@
         <v>806</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E501" s="4"/>
     </row>
@@ -17157,10 +17163,10 @@
         <v>806</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E502" s="4"/>
     </row>
@@ -17172,10 +17178,10 @@
         <v>806</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E503" s="4"/>
     </row>
@@ -17187,10 +17193,10 @@
         <v>806</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E504" s="4"/>
     </row>
@@ -17199,13 +17205,13 @@
         <v>20</v>
       </c>
       <c r="B505" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E505" s="4"/>
     </row>
@@ -17214,17 +17220,15 @@
         <v>20</v>
       </c>
       <c r="B506" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E506" s="4" t="s">
-        <v>1710</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="E506" s="4"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
@@ -17234,13 +17238,13 @@
         <v>834</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -17251,13 +17255,13 @@
         <v>834</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -17268,13 +17272,13 @@
         <v>834</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -17290,7 +17294,9 @@
       <c r="D510" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="E510" s="4"/>
+      <c r="E510" s="4" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
@@ -17300,14 +17306,12 @@
         <v>834</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E511" s="4" t="s">
-        <v>1714</v>
-      </c>
+        <v>1454</v>
+      </c>
+      <c r="E511" s="4"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
@@ -17317,13 +17321,13 @@
         <v>834</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -17334,13 +17338,13 @@
         <v>834</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -17351,13 +17355,13 @@
         <v>834</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -17373,7 +17377,9 @@
       <c r="D515" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="E515" s="4"/>
+      <c r="E515" s="4" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
@@ -17383,46 +17389,44 @@
         <v>834</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>1712</v>
-      </c>
+        <v>1458</v>
+      </c>
+      <c r="E516" s="4"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>20</v>
       </c>
       <c r="B517" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E517" s="4"/>
+        <v>1459</v>
+      </c>
+      <c r="E517" s="4" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>20</v>
       </c>
       <c r="B518" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E518" s="4">
-        <v>7079</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
@@ -17437,7 +17441,9 @@
       <c r="D519" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="E519" s="4"/>
+      <c r="E519" s="4">
+        <v>7079</v>
+      </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
@@ -17447,14 +17453,12 @@
         <v>838</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E520" s="4">
-        <v>7027</v>
-      </c>
+        <v>1461</v>
+      </c>
+      <c r="E520" s="4"/>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
@@ -17469,7 +17473,9 @@
       <c r="D521" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="E521" s="4"/>
+      <c r="E521" s="4">
+        <v>7027</v>
+      </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
@@ -17479,14 +17485,12 @@
         <v>838</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E522" s="4">
-        <v>7091</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="E522" s="4"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
@@ -17501,7 +17505,9 @@
       <c r="D523" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="E523" s="4"/>
+      <c r="E523" s="4">
+        <v>7091</v>
+      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
@@ -17556,14 +17562,12 @@
         <v>838</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E527" s="4">
-        <v>7086</v>
-      </c>
+        <v>1463</v>
+      </c>
+      <c r="E527" s="4"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
@@ -17578,7 +17582,9 @@
       <c r="D528" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="E528" s="4"/>
+      <c r="E528" s="4">
+        <v>7086</v>
+      </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
@@ -17588,14 +17594,12 @@
         <v>838</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E529" s="4">
-        <v>7080</v>
-      </c>
+        <v>1464</v>
+      </c>
+      <c r="E529" s="4"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
@@ -17610,20 +17614,22 @@
       <c r="D530" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="E530" s="4"/>
+      <c r="E530" s="4">
+        <v>7080</v>
+      </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>20</v>
       </c>
       <c r="B531" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E531" s="4"/>
     </row>
@@ -17635,10 +17641,10 @@
         <v>844</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E532" s="4"/>
     </row>
@@ -17647,13 +17653,13 @@
         <v>20</v>
       </c>
       <c r="B533" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E533" s="4"/>
     </row>
@@ -17662,13 +17668,13 @@
         <v>20</v>
       </c>
       <c r="B534" t="s">
-        <v>849</v>
-      </c>
-      <c r="C534" s="4">
-        <v>6351</v>
+        <v>847</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E534" s="4"/>
     </row>
@@ -17677,32 +17683,32 @@
         <v>20</v>
       </c>
       <c r="B535" t="s">
-        <v>850</v>
-      </c>
-      <c r="C535" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
+      </c>
+      <c r="C535" s="4">
+        <v>6351</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E535" s="4">
-        <v>7095</v>
-      </c>
+        <v>1469</v>
+      </c>
+      <c r="E535" s="4"/>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>20</v>
       </c>
       <c r="B536" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E536" s="4"/>
+        <v>1470</v>
+      </c>
+      <c r="E536" s="4">
+        <v>7095</v>
+      </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
@@ -17712,10 +17718,10 @@
         <v>852</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E537" s="4"/>
     </row>
@@ -17724,13 +17730,13 @@
         <v>20</v>
       </c>
       <c r="B538" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E538" s="4"/>
     </row>
@@ -17739,13 +17745,13 @@
         <v>20</v>
       </c>
       <c r="B539" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E539" s="4"/>
     </row>
@@ -17787,10 +17793,10 @@
         <v>857</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E542" s="4"/>
     </row>
@@ -17799,45 +17805,45 @@
         <v>20</v>
       </c>
       <c r="B543" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E543" s="4">
-        <v>7030</v>
-      </c>
+        <v>1475</v>
+      </c>
+      <c r="E543" s="4"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>20</v>
       </c>
       <c r="B544" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E544" s="4"/>
+        <v>1476</v>
+      </c>
+      <c r="E544" s="4">
+        <v>7030</v>
+      </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>20</v>
       </c>
       <c r="B545" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E545" s="4"/>
     </row>
@@ -17849,10 +17855,10 @@
         <v>864</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E546" s="4"/>
     </row>
@@ -17861,17 +17867,15 @@
         <v>20</v>
       </c>
       <c r="B547" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E547" s="4">
-        <v>7087</v>
-      </c>
+        <v>1479</v>
+      </c>
+      <c r="E547" s="4"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
@@ -17886,7 +17890,9 @@
       <c r="D548" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="E548" s="4"/>
+      <c r="E548" s="4">
+        <v>7087</v>
+      </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
@@ -17896,14 +17902,12 @@
         <v>867</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E549" s="4">
-        <v>7088</v>
-      </c>
+        <v>1480</v>
+      </c>
+      <c r="E549" s="4"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
@@ -17918,7 +17922,9 @@
       <c r="D550" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="E550" s="4"/>
+      <c r="E550" s="4">
+        <v>7088</v>
+      </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
@@ -17928,14 +17934,12 @@
         <v>867</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E551" s="4" t="s">
-        <v>1716</v>
-      </c>
+        <v>1481</v>
+      </c>
+      <c r="E551" s="4"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
@@ -17945,13 +17949,13 @@
         <v>867</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -17967,20 +17971,22 @@
       <c r="D553" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="E553" s="4"/>
+      <c r="E553" s="4" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>20</v>
       </c>
       <c r="B554" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E554" s="4"/>
     </row>
@@ -17989,13 +17995,13 @@
         <v>20</v>
       </c>
       <c r="B555" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>873</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E555" s="4"/>
     </row>
@@ -18004,13 +18010,13 @@
         <v>20</v>
       </c>
       <c r="B556" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E556" s="4"/>
     </row>
@@ -18019,13 +18025,13 @@
         <v>20</v>
       </c>
       <c r="B557" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>856</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E557" s="4"/>
     </row>
@@ -18034,13 +18040,13 @@
         <v>20</v>
       </c>
       <c r="B558" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C558" s="4" t="s">
         <v>856</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E558" s="4"/>
     </row>
@@ -18049,13 +18055,13 @@
         <v>20</v>
       </c>
       <c r="B559" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E559" s="4"/>
     </row>
@@ -18067,10 +18073,10 @@
         <v>878</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E560" s="4"/>
     </row>
@@ -18079,32 +18085,32 @@
         <v>20</v>
       </c>
       <c r="B561" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E561" s="4" t="s">
-        <v>1718</v>
-      </c>
+        <v>1490</v>
+      </c>
+      <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>20</v>
       </c>
       <c r="B562" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E562" s="4"/>
+        <v>1491</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
@@ -18114,10 +18120,10 @@
         <v>883</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E563" s="4"/>
     </row>
@@ -18126,13 +18132,13 @@
         <v>20</v>
       </c>
       <c r="B564" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E564" s="4"/>
     </row>
@@ -18144,10 +18150,10 @@
         <v>884</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E565" s="4"/>
     </row>
@@ -18159,10 +18165,10 @@
         <v>884</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E566" s="4"/>
     </row>
@@ -18174,10 +18180,10 @@
         <v>884</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E567" s="4"/>
     </row>
@@ -18186,13 +18192,13 @@
         <v>20</v>
       </c>
       <c r="B568" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E568" s="4"/>
     </row>
@@ -18201,33 +18207,31 @@
         <v>20</v>
       </c>
       <c r="B569" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>885</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E569" s="4">
-        <v>7063</v>
-      </c>
+        <v>1498</v>
+      </c>
+      <c r="E569" s="4"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>20</v>
       </c>
       <c r="B570" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E570" s="4">
-        <v>7090</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -18243,7 +18247,9 @@
       <c r="D571" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="E571" s="4"/>
+      <c r="E571" s="4">
+        <v>7090</v>
+      </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
@@ -18253,10 +18259,10 @@
         <v>891</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E572" s="4"/>
     </row>
@@ -18268,14 +18274,12 @@
         <v>891</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E573" s="4" t="s">
-        <v>1719</v>
-      </c>
+        <v>1501</v>
+      </c>
+      <c r="E573" s="4"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
@@ -18290,7 +18294,9 @@
       <c r="D574" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="E574" s="4"/>
+      <c r="E574" s="4" t="s">
+        <v>1719</v>
+      </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
@@ -18300,14 +18306,12 @@
         <v>891</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E575" s="4">
-        <v>7085</v>
-      </c>
+        <v>1502</v>
+      </c>
+      <c r="E575" s="4"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
@@ -18322,7 +18326,9 @@
       <c r="D576" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="E576" s="4"/>
+      <c r="E576" s="4">
+        <v>7085</v>
+      </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
@@ -18377,14 +18383,12 @@
         <v>891</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E580" s="4">
-        <v>7083</v>
-      </c>
+        <v>1503</v>
+      </c>
+      <c r="E580" s="4"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
@@ -18399,7 +18403,9 @@
       <c r="D581" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="E581" s="4"/>
+      <c r="E581" s="4">
+        <v>7083</v>
+      </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
@@ -18409,10 +18415,10 @@
         <v>891</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E582" s="4"/>
     </row>
@@ -18424,14 +18430,12 @@
         <v>891</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E583" s="4">
-        <v>7089</v>
-      </c>
+        <v>1505</v>
+      </c>
+      <c r="E583" s="4"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
@@ -18446,7 +18450,9 @@
       <c r="D584" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="E584" s="4"/>
+      <c r="E584" s="4">
+        <v>7089</v>
+      </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
@@ -18456,14 +18462,12 @@
         <v>891</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E585" s="4">
-        <v>7082</v>
-      </c>
+        <v>1506</v>
+      </c>
+      <c r="E585" s="4"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
@@ -18478,7 +18482,9 @@
       <c r="D586" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="E586" s="4"/>
+      <c r="E586" s="4">
+        <v>7082</v>
+      </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
@@ -18503,14 +18509,12 @@
         <v>891</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E588" s="4">
-        <v>7094</v>
-      </c>
+        <v>1507</v>
+      </c>
+      <c r="E588" s="4"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
@@ -18520,13 +18524,13 @@
         <v>891</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E589" s="4">
-        <v>7084</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -18542,7 +18546,9 @@
       <c r="D590" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="E590" s="4"/>
+      <c r="E590" s="4">
+        <v>7084</v>
+      </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
@@ -18552,10 +18558,10 @@
         <v>891</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E591" s="4"/>
     </row>
@@ -18564,13 +18570,13 @@
         <v>20</v>
       </c>
       <c r="B592" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E592" s="4"/>
     </row>
@@ -18579,13 +18585,13 @@
         <v>20</v>
       </c>
       <c r="B593" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E593" s="4"/>
     </row>
@@ -18594,13 +18600,13 @@
         <v>20</v>
       </c>
       <c r="B594" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>879</v>
+        <v>906</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E594" s="4"/>
     </row>
@@ -18609,17 +18615,15 @@
         <v>20</v>
       </c>
       <c r="B595" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E595" s="4" t="s">
-        <v>1720</v>
-      </c>
+        <v>1513</v>
+      </c>
+      <c r="E595" s="4"/>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
@@ -18629,13 +18633,13 @@
         <v>908</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -18643,15 +18647,17 @@
         <v>20</v>
       </c>
       <c r="B597" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E597" s="4"/>
+        <v>1515</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
@@ -18673,13 +18679,13 @@
         <v>20</v>
       </c>
       <c r="B599" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>648</v>
+        <v>912</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E599" s="4"/>
     </row>
@@ -18688,32 +18694,30 @@
         <v>20</v>
       </c>
       <c r="B600" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E600" s="4"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B601" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>916</v>
+        <v>660</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E601" s="4" t="s">
-        <v>1722</v>
-      </c>
+        <v>1518</v>
+      </c>
+      <c r="E601" s="4"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
@@ -18723,13 +18727,13 @@
         <v>915</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E602" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -18737,16 +18741,16 @@
         <v>21</v>
       </c>
       <c r="B603" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -18757,12 +18761,14 @@
         <v>918</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E604" s="4"/>
+        <v>1521</v>
+      </c>
+      <c r="E604" s="4" t="s">
+        <v>1724</v>
+      </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
@@ -18772,29 +18778,29 @@
         <v>918</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E605" s="4" t="s">
-        <v>1725</v>
-      </c>
+        <v>1522</v>
+      </c>
+      <c r="E605" s="4"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>21</v>
       </c>
       <c r="B606" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E606" s="4"/>
+        <v>1523</v>
+      </c>
+      <c r="E606" s="4" t="s">
+        <v>1725</v>
+      </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
@@ -18834,10 +18840,10 @@
         <v>922</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E609" s="4"/>
     </row>
@@ -18849,10 +18855,10 @@
         <v>922</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E610" s="4"/>
     </row>
@@ -18864,10 +18870,10 @@
         <v>922</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E611" s="4"/>
     </row>
@@ -18879,10 +18885,10 @@
         <v>922</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E612" s="4"/>
     </row>
@@ -18891,13 +18897,13 @@
         <v>21</v>
       </c>
       <c r="B613" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E613" s="4"/>
     </row>
@@ -18906,13 +18912,13 @@
         <v>21</v>
       </c>
       <c r="B614" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E614" s="4"/>
     </row>
@@ -18924,10 +18930,10 @@
         <v>930</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E615" s="4"/>
     </row>
@@ -18939,10 +18945,10 @@
         <v>930</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E616" s="4"/>
     </row>
@@ -18954,10 +18960,10 @@
         <v>930</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E617" s="4"/>
     </row>
@@ -18969,10 +18975,10 @@
         <v>930</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E618" s="4"/>
     </row>
@@ -18984,10 +18990,10 @@
         <v>930</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E619" s="4"/>
     </row>
@@ -18999,10 +19005,10 @@
         <v>930</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E620" s="4"/>
     </row>
@@ -19011,13 +19017,13 @@
         <v>21</v>
       </c>
       <c r="B621" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E621" s="4"/>
     </row>
@@ -19029,10 +19035,10 @@
         <v>938</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E622" s="4"/>
     </row>
@@ -19044,10 +19050,10 @@
         <v>938</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E623" s="4"/>
     </row>
@@ -19059,10 +19065,10 @@
         <v>938</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E624" s="4"/>
     </row>
@@ -19074,10 +19080,10 @@
         <v>938</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E625" s="4"/>
     </row>
@@ -19089,10 +19095,10 @@
         <v>938</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E626" s="4"/>
     </row>
@@ -19104,10 +19110,10 @@
         <v>938</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E627" s="4"/>
     </row>
@@ -19119,10 +19125,10 @@
         <v>938</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E628" s="4"/>
     </row>
@@ -19134,10 +19140,10 @@
         <v>938</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E629" s="4"/>
     </row>
@@ -19164,10 +19170,10 @@
         <v>938</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E631" s="4"/>
     </row>
@@ -19179,10 +19185,10 @@
         <v>938</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E632" s="4"/>
     </row>
@@ -19194,10 +19200,10 @@
         <v>938</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E633" s="4"/>
     </row>
@@ -19209,10 +19215,10 @@
         <v>938</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E634" s="4"/>
     </row>
@@ -19224,10 +19230,10 @@
         <v>938</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E635" s="4"/>
     </row>
@@ -19236,17 +19242,15 @@
         <v>21</v>
       </c>
       <c r="B636" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E636" s="4" t="s">
-        <v>1726</v>
-      </c>
+        <v>1550</v>
+      </c>
+      <c r="E636" s="4"/>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
@@ -19262,7 +19266,7 @@
         <v>1551</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -19273,13 +19277,13 @@
         <v>953</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -19290,13 +19294,13 @@
         <v>953</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -19307,13 +19311,13 @@
         <v>953</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -19324,13 +19328,13 @@
         <v>953</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -19341,13 +19345,13 @@
         <v>953</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -19355,28 +19359,30 @@
         <v>21</v>
       </c>
       <c r="B643" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E643" s="4"/>
+        <v>1556</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>21</v>
       </c>
       <c r="B644" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E644" s="4"/>
     </row>
@@ -19388,10 +19394,10 @@
         <v>962</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E645" s="4"/>
     </row>
@@ -19403,10 +19409,10 @@
         <v>962</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E646" s="4"/>
     </row>
@@ -19415,17 +19421,15 @@
         <v>21</v>
       </c>
       <c r="B647" t="s">
-        <v>966</v>
-      </c>
-      <c r="C647" s="4">
-        <v>14517</v>
+        <v>962</v>
+      </c>
+      <c r="C647" s="4" t="s">
+        <v>965</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E647" s="4" t="s">
-        <v>1733</v>
-      </c>
+        <v>1560</v>
+      </c>
+      <c r="E647" s="4"/>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
@@ -19434,13 +19438,15 @@
       <c r="B648" t="s">
         <v>966</v>
       </c>
-      <c r="C648" s="4" t="s">
-        <v>967</v>
+      <c r="C648" s="4">
+        <v>14517</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E648" s="4"/>
+        <v>1561</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>1733</v>
+      </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
@@ -19450,10 +19456,10 @@
         <v>966</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E649" s="4"/>
     </row>
@@ -19465,10 +19471,10 @@
         <v>966</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E650" s="4"/>
     </row>
@@ -19480,14 +19486,12 @@
         <v>966</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E651" s="4" t="s">
-        <v>1734</v>
-      </c>
+        <v>1564</v>
+      </c>
+      <c r="E651" s="4"/>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
@@ -19497,13 +19501,13 @@
         <v>966</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -19514,13 +19518,13 @@
         <v>966</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -19531,13 +19535,13 @@
         <v>966</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -19548,29 +19552,31 @@
         <v>966</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B656" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E656" s="4"/>
+        <v>1569</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
@@ -19580,10 +19586,10 @@
         <v>973</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E657" s="4"/>
     </row>
@@ -19595,14 +19601,12 @@
         <v>973</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E658" s="4">
-        <v>7048</v>
-      </c>
+        <v>1571</v>
+      </c>
+      <c r="E658" s="4"/>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
@@ -19612,12 +19616,14 @@
         <v>973</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E659" s="4"/>
+        <v>1572</v>
+      </c>
+      <c r="E659" s="4">
+        <v>7048</v>
+      </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
@@ -19627,10 +19633,10 @@
         <v>973</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E660" s="4"/>
     </row>
@@ -19642,10 +19648,10 @@
         <v>973</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E661" s="4"/>
     </row>
@@ -19657,10 +19663,10 @@
         <v>973</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D662" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E662" s="4"/>
     </row>
@@ -19672,14 +19678,12 @@
         <v>973</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E663" s="4" t="s">
-        <v>1739</v>
-      </c>
+        <v>1576</v>
+      </c>
+      <c r="E663" s="4"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
@@ -19689,13 +19693,13 @@
         <v>973</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E664" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -19706,12 +19710,14 @@
         <v>973</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E665" s="4"/>
+        <v>1578</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
@@ -19721,10 +19727,10 @@
         <v>973</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E666" s="4"/>
     </row>
@@ -19736,10 +19742,10 @@
         <v>973</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E667" s="4"/>
     </row>
@@ -19751,10 +19757,10 @@
         <v>973</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E668" s="4"/>
     </row>
@@ -19766,10 +19772,10 @@
         <v>973</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E669" s="4"/>
     </row>
@@ -19781,10 +19787,10 @@
         <v>973</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E670" s="4"/>
     </row>
@@ -19796,14 +19802,12 @@
         <v>973</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E671" s="4" t="s">
-        <v>1741</v>
-      </c>
+        <v>1584</v>
+      </c>
+      <c r="E671" s="4"/>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
@@ -19813,12 +19817,14 @@
         <v>973</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E672" s="4"/>
+        <v>1585</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
@@ -19828,10 +19834,10 @@
         <v>973</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E673" s="4"/>
     </row>
@@ -19843,10 +19849,10 @@
         <v>973</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E674" s="4"/>
     </row>
@@ -19858,10 +19864,10 @@
         <v>973</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E675" s="4"/>
     </row>
@@ -19873,10 +19879,10 @@
         <v>973</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E676" s="4"/>
     </row>
@@ -19888,10 +19894,10 @@
         <v>973</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E677" s="4"/>
     </row>
@@ -19903,7 +19909,7 @@
         <v>973</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D678" s="4" t="s">
         <v>1591</v>
@@ -19918,10 +19924,10 @@
         <v>973</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E679" s="4"/>
     </row>
@@ -19933,10 +19939,10 @@
         <v>973</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E680" s="4"/>
     </row>
@@ -19948,10 +19954,10 @@
         <v>973</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E681" s="4"/>
     </row>
@@ -19963,10 +19969,10 @@
         <v>973</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E682" s="4"/>
     </row>
@@ -19978,10 +19984,10 @@
         <v>973</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E683" s="4"/>
     </row>
@@ -19993,10 +19999,10 @@
         <v>973</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E684" s="4"/>
     </row>
@@ -20008,10 +20014,10 @@
         <v>973</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E685" s="4"/>
     </row>
@@ -20023,10 +20029,10 @@
         <v>973</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E686" s="4"/>
     </row>
@@ -20053,10 +20059,10 @@
         <v>973</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E688" s="4"/>
     </row>
@@ -20068,10 +20074,10 @@
         <v>973</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E689" s="4"/>
     </row>
@@ -20083,10 +20089,10 @@
         <v>973</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E690" s="4"/>
     </row>
@@ -20098,10 +20104,10 @@
         <v>973</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E691" s="4"/>
     </row>
@@ -20113,10 +20119,10 @@
         <v>973</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E692" s="4"/>
     </row>
@@ -20158,10 +20164,10 @@
         <v>973</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E695" s="4"/>
     </row>
@@ -20173,10 +20179,10 @@
         <v>973</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E696" s="4"/>
     </row>
@@ -20188,10 +20194,10 @@
         <v>973</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E697" s="4"/>
     </row>
@@ -20203,10 +20209,10 @@
         <v>973</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E698" s="4"/>
     </row>
@@ -20218,10 +20224,10 @@
         <v>973</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E699" s="4"/>
     </row>
@@ -20233,10 +20239,10 @@
         <v>973</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D700" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E700" s="4"/>
     </row>
@@ -20248,10 +20254,10 @@
         <v>973</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E701" s="4"/>
     </row>
@@ -20263,10 +20269,10 @@
         <v>973</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E702" s="4"/>
     </row>
@@ -20278,10 +20284,10 @@
         <v>973</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E703" s="4"/>
     </row>
@@ -20293,10 +20299,10 @@
         <v>973</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E704" s="4"/>
     </row>
@@ -20308,10 +20314,10 @@
         <v>973</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E705" s="4"/>
     </row>
@@ -20323,10 +20329,10 @@
         <v>973</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E706" s="4"/>
     </row>
@@ -20338,10 +20344,10 @@
         <v>973</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E707" s="4"/>
     </row>
@@ -20353,10 +20359,10 @@
         <v>973</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E708" s="4"/>
     </row>
@@ -20368,10 +20374,10 @@
         <v>973</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E709" s="4"/>
     </row>
@@ -20383,10 +20389,10 @@
         <v>973</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E710" s="4"/>
     </row>
@@ -20398,10 +20404,10 @@
         <v>973</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E711" s="4"/>
     </row>
@@ -20413,10 +20419,10 @@
         <v>973</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E712" s="4"/>
     </row>
@@ -20428,10 +20434,10 @@
         <v>973</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E713" s="4"/>
     </row>
@@ -20443,10 +20449,10 @@
         <v>973</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E714" s="4"/>
     </row>
@@ -20458,10 +20464,10 @@
         <v>973</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E715" s="4"/>
     </row>
@@ -20473,10 +20479,10 @@
         <v>973</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E716" s="4"/>
     </row>
@@ -20488,10 +20494,10 @@
         <v>973</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E717" s="4"/>
     </row>
@@ -20503,10 +20509,10 @@
         <v>973</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E718" s="4"/>
     </row>
@@ -20518,10 +20524,10 @@
         <v>973</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E719" s="4"/>
     </row>
@@ -20533,10 +20539,10 @@
         <v>973</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E720" s="4"/>
     </row>
@@ -20548,10 +20554,10 @@
         <v>973</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E721" s="4"/>
     </row>
@@ -20563,10 +20569,10 @@
         <v>973</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E722" s="4"/>
     </row>
@@ -20578,10 +20584,10 @@
         <v>973</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E723" s="4"/>
     </row>
@@ -20593,14 +20599,30 @@
         <v>973</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D724" s="4" t="s">
         <v>1633</v>
       </c>
       <c r="E724" s="4"/>
     </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>22</v>
+      </c>
+      <c r="B725" t="s">
+        <v>973</v>
+      </c>
+      <c r="C725" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E725" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E725"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dati_config4.xlsx
+++ b/dati_config4.xlsx
@@ -2784,18 +2784,12 @@
     <t>F467_</t>
   </si>
   <si>
-    <t>EN_1561_</t>
-  </si>
-  <si>
     <t>EN-GJL-250</t>
   </si>
   <si>
     <t>EN-GJL-300</t>
   </si>
   <si>
-    <t>EN_1982_</t>
-  </si>
-  <si>
     <t>CuAl10Fe5Ni5-C-GS</t>
   </si>
   <si>
@@ -2805,9 +2799,6 @@
     <t>CuSn11Pb2-C</t>
   </si>
   <si>
-    <t>EN_10025_</t>
-  </si>
-  <si>
     <t>S235JR (Fe 360 B)</t>
   </si>
   <si>
@@ -2823,15 +2814,9 @@
     <t>S355J2</t>
   </si>
   <si>
-    <t>EN_10028_</t>
-  </si>
-  <si>
     <t>P355NL1</t>
   </si>
   <si>
-    <t>EN_10083_</t>
-  </si>
-  <si>
     <t>42CrMo4 + QT</t>
   </si>
   <si>
@@ -2853,9 +2838,6 @@
     <t xml:space="preserve">C22E+B23 alloy 2 tin base   </t>
   </si>
   <si>
-    <t>EN_10088_</t>
-  </si>
-  <si>
     <t>EN-X20Cr13+QT800</t>
   </si>
   <si>
@@ -2898,9 +2880,6 @@
     <t>X12Cr13 Treated 225-275 BHN + OVERLAY IN CHROME OXIDE 99%</t>
   </si>
   <si>
-    <t>EN_10213_</t>
-  </si>
-  <si>
     <t>GP240GH</t>
   </si>
   <si>
@@ -2919,15 +2898,9 @@
     <t>GX5CrNiMoNb19-11-2</t>
   </si>
   <si>
-    <t>EN_10250_</t>
-  </si>
-  <si>
     <t>X6CrNiMoTi17-12-2 (1.4571)</t>
   </si>
   <si>
-    <t>EN_10269_</t>
-  </si>
-  <si>
     <t>21CrMoV5-7 -  1.7709</t>
   </si>
   <si>
@@ -2937,9 +2910,6 @@
     <t>C35E+QT (1.1191)</t>
   </si>
   <si>
-    <t>EN_10283_</t>
-  </si>
-  <si>
     <t>GX12Cr12</t>
   </si>
   <si>
@@ -5269,6 +5239,36 @@
   </si>
   <si>
     <t>D3223</t>
+  </si>
+  <si>
+    <t>_1561_</t>
+  </si>
+  <si>
+    <t>_1982_</t>
+  </si>
+  <si>
+    <t>_10025_</t>
+  </si>
+  <si>
+    <t>_10028_</t>
+  </si>
+  <si>
+    <t>_10083_</t>
+  </si>
+  <si>
+    <t>_10088_</t>
+  </si>
+  <si>
+    <t>_10213_</t>
+  </si>
+  <si>
+    <t>_10250_</t>
+  </si>
+  <si>
+    <t>_10269_</t>
+  </si>
+  <si>
+    <t>_10283_</t>
   </si>
 </sst>
 </file>
@@ -5327,7 +5327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5339,6 +5339,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9337,8 +9340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,10 +9364,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9375,7 +9378,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -9390,7 +9393,7 @@
         <v>418</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -9402,7 +9405,7 @@
         <v>419</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -9414,7 +9417,7 @@
         <v>420</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -9429,7 +9432,7 @@
         <v>422</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -9444,7 +9447,7 @@
         <v>423</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -9459,7 +9462,7 @@
         <v>424</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -9474,7 +9477,7 @@
         <v>426</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -9489,7 +9492,7 @@
         <v>427</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -9504,7 +9507,7 @@
         <v>428</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -9519,7 +9522,7 @@
         <v>429</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -9534,7 +9537,7 @@
         <v>430</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -9549,7 +9552,7 @@
         <v>430</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -9564,7 +9567,7 @@
         <v>431</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -9579,7 +9582,7 @@
         <v>432</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -9594,7 +9597,7 @@
         <v>433</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -9609,7 +9612,7 @@
         <v>433</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -9624,7 +9627,7 @@
         <v>433</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -9639,7 +9642,7 @@
         <v>434</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -9654,7 +9657,7 @@
         <v>435</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -9669,7 +9672,7 @@
         <v>436</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -9684,7 +9687,7 @@
         <v>437</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -9699,7 +9702,7 @@
         <v>438</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -9714,7 +9717,7 @@
         <v>439</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -9729,7 +9732,7 @@
         <v>440</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -9744,7 +9747,7 @@
         <v>442</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -9755,11 +9758,11 @@
       <c r="B28" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>443</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -9774,7 +9777,7 @@
         <v>444</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -9789,7 +9792,7 @@
         <v>445</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -9804,7 +9807,7 @@
         <v>446</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -9819,7 +9822,7 @@
         <v>447</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -9834,7 +9837,7 @@
         <v>448</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -9849,7 +9852,7 @@
         <v>449</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -9864,7 +9867,7 @@
         <v>450</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -9879,7 +9882,7 @@
         <v>451</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -9894,7 +9897,7 @@
         <v>452</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -9909,7 +9912,7 @@
         <v>453</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -9924,7 +9927,7 @@
         <v>454</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -9939,7 +9942,7 @@
         <v>455</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -9954,7 +9957,7 @@
         <v>456</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -9969,7 +9972,7 @@
         <v>457</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -9984,7 +9987,7 @@
         <v>459</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E43" s="4"/>
     </row>
@@ -9999,7 +10002,7 @@
         <v>460</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -10014,7 +10017,7 @@
         <v>461</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="E45" s="4"/>
     </row>
@@ -10029,7 +10032,7 @@
         <v>462</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="E46" s="4"/>
     </row>
@@ -10044,7 +10047,7 @@
         <v>463</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="E47" s="4"/>
     </row>
@@ -10059,7 +10062,7 @@
         <v>463</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="E48" s="4"/>
     </row>
@@ -10074,7 +10077,7 @@
         <v>464</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -10089,7 +10092,7 @@
         <v>465</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="E50" s="4"/>
     </row>
@@ -10104,7 +10107,7 @@
         <v>466</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -10119,7 +10122,7 @@
         <v>467</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -10134,7 +10137,7 @@
         <v>468</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -10149,7 +10152,7 @@
         <v>469</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="E54" s="4"/>
     </row>
@@ -10164,7 +10167,7 @@
         <v>470</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="E55" s="4"/>
     </row>
@@ -10179,7 +10182,7 @@
         <v>471</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -10194,7 +10197,7 @@
         <v>464</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="E57" s="4"/>
     </row>
@@ -10209,7 +10212,7 @@
         <v>472</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -10224,7 +10227,7 @@
         <v>473</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -10239,7 +10242,7 @@
         <v>474</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -10254,7 +10257,7 @@
         <v>476</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="E61" s="4">
         <v>7003</v>
@@ -10271,7 +10274,7 @@
         <v>477</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="E62" s="4">
         <v>7004</v>
@@ -10288,7 +10291,7 @@
         <v>477</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="E63" s="4"/>
     </row>
@@ -10303,7 +10306,7 @@
         <v>478</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="E64" s="4">
         <v>7001</v>
@@ -10320,10 +10323,10 @@
         <v>479</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -10337,10 +10340,10 @@
         <v>480</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10354,10 +10357,10 @@
         <v>481</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -10371,10 +10374,10 @@
         <v>482</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -10388,10 +10391,10 @@
         <v>483</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -10405,10 +10408,10 @@
         <v>484</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -10422,10 +10425,10 @@
         <v>485</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -10439,10 +10442,10 @@
         <v>486</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -10456,7 +10459,7 @@
         <v>487</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="E73" s="4">
         <v>7004</v>
@@ -10473,7 +10476,7 @@
         <v>489</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="E74" s="4">
         <v>7005</v>
@@ -10490,7 +10493,7 @@
         <v>489</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="E75" s="4"/>
     </row>
@@ -10505,10 +10508,10 @@
         <v>490</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -10522,7 +10525,7 @@
         <v>491</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="E77" s="4">
         <v>7002</v>
@@ -10539,10 +10542,10 @@
         <v>492</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -10556,10 +10559,10 @@
         <v>493</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -10573,7 +10576,7 @@
         <v>494</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="E80" s="4">
         <v>7062</v>
@@ -10590,7 +10593,7 @@
         <v>495</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="E81" s="4">
         <v>7096</v>
@@ -10607,7 +10610,7 @@
         <v>497</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="E82" s="4"/>
     </row>
@@ -10622,7 +10625,7 @@
         <v>497</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="E83" s="4"/>
     </row>
@@ -10637,7 +10640,7 @@
         <v>498</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="E84" s="4"/>
     </row>
@@ -10652,7 +10655,7 @@
         <v>498</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="E85" s="4"/>
     </row>
@@ -10667,7 +10670,7 @@
         <v>499</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="E86" s="4"/>
     </row>
@@ -10682,7 +10685,7 @@
         <v>500</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="E87" s="4"/>
     </row>
@@ -10697,7 +10700,7 @@
         <v>501</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="E88" s="4"/>
     </row>
@@ -10712,7 +10715,7 @@
         <v>502</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="E89" s="4"/>
     </row>
@@ -10727,7 +10730,7 @@
         <v>503</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="E90" s="4"/>
     </row>
@@ -10742,7 +10745,7 @@
         <v>504</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="E91" s="4"/>
     </row>
@@ -10757,7 +10760,7 @@
         <v>424</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="E92" s="4"/>
     </row>
@@ -10772,7 +10775,7 @@
         <v>505</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="E93" s="4"/>
     </row>
@@ -10787,7 +10790,7 @@
         <v>506</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="E94" s="4"/>
     </row>
@@ -10802,7 +10805,7 @@
         <v>508</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="E95" s="4"/>
     </row>
@@ -10817,7 +10820,7 @@
         <v>463</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="E96" s="4"/>
     </row>
@@ -10832,7 +10835,7 @@
         <v>509</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="E97" s="4"/>
     </row>
@@ -10847,7 +10850,7 @@
         <v>510</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="E98" s="4"/>
     </row>
@@ -10862,7 +10865,7 @@
         <v>511</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="E99" s="4"/>
     </row>
@@ -10877,7 +10880,7 @@
         <v>512</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="E100" s="4"/>
     </row>
@@ -10892,7 +10895,7 @@
         <v>513</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E101" s="4"/>
     </row>
@@ -10907,7 +10910,7 @@
         <v>515</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="E102" s="4"/>
     </row>
@@ -10922,7 +10925,7 @@
         <v>502</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="E103" s="4"/>
     </row>
@@ -10937,7 +10940,7 @@
         <v>515</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="E104" s="4"/>
     </row>
@@ -10952,7 +10955,7 @@
         <v>499</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="E105" s="4"/>
     </row>
@@ -10967,7 +10970,7 @@
         <v>500</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="E106" s="4"/>
     </row>
@@ -10982,7 +10985,7 @@
         <v>500</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="E107" s="4"/>
     </row>
@@ -10997,7 +11000,7 @@
         <v>497</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="E108" s="4"/>
     </row>
@@ -11012,7 +11015,7 @@
         <v>498</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="E109" s="4"/>
     </row>
@@ -11027,7 +11030,7 @@
         <v>505</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="E110" s="4"/>
     </row>
@@ -11042,7 +11045,7 @@
         <v>516</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="E111" s="4"/>
     </row>
@@ -11057,7 +11060,7 @@
         <v>517</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="E112" s="4"/>
     </row>
@@ -11072,7 +11075,7 @@
         <v>518</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="E113" s="4"/>
     </row>
@@ -11087,7 +11090,7 @@
         <v>519</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="E114" s="4"/>
     </row>
@@ -11102,7 +11105,7 @@
         <v>520</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="E115" s="4"/>
     </row>
@@ -11117,7 +11120,7 @@
         <v>520</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="E116" s="4"/>
     </row>
@@ -11132,7 +11135,7 @@
         <v>521</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="E117" s="4"/>
     </row>
@@ -11147,7 +11150,7 @@
         <v>522</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="E118" s="4"/>
     </row>
@@ -11162,7 +11165,7 @@
         <v>523</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="E119" s="4"/>
     </row>
@@ -11177,7 +11180,7 @@
         <v>524</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="E120" s="4"/>
     </row>
@@ -11192,7 +11195,7 @@
         <v>524</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="E121" s="4"/>
     </row>
@@ -11207,7 +11210,7 @@
         <v>525</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="E122" s="4"/>
     </row>
@@ -11222,7 +11225,7 @@
         <v>526</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="E123" s="4"/>
     </row>
@@ -11237,7 +11240,7 @@
         <v>527</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="E124" s="4"/>
     </row>
@@ -11252,7 +11255,7 @@
         <v>528</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="E125" s="4"/>
     </row>
@@ -11267,7 +11270,7 @@
         <v>529</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="E126" s="4"/>
     </row>
@@ -11282,7 +11285,7 @@
         <v>530</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="E127" s="4"/>
     </row>
@@ -11297,7 +11300,7 @@
         <v>531</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="E128" s="4"/>
     </row>
@@ -11312,7 +11315,7 @@
         <v>532</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="E129" s="4"/>
     </row>
@@ -11327,7 +11330,7 @@
         <v>533</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="E130" s="4"/>
     </row>
@@ -11342,7 +11345,7 @@
         <v>534</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="E131" s="4"/>
     </row>
@@ -11357,7 +11360,7 @@
         <v>535</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="E132" s="4"/>
     </row>
@@ -11372,7 +11375,7 @@
         <v>536</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="E133" s="4"/>
     </row>
@@ -11387,7 +11390,7 @@
         <v>537</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="E134" s="4"/>
     </row>
@@ -11402,7 +11405,7 @@
         <v>538</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="E135" s="4"/>
     </row>
@@ -11417,7 +11420,7 @@
         <v>539</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="E136" s="4"/>
     </row>
@@ -11432,7 +11435,7 @@
         <v>540</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="E137" s="4"/>
     </row>
@@ -11447,7 +11450,7 @@
         <v>541</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="E138" s="4"/>
     </row>
@@ -11462,7 +11465,7 @@
         <v>542</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="E139" s="4"/>
     </row>
@@ -11477,7 +11480,7 @@
         <v>543</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="E140" s="4"/>
     </row>
@@ -11492,7 +11495,7 @@
         <v>544</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="E141" s="4"/>
     </row>
@@ -11507,7 +11510,7 @@
         <v>545</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="E142" s="4"/>
     </row>
@@ -11522,7 +11525,7 @@
         <v>546</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="E143" s="4"/>
     </row>
@@ -11537,7 +11540,7 @@
         <v>547</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="E144" s="4"/>
     </row>
@@ -11552,7 +11555,7 @@
         <v>548</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="E145" s="4"/>
     </row>
@@ -11567,7 +11570,7 @@
         <v>549</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="E146" s="4"/>
     </row>
@@ -11582,7 +11585,7 @@
         <v>551</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="E147" s="4">
         <v>7065</v>
@@ -11599,7 +11602,7 @@
         <v>552</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="E148" s="4">
         <v>7061</v>
@@ -11616,10 +11619,10 @@
         <v>553</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -11633,7 +11636,7 @@
         <v>554</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="E150" s="4">
         <v>7066</v>
@@ -11650,7 +11653,7 @@
         <v>555</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="E151" s="4">
         <v>7067</v>
@@ -11667,7 +11670,7 @@
         <v>24</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="E152" s="4"/>
     </row>
@@ -11682,7 +11685,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E153" s="4"/>
     </row>
@@ -11697,7 +11700,7 @@
         <v>24</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E154" s="4"/>
     </row>
@@ -11712,7 +11715,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E155" s="4"/>
     </row>
@@ -11727,7 +11730,7 @@
         <v>24</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E156" s="4"/>
     </row>
@@ -11742,7 +11745,7 @@
         <v>24</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E157" s="4"/>
     </row>
@@ -11757,7 +11760,7 @@
         <v>24</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="E158" s="4"/>
     </row>
@@ -11772,7 +11775,7 @@
         <v>23</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="E159" s="4"/>
     </row>
@@ -11787,7 +11790,7 @@
         <v>497</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E160" s="4"/>
     </row>
@@ -11802,7 +11805,7 @@
         <v>497</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E161" s="4"/>
     </row>
@@ -11817,7 +11820,7 @@
         <v>497</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E162" s="4"/>
     </row>
@@ -11832,7 +11835,7 @@
         <v>498</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E163" s="4"/>
     </row>
@@ -11847,7 +11850,7 @@
         <v>498</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E164" s="4"/>
     </row>
@@ -11862,7 +11865,7 @@
         <v>498</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E165" s="4"/>
     </row>
@@ -11877,7 +11880,7 @@
         <v>560</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="E166" s="4"/>
     </row>
@@ -11892,7 +11895,7 @@
         <v>562</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="E167" s="4"/>
     </row>
@@ -11907,7 +11910,7 @@
         <v>563</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="E168" s="4"/>
     </row>
@@ -11922,7 +11925,7 @@
         <v>446</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="E169" s="4"/>
     </row>
@@ -11937,7 +11940,7 @@
         <v>564</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="E170" s="4"/>
     </row>
@@ -11952,7 +11955,7 @@
         <v>565</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="E171" s="4"/>
     </row>
@@ -11967,7 +11970,7 @@
         <v>566</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="E172" s="4"/>
     </row>
@@ -11982,7 +11985,7 @@
         <v>568</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="E173" s="4"/>
     </row>
@@ -11997,7 +12000,7 @@
         <v>569</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="E174" s="4"/>
     </row>
@@ -12012,7 +12015,7 @@
         <v>570</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="E175" s="4"/>
     </row>
@@ -12027,7 +12030,7 @@
         <v>571</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="E176" s="4"/>
     </row>
@@ -12042,7 +12045,7 @@
         <v>573</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="E177" s="4"/>
     </row>
@@ -12057,7 +12060,7 @@
         <v>574</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="E178" s="4"/>
     </row>
@@ -12072,7 +12075,7 @@
         <v>574</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="E179" s="4"/>
     </row>
@@ -12087,7 +12090,7 @@
         <v>459</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="E180" s="4"/>
     </row>
@@ -12102,7 +12105,7 @@
         <v>575</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="E181" s="4"/>
     </row>
@@ -12117,7 +12120,7 @@
         <v>577</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="E182" s="4"/>
     </row>
@@ -12132,7 +12135,7 @@
         <v>578</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="E183" s="4"/>
     </row>
@@ -12147,7 +12150,7 @@
         <v>580</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="E184" s="4"/>
     </row>
@@ -12162,7 +12165,7 @@
         <v>582</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="E185" s="4"/>
     </row>
@@ -12177,7 +12180,7 @@
         <v>582</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="E186" s="4"/>
     </row>
@@ -12192,7 +12195,7 @@
         <v>582</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="E187" s="4"/>
     </row>
@@ -12207,7 +12210,7 @@
         <v>582</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="E188" s="4"/>
     </row>
@@ -12222,7 +12225,7 @@
         <v>583</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="E189" s="4"/>
     </row>
@@ -12237,7 +12240,7 @@
         <v>584</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="E190" s="4"/>
     </row>
@@ -12252,7 +12255,7 @@
         <v>584</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="E191" s="4"/>
     </row>
@@ -12267,7 +12270,7 @@
         <v>585</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="E192" s="4"/>
     </row>
@@ -12282,7 +12285,7 @@
         <v>585</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="E193" s="4"/>
     </row>
@@ -12297,7 +12300,7 @@
         <v>586</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="E194" s="4"/>
     </row>
@@ -12312,7 +12315,7 @@
         <v>587</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="E195" s="4"/>
     </row>
@@ -12327,7 +12330,7 @@
         <v>588</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="E196" s="4"/>
     </row>
@@ -12342,7 +12345,7 @@
         <v>590</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="E197" s="4">
         <v>7024</v>
@@ -12359,7 +12362,7 @@
         <v>591</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="E198" s="4">
         <v>7023</v>
@@ -12376,7 +12379,7 @@
         <v>592</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="E199" s="4">
         <v>7014</v>
@@ -12393,7 +12396,7 @@
         <v>593</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="E200" s="4">
         <v>7008</v>
@@ -12410,7 +12413,7 @@
         <v>594</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="E201" s="4">
         <v>7016</v>
@@ -12427,7 +12430,7 @@
         <v>595</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="E202" s="4">
         <v>7009</v>
@@ -12444,7 +12447,7 @@
         <v>596</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="E203" s="4">
         <v>7051</v>
@@ -12461,7 +12464,7 @@
         <v>597</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="E204" s="4">
         <v>7052</v>
@@ -12478,10 +12481,10 @@
         <v>598</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -12495,7 +12498,7 @@
         <v>599</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="E206" s="4">
         <v>7038</v>
@@ -12512,10 +12515,10 @@
         <v>600</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -12529,10 +12532,10 @@
         <v>601</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -12546,10 +12549,10 @@
         <v>602</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -12563,7 +12566,7 @@
         <v>603</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="E210" s="4">
         <v>7014</v>
@@ -12580,7 +12583,7 @@
         <v>604</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="E211" s="4">
         <v>7051</v>
@@ -12597,10 +12600,10 @@
         <v>605</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -12614,7 +12617,7 @@
         <v>606</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="E213" s="4">
         <v>7014</v>
@@ -12631,7 +12634,7 @@
         <v>607</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="E214" s="4">
         <v>7014</v>
@@ -12648,7 +12651,7 @@
         <v>609</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="E215" s="4">
         <v>7012</v>
@@ -12665,7 +12668,7 @@
         <v>609</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="E216" s="4"/>
     </row>
@@ -12680,7 +12683,7 @@
         <v>610</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="E217" s="4">
         <v>7013</v>
@@ -12697,7 +12700,7 @@
         <v>610</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="E218" s="4"/>
     </row>
@@ -12712,7 +12715,7 @@
         <v>611</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="E219" s="4">
         <v>7011</v>
@@ -12729,7 +12732,7 @@
         <v>612</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="E220" s="4">
         <v>7018</v>
@@ -12746,7 +12749,7 @@
         <v>613</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E221" s="4">
         <v>7097</v>
@@ -12763,10 +12766,10 @@
         <v>613</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12780,7 +12783,7 @@
         <v>614</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="E223" s="4">
         <v>7019</v>
@@ -12797,10 +12800,10 @@
         <v>615</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12814,10 +12817,10 @@
         <v>616</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -12831,10 +12834,10 @@
         <v>617</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -12848,10 +12851,10 @@
         <v>618</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -12865,10 +12868,10 @@
         <v>619</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -12882,10 +12885,10 @@
         <v>620</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -12899,7 +12902,7 @@
         <v>621</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="E230" s="4">
         <v>7011</v>
@@ -12916,10 +12919,10 @@
         <v>622</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -12933,10 +12936,10 @@
         <v>623</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12950,7 +12953,7 @@
         <v>625</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="E233" s="4">
         <v>7042</v>
@@ -12967,10 +12970,10 @@
         <v>626</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -12984,7 +12987,7 @@
         <v>628</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="E235" s="4"/>
     </row>
@@ -12999,7 +13002,7 @@
         <v>629</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="E236" s="4"/>
     </row>
@@ -13014,7 +13017,7 @@
         <v>630</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="E237" s="4"/>
     </row>
@@ -13029,7 +13032,7 @@
         <v>631</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="E238" s="4"/>
     </row>
@@ -13044,7 +13047,7 @@
         <v>632</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="E239" s="4"/>
     </row>
@@ -13059,7 +13062,7 @@
         <v>633</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="E240" s="4"/>
     </row>
@@ -13074,7 +13077,7 @@
         <v>634</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="E241" s="4"/>
     </row>
@@ -13089,7 +13092,7 @@
         <v>635</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="E242" s="4"/>
     </row>
@@ -13104,7 +13107,7 @@
         <v>636</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="E243" s="4"/>
     </row>
@@ -13119,7 +13122,7 @@
         <v>637</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="E244" s="4"/>
     </row>
@@ -13134,7 +13137,7 @@
         <v>638</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="E245" s="4"/>
     </row>
@@ -13149,7 +13152,7 @@
         <v>639</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="E246" s="4"/>
     </row>
@@ -13164,7 +13167,7 @@
         <v>640</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="E247" s="4"/>
     </row>
@@ -13179,7 +13182,7 @@
         <v>642</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="E248" s="4"/>
     </row>
@@ -13194,7 +13197,7 @@
         <v>643</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="E249" s="4"/>
     </row>
@@ -13209,7 +13212,7 @@
         <v>643</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="E250" s="4"/>
     </row>
@@ -13224,7 +13227,7 @@
         <v>644</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="E251" s="4"/>
     </row>
@@ -13239,7 +13242,7 @@
         <v>645</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="E252" s="4"/>
     </row>
@@ -13254,7 +13257,7 @@
         <v>647</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="E253" s="4">
         <v>7071</v>
@@ -13271,7 +13274,7 @@
         <v>648</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="E254" s="4">
         <v>7074</v>
@@ -13288,7 +13291,7 @@
         <v>649</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="E255" s="4">
         <v>7060</v>
@@ -13305,7 +13308,7 @@
         <v>647</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="E256" s="4"/>
     </row>
@@ -13320,7 +13323,7 @@
         <v>650</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="E257" s="4">
         <v>7070</v>
@@ -13337,7 +13340,7 @@
         <v>650</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="E258" s="4"/>
     </row>
@@ -13352,7 +13355,7 @@
         <v>652</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="E259" s="4">
         <v>7033</v>
@@ -13369,7 +13372,7 @@
         <v>652</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="E260" s="4"/>
     </row>
@@ -13384,7 +13387,7 @@
         <v>653</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="E261" s="4">
         <v>7034</v>
@@ -13401,7 +13404,7 @@
         <v>653</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="E262" s="4"/>
     </row>
@@ -13416,7 +13419,7 @@
         <v>654</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="E263" s="4">
         <v>7035</v>
@@ -13433,7 +13436,7 @@
         <v>654</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="E264" s="4"/>
     </row>
@@ -13448,7 +13451,7 @@
         <v>654</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="E265" s="4"/>
     </row>
@@ -13463,10 +13466,10 @@
         <v>655</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -13480,7 +13483,7 @@
         <v>657</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="E267" s="4">
         <v>7031</v>
@@ -13497,7 +13500,7 @@
         <v>658</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="E268" s="4">
         <v>7032</v>
@@ -13514,7 +13517,7 @@
         <v>660</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="E269" s="4"/>
     </row>
@@ -13529,7 +13532,7 @@
         <v>662</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="E270" s="4"/>
     </row>
@@ -13544,7 +13547,7 @@
         <v>664</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="E271" s="4"/>
     </row>
@@ -13559,7 +13562,7 @@
         <v>664</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="E272" s="4"/>
     </row>
@@ -13574,7 +13577,7 @@
         <v>665</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="E273" s="4"/>
     </row>
@@ -13589,7 +13592,7 @@
         <v>666</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="E274" s="4"/>
     </row>
@@ -13604,7 +13607,7 @@
         <v>667</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="E275" s="4"/>
     </row>
@@ -13619,7 +13622,7 @@
         <v>667</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="E276" s="4"/>
     </row>
@@ -13634,7 +13637,7 @@
         <v>497</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="E277" s="4"/>
     </row>
@@ -13649,7 +13652,7 @@
         <v>668</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="E278" s="4"/>
     </row>
@@ -13664,7 +13667,7 @@
         <v>669</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="E279" s="4"/>
     </row>
@@ -13679,7 +13682,7 @@
         <v>498</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="E280" s="4"/>
     </row>
@@ -13694,7 +13697,7 @@
         <v>670</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="E281" s="4"/>
     </row>
@@ -13709,7 +13712,7 @@
         <v>671</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="E282" s="4"/>
     </row>
@@ -13724,7 +13727,7 @@
         <v>672</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="E283" s="4"/>
     </row>
@@ -13739,7 +13742,7 @@
         <v>673</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="E284" s="4"/>
     </row>
@@ -13754,7 +13757,7 @@
         <v>674</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="E285" s="4"/>
     </row>
@@ -13769,7 +13772,7 @@
         <v>675</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="E286" s="4"/>
     </row>
@@ -13784,7 +13787,7 @@
         <v>676</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="E287" s="4"/>
     </row>
@@ -13799,7 +13802,7 @@
         <v>677</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="E288" s="4"/>
     </row>
@@ -13814,7 +13817,7 @@
         <v>497</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="E289" s="4"/>
     </row>
@@ -13829,7 +13832,7 @@
         <v>498</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E290" s="4"/>
     </row>
@@ -13844,7 +13847,7 @@
         <v>679</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="E291" s="4"/>
     </row>
@@ -13859,7 +13862,7 @@
         <v>522</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="E292" s="4"/>
     </row>
@@ -13874,7 +13877,7 @@
         <v>505</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="E293" s="4"/>
     </row>
@@ -13889,10 +13892,10 @@
         <v>553</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -13906,7 +13909,7 @@
         <v>553</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="E295" s="4"/>
     </row>
@@ -13921,10 +13924,10 @@
         <v>554</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -13938,7 +13941,7 @@
         <v>554</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="E297" s="4"/>
     </row>
@@ -13953,7 +13956,7 @@
         <v>552</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="E298" s="4"/>
     </row>
@@ -13968,10 +13971,10 @@
         <v>681</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -13985,7 +13988,7 @@
         <v>681</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E300" s="4"/>
     </row>
@@ -14000,10 +14003,10 @@
         <v>682</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -14017,10 +14020,10 @@
         <v>551</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -14034,7 +14037,7 @@
         <v>551</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E303" s="4"/>
     </row>
@@ -14049,7 +14052,7 @@
         <v>551</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E304" s="4"/>
     </row>
@@ -14064,7 +14067,7 @@
         <v>551</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E305" s="4"/>
     </row>
@@ -14079,10 +14082,10 @@
         <v>683</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -14096,7 +14099,7 @@
         <v>555</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="E307" s="4"/>
     </row>
@@ -14111,10 +14114,10 @@
         <v>684</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -14128,7 +14131,7 @@
         <v>686</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="E309" s="4">
         <v>7020</v>
@@ -14145,7 +14148,7 @@
         <v>687</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="E310" s="4">
         <v>7064</v>
@@ -14162,7 +14165,7 @@
         <v>687</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="E311" s="4"/>
     </row>
@@ -14177,10 +14180,10 @@
         <v>688</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -14194,10 +14197,10 @@
         <v>689</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -14211,10 +14214,10 @@
         <v>690</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -14228,10 +14231,10 @@
         <v>691</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -14245,10 +14248,10 @@
         <v>692</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -14262,10 +14265,10 @@
         <v>693</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -14279,7 +14282,7 @@
         <v>694</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="E318" s="4">
         <v>7020</v>
@@ -14296,10 +14299,10 @@
         <v>695</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -14313,10 +14316,10 @@
         <v>696</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -14330,7 +14333,7 @@
         <v>697</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="E321" s="4">
         <v>7064</v>
@@ -14347,10 +14350,10 @@
         <v>698</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -14361,7 +14364,7 @@
         <v>699</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="E323" s="4"/>
     </row>
@@ -14376,7 +14379,7 @@
         <v>701</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="E324" s="4">
         <v>7049</v>
@@ -14393,7 +14396,7 @@
         <v>701</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="E325" s="4"/>
     </row>
@@ -14408,10 +14411,10 @@
         <v>702</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -14425,7 +14428,7 @@
         <v>703</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="E327" s="4">
         <v>7050</v>
@@ -14442,7 +14445,7 @@
         <v>704</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="E328" s="4">
         <v>7057</v>
@@ -14459,7 +14462,7 @@
         <v>705</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="E329" s="4"/>
     </row>
@@ -14474,7 +14477,7 @@
         <v>706</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="E330" s="4"/>
     </row>
@@ -14489,10 +14492,10 @@
         <v>707</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -14506,7 +14509,7 @@
         <v>707</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="E332" s="4"/>
     </row>
@@ -14521,7 +14524,7 @@
         <v>708</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="E333" s="4">
         <v>7010</v>
@@ -14538,7 +14541,7 @@
         <v>709</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="E334" s="4">
         <v>7045</v>
@@ -14555,7 +14558,7 @@
         <v>709</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="E335" s="4"/>
     </row>
@@ -14570,7 +14573,7 @@
         <v>709</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="E336" s="4"/>
     </row>
@@ -14585,7 +14588,7 @@
         <v>710</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="E337" s="4">
         <v>7055</v>
@@ -14602,10 +14605,10 @@
         <v>711</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -14619,10 +14622,10 @@
         <v>712</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -14636,7 +14639,7 @@
         <v>712</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="E340" s="4"/>
     </row>
@@ -14651,10 +14654,10 @@
         <v>713</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -14668,7 +14671,7 @@
         <v>714</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="E342" s="4">
         <v>7047</v>
@@ -14685,7 +14688,7 @@
         <v>715</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="E343" s="4">
         <v>7054</v>
@@ -14702,7 +14705,7 @@
         <v>715</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="E344" s="4"/>
     </row>
@@ -14717,7 +14720,7 @@
         <v>715</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="E345" s="4"/>
     </row>
@@ -14732,7 +14735,7 @@
         <v>715</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="E346" s="4"/>
     </row>
@@ -14747,7 +14750,7 @@
         <v>716</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="E347" s="4">
         <v>7056</v>
@@ -14764,7 +14767,7 @@
         <v>716</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="E348" s="4"/>
     </row>
@@ -14779,10 +14782,10 @@
         <v>717</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -14796,10 +14799,10 @@
         <v>718</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -14813,7 +14816,7 @@
         <v>720</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="E351" s="4"/>
     </row>
@@ -14828,7 +14831,7 @@
         <v>720</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="E352" s="4"/>
     </row>
@@ -14843,7 +14846,7 @@
         <v>722</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="E353" s="4"/>
     </row>
@@ -14858,7 +14861,7 @@
         <v>722</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="E354" s="4"/>
     </row>
@@ -14873,7 +14876,7 @@
         <v>722</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="E355" s="4"/>
     </row>
@@ -14888,7 +14891,7 @@
         <v>723</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="E356" s="4"/>
     </row>
@@ -14903,7 +14906,7 @@
         <v>720</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="E357" s="4"/>
     </row>
@@ -14918,7 +14921,7 @@
         <v>720</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="E358" s="4"/>
     </row>
@@ -14933,7 +14936,7 @@
         <v>720</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="E359" s="4"/>
     </row>
@@ -14948,7 +14951,7 @@
         <v>724</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="E360" s="4"/>
     </row>
@@ -14963,7 +14966,7 @@
         <v>720</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="E361" s="4"/>
     </row>
@@ -14978,7 +14981,7 @@
         <v>720</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="E362" s="4"/>
     </row>
@@ -14993,7 +14996,7 @@
         <v>725</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="E363" s="4"/>
     </row>
@@ -15008,7 +15011,7 @@
         <v>722</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="E364" s="4"/>
     </row>
@@ -15023,7 +15026,7 @@
         <v>722</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="E365" s="4"/>
     </row>
@@ -15038,7 +15041,7 @@
         <v>726</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="E366" s="4"/>
     </row>
@@ -15053,7 +15056,7 @@
         <v>727</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="E367" s="4"/>
     </row>
@@ -15068,7 +15071,7 @@
         <v>729</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="E368" s="4"/>
     </row>
@@ -15083,7 +15086,7 @@
         <v>731</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="E369" s="4">
         <v>7046</v>
@@ -15100,10 +15103,10 @@
         <v>732</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -15117,7 +15120,7 @@
         <v>625</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E371" s="4">
         <v>7076</v>
@@ -15134,7 +15137,7 @@
         <v>625</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E372" s="4"/>
     </row>
@@ -15149,7 +15152,7 @@
         <v>734</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="E373" s="4">
         <v>7041</v>
@@ -15166,7 +15169,7 @@
         <v>735</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="E374" s="4">
         <v>7077</v>
@@ -15183,7 +15186,7 @@
         <v>735</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="E375" s="4"/>
     </row>
@@ -15198,7 +15201,7 @@
         <v>736</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="E376" s="4">
         <v>7078</v>
@@ -15215,7 +15218,7 @@
         <v>738</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="E377" s="4"/>
     </row>
@@ -15230,7 +15233,7 @@
         <v>740</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="E378" s="4"/>
     </row>
@@ -15245,7 +15248,7 @@
         <v>740</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="E379" s="4"/>
     </row>
@@ -15260,7 +15263,7 @@
         <v>741</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E380" s="4"/>
     </row>
@@ -15275,7 +15278,7 @@
         <v>742</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="E381" s="4"/>
     </row>
@@ -15290,7 +15293,7 @@
         <v>743</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="E382" s="4"/>
     </row>
@@ -15305,7 +15308,7 @@
         <v>744</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="E383" s="4"/>
     </row>
@@ -15320,7 +15323,7 @@
         <v>745</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="E384" s="4"/>
     </row>
@@ -15335,7 +15338,7 @@
         <v>746</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="E385" s="4"/>
     </row>
@@ -15350,7 +15353,7 @@
         <v>747</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="E386" s="4"/>
     </row>
@@ -15365,7 +15368,7 @@
         <v>749</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="E387" s="4"/>
     </row>
@@ -15380,7 +15383,7 @@
         <v>749</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="E388" s="4"/>
     </row>
@@ -15395,7 +15398,7 @@
         <v>749</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="E389" s="4"/>
     </row>
@@ -15410,7 +15413,7 @@
         <v>750</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="E390" s="4"/>
     </row>
@@ -15425,7 +15428,7 @@
         <v>751</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="E391" s="4"/>
     </row>
@@ -15440,7 +15443,7 @@
         <v>752</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E392" s="4"/>
     </row>
@@ -15455,7 +15458,7 @@
         <v>753</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="E393" s="4"/>
     </row>
@@ -15470,7 +15473,7 @@
         <v>754</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="E394" s="4"/>
     </row>
@@ -15485,7 +15488,7 @@
         <v>755</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="E395" s="4"/>
     </row>
@@ -15500,7 +15503,7 @@
         <v>757</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="E396" s="4"/>
     </row>
@@ -15515,7 +15518,7 @@
         <v>758</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="E397" s="4"/>
     </row>
@@ -15530,7 +15533,7 @@
         <v>759</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="E398" s="4"/>
     </row>
@@ -15545,7 +15548,7 @@
         <v>760</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="E399" s="4"/>
     </row>
@@ -15560,7 +15563,7 @@
         <v>761</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="E400" s="4"/>
     </row>
@@ -15575,7 +15578,7 @@
         <v>763</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="E401" s="4"/>
     </row>
@@ -15590,7 +15593,7 @@
         <v>765</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="E402" s="4"/>
     </row>
@@ -15605,7 +15608,7 @@
         <v>766</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="E403" s="4"/>
     </row>
@@ -15620,7 +15623,7 @@
         <v>767</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="E404" s="4"/>
     </row>
@@ -15635,7 +15638,7 @@
         <v>769</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="E405" s="4"/>
     </row>
@@ -15650,10 +15653,10 @@
         <v>597</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -15667,7 +15670,7 @@
         <v>597</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="E407" s="4"/>
     </row>
@@ -15682,10 +15685,10 @@
         <v>771</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -15699,7 +15702,7 @@
         <v>771</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="E409" s="4"/>
     </row>
@@ -15714,10 +15717,10 @@
         <v>599</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -15731,7 +15734,7 @@
         <v>599</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="E411" s="4"/>
     </row>
@@ -15746,10 +15749,10 @@
         <v>600</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -15763,7 +15766,7 @@
         <v>600</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E413" s="4"/>
     </row>
@@ -15778,7 +15781,7 @@
         <v>490</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="E414" s="4">
         <v>7007</v>
@@ -15795,7 +15798,7 @@
         <v>490</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="E415" s="4"/>
     </row>
@@ -15810,7 +15813,7 @@
         <v>490</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="E416" s="4"/>
     </row>
@@ -15825,7 +15828,7 @@
         <v>772</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E417" s="4">
         <v>7026</v>
@@ -15842,7 +15845,7 @@
         <v>772</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E418" s="4"/>
     </row>
@@ -15857,7 +15860,7 @@
         <v>772</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E419" s="4"/>
     </row>
@@ -15872,10 +15875,10 @@
         <v>773</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -15889,10 +15892,10 @@
         <v>591</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -15906,10 +15909,10 @@
         <v>592</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -15923,7 +15926,7 @@
         <v>592</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="E423" s="4"/>
     </row>
@@ -15938,10 +15941,10 @@
         <v>593</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -15955,7 +15958,7 @@
         <v>593</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="E425" s="4"/>
     </row>
@@ -15970,10 +15973,10 @@
         <v>595</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -15987,7 +15990,7 @@
         <v>595</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E427" s="4"/>
     </row>
@@ -16002,10 +16005,10 @@
         <v>774</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -16019,7 +16022,7 @@
         <v>774</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="E429" s="4"/>
     </row>
@@ -16034,7 +16037,7 @@
         <v>775</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="E430" s="4"/>
     </row>
@@ -16049,10 +16052,10 @@
         <v>775</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -16066,10 +16069,10 @@
         <v>590</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -16083,7 +16086,7 @@
         <v>590</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="E433" s="4"/>
     </row>
@@ -16098,10 +16101,10 @@
         <v>596</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -16115,7 +16118,7 @@
         <v>596</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="E435" s="4"/>
     </row>
@@ -16130,10 +16133,10 @@
         <v>776</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -16147,7 +16150,7 @@
         <v>777</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="E437" s="4"/>
     </row>
@@ -16162,7 +16165,7 @@
         <v>778</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="E438" s="4"/>
     </row>
@@ -16177,7 +16180,7 @@
         <v>779</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="E439" s="4"/>
     </row>
@@ -16192,7 +16195,7 @@
         <v>780</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="E440" s="4"/>
     </row>
@@ -16207,7 +16210,7 @@
         <v>781</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="E441" s="4"/>
     </row>
@@ -16222,7 +16225,7 @@
         <v>782</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E442" s="4"/>
     </row>
@@ -16237,7 +16240,7 @@
         <v>783</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E443" s="4"/>
     </row>
@@ -16252,7 +16255,7 @@
         <v>784</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="E444" s="4"/>
     </row>
@@ -16267,7 +16270,7 @@
         <v>785</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="E445" s="4"/>
     </row>
@@ -16282,7 +16285,7 @@
         <v>786</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="E446" s="4"/>
     </row>
@@ -16297,7 +16300,7 @@
         <v>603</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="E447" s="4"/>
     </row>
@@ -16312,7 +16315,7 @@
         <v>787</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="E448" s="4"/>
     </row>
@@ -16327,7 +16330,7 @@
         <v>788</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="E449" s="4"/>
     </row>
@@ -16342,7 +16345,7 @@
         <v>789</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="E450" s="4"/>
     </row>
@@ -16357,7 +16360,7 @@
         <v>790</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="E451" s="4"/>
     </row>
@@ -16372,7 +16375,7 @@
         <v>791</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="E452" s="4"/>
     </row>
@@ -16387,7 +16390,7 @@
         <v>792</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="E453" s="4"/>
     </row>
@@ -16402,7 +16405,7 @@
         <v>793</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="E454" s="4"/>
     </row>
@@ -16417,7 +16420,7 @@
         <v>794</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="E455" s="4"/>
     </row>
@@ -16432,7 +16435,7 @@
         <v>795</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="E456" s="4"/>
     </row>
@@ -16447,7 +16450,7 @@
         <v>607</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="E457" s="4"/>
     </row>
@@ -16462,7 +16465,7 @@
         <v>796</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="E458" s="4"/>
     </row>
@@ -16477,10 +16480,10 @@
         <v>595</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -16494,10 +16497,10 @@
         <v>592</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -16511,7 +16514,7 @@
         <v>798</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="E461" s="4">
         <v>7053</v>
@@ -16528,10 +16531,10 @@
         <v>600</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -16545,10 +16548,10 @@
         <v>800</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -16562,7 +16565,7 @@
         <v>800</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="E464" s="4"/>
     </row>
@@ -16577,10 +16580,10 @@
         <v>801</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -16594,7 +16597,7 @@
         <v>801</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="E466" s="4"/>
     </row>
@@ -16609,7 +16612,7 @@
         <v>802</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="E467" s="4">
         <v>7022</v>
@@ -16626,7 +16629,7 @@
         <v>802</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="E468" s="4"/>
     </row>
@@ -16641,10 +16644,10 @@
         <v>803</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -16658,7 +16661,7 @@
         <v>424</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="E470" s="4"/>
     </row>
@@ -16673,7 +16676,7 @@
         <v>805</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="E471" s="4"/>
     </row>
@@ -16688,10 +16691,10 @@
         <v>807</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -16705,10 +16708,10 @@
         <v>808</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -16722,7 +16725,7 @@
         <v>808</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="E474" s="4"/>
     </row>
@@ -16737,10 +16740,10 @@
         <v>809</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -16754,7 +16757,7 @@
         <v>809</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="E476" s="4"/>
     </row>
@@ -16769,10 +16772,10 @@
         <v>810</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -16786,7 +16789,7 @@
         <v>810</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="E478" s="4"/>
     </row>
@@ -16801,7 +16804,7 @@
         <v>811</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="E479" s="4">
         <v>7098</v>
@@ -16818,10 +16821,10 @@
         <v>812</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -16835,10 +16838,10 @@
         <v>813</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -16852,7 +16855,7 @@
         <v>813</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="E482" s="4"/>
     </row>
@@ -16867,10 +16870,10 @@
         <v>814</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -16884,10 +16887,10 @@
         <v>815</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -16901,7 +16904,7 @@
         <v>816</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="E485" s="4">
         <v>7036</v>
@@ -16918,7 +16921,7 @@
         <v>816</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="E486" s="4"/>
     </row>
@@ -16933,7 +16936,7 @@
         <v>817</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="E487" s="4">
         <v>7069</v>
@@ -16950,7 +16953,7 @@
         <v>817</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="E488" s="4"/>
     </row>
@@ -16965,7 +16968,7 @@
         <v>818</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="E489" s="4">
         <v>7036</v>
@@ -16982,7 +16985,7 @@
         <v>818</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="E490" s="4"/>
     </row>
@@ -16997,7 +17000,7 @@
         <v>819</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="E491" s="4"/>
     </row>
@@ -17012,7 +17015,7 @@
         <v>820</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="E492" s="4"/>
     </row>
@@ -17027,7 +17030,7 @@
         <v>821</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="E493" s="4"/>
     </row>
@@ -17042,7 +17045,7 @@
         <v>822</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="E494" s="4">
         <v>7036</v>
@@ -17059,7 +17062,7 @@
         <v>822</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="E495" s="4"/>
     </row>
@@ -17074,7 +17077,7 @@
         <v>823</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="E496" s="4"/>
     </row>
@@ -17089,7 +17092,7 @@
         <v>824</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="E497" s="4"/>
     </row>
@@ -17104,10 +17107,10 @@
         <v>825</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -17121,7 +17124,7 @@
         <v>825</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="E499" s="4"/>
     </row>
@@ -17136,7 +17139,7 @@
         <v>826</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="E500" s="4"/>
     </row>
@@ -17151,7 +17154,7 @@
         <v>827</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="E501" s="4"/>
     </row>
@@ -17166,7 +17169,7 @@
         <v>828</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="E502" s="4"/>
     </row>
@@ -17181,7 +17184,7 @@
         <v>829</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="E503" s="4"/>
     </row>
@@ -17196,7 +17199,7 @@
         <v>830</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="E504" s="4"/>
     </row>
@@ -17211,7 +17214,7 @@
         <v>831</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="E505" s="4"/>
     </row>
@@ -17226,7 +17229,7 @@
         <v>833</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="E506" s="4"/>
     </row>
@@ -17241,10 +17244,10 @@
         <v>812</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -17258,10 +17261,10 @@
         <v>811</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -17275,10 +17278,10 @@
         <v>810</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,10 +17295,10 @@
         <v>809</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -17309,7 +17312,7 @@
         <v>809</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="E511" s="4"/>
     </row>
@@ -17324,10 +17327,10 @@
         <v>808</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -17341,10 +17344,10 @@
         <v>835</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -17358,10 +17361,10 @@
         <v>819</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -17375,10 +17378,10 @@
         <v>820</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="E515" s="4" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -17392,7 +17395,7 @@
         <v>820</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="E516" s="4"/>
     </row>
@@ -17407,10 +17410,10 @@
         <v>818</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -17424,7 +17427,7 @@
         <v>837</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="E518" s="4"/>
     </row>
@@ -17439,7 +17442,7 @@
         <v>839</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="E519" s="4">
         <v>7079</v>
@@ -17456,7 +17459,7 @@
         <v>839</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="E520" s="4"/>
     </row>
@@ -17471,7 +17474,7 @@
         <v>840</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="E521" s="4">
         <v>7027</v>
@@ -17488,7 +17491,7 @@
         <v>840</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="E522" s="4"/>
     </row>
@@ -17503,7 +17506,7 @@
         <v>841</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="E523" s="4">
         <v>7091</v>
@@ -17520,7 +17523,7 @@
         <v>841</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="E524" s="4"/>
     </row>
@@ -17535,7 +17538,7 @@
         <v>841</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="E525" s="4"/>
     </row>
@@ -17550,7 +17553,7 @@
         <v>841</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="E526" s="4"/>
     </row>
@@ -17565,7 +17568,7 @@
         <v>841</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="E527" s="4"/>
     </row>
@@ -17580,7 +17583,7 @@
         <v>842</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="E528" s="4">
         <v>7086</v>
@@ -17597,7 +17600,7 @@
         <v>842</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="E529" s="4"/>
     </row>
@@ -17612,7 +17615,7 @@
         <v>843</v>
       </c>
       <c r="D530" s="4" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="E530" s="4">
         <v>7080</v>
@@ -17629,7 +17632,7 @@
         <v>843</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="E531" s="4"/>
     </row>
@@ -17644,7 +17647,7 @@
         <v>845</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="E532" s="4"/>
     </row>
@@ -17659,7 +17662,7 @@
         <v>846</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="E533" s="4"/>
     </row>
@@ -17674,7 +17677,7 @@
         <v>848</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="E534" s="4"/>
     </row>
@@ -17689,7 +17692,7 @@
         <v>6351</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="E535" s="4"/>
     </row>
@@ -17704,7 +17707,7 @@
         <v>851</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="E536" s="4">
         <v>7095</v>
@@ -17721,7 +17724,7 @@
         <v>853</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="E537" s="4"/>
     </row>
@@ -17736,7 +17739,7 @@
         <v>854</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="E538" s="4"/>
     </row>
@@ -17751,7 +17754,7 @@
         <v>856</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="E539" s="4"/>
     </row>
@@ -17766,7 +17769,7 @@
         <v>858</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="E540" s="4"/>
     </row>
@@ -17781,7 +17784,7 @@
         <v>858</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="E541" s="4"/>
     </row>
@@ -17796,7 +17799,7 @@
         <v>858</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="E542" s="4"/>
     </row>
@@ -17811,7 +17814,7 @@
         <v>859</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="E543" s="4"/>
     </row>
@@ -17826,7 +17829,7 @@
         <v>861</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="E544" s="4">
         <v>7030</v>
@@ -17843,7 +17846,7 @@
         <v>863</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="E545" s="4"/>
     </row>
@@ -17858,7 +17861,7 @@
         <v>865</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="E546" s="4"/>
     </row>
@@ -17873,7 +17876,7 @@
         <v>866</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="E547" s="4"/>
     </row>
@@ -17888,7 +17891,7 @@
         <v>868</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="E548" s="4">
         <v>7087</v>
@@ -17905,7 +17908,7 @@
         <v>868</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="E549" s="4"/>
     </row>
@@ -17920,7 +17923,7 @@
         <v>869</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="E550" s="4">
         <v>7088</v>
@@ -17937,7 +17940,7 @@
         <v>869</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="E551" s="4"/>
     </row>
@@ -17952,10 +17955,10 @@
         <v>870</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -17969,10 +17972,10 @@
         <v>871</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -17986,7 +17989,7 @@
         <v>871</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="E554" s="4"/>
     </row>
@@ -18001,7 +18004,7 @@
         <v>873</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="E555" s="4"/>
     </row>
@@ -18016,7 +18019,7 @@
         <v>873</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="E556" s="4"/>
     </row>
@@ -18031,7 +18034,7 @@
         <v>856</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="E557" s="4"/>
     </row>
@@ -18046,7 +18049,7 @@
         <v>856</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="E558" s="4"/>
     </row>
@@ -18061,7 +18064,7 @@
         <v>856</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="E559" s="4"/>
     </row>
@@ -18076,7 +18079,7 @@
         <v>879</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="E560" s="4"/>
     </row>
@@ -18091,7 +18094,7 @@
         <v>880</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="E561" s="4"/>
     </row>
@@ -18106,10 +18109,10 @@
         <v>882</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="E562" s="4" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -18123,7 +18126,7 @@
         <v>880</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="E563" s="4"/>
     </row>
@@ -18138,7 +18141,7 @@
         <v>879</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="E564" s="4"/>
     </row>
@@ -18153,7 +18156,7 @@
         <v>885</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="E565" s="4"/>
     </row>
@@ -18168,7 +18171,7 @@
         <v>886</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="E566" s="4"/>
     </row>
@@ -18183,7 +18186,7 @@
         <v>887</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="E567" s="4"/>
     </row>
@@ -18198,7 +18201,7 @@
         <v>888</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="E568" s="4"/>
     </row>
@@ -18213,7 +18216,7 @@
         <v>885</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="E569" s="4"/>
     </row>
@@ -18228,7 +18231,7 @@
         <v>885</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="E570" s="4">
         <v>7063</v>
@@ -18245,7 +18248,7 @@
         <v>892</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="E571" s="4">
         <v>7090</v>
@@ -18262,7 +18265,7 @@
         <v>892</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="E572" s="4"/>
     </row>
@@ -18277,7 +18280,7 @@
         <v>893</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="E573" s="4"/>
     </row>
@@ -18292,10 +18295,10 @@
         <v>894</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="E574" s="4" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -18309,7 +18312,7 @@
         <v>894</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="E575" s="4"/>
     </row>
@@ -18324,7 +18327,7 @@
         <v>895</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="E576" s="4">
         <v>7085</v>
@@ -18341,7 +18344,7 @@
         <v>895</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="E577" s="4"/>
     </row>
@@ -18356,7 +18359,7 @@
         <v>895</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="E578" s="4"/>
     </row>
@@ -18371,7 +18374,7 @@
         <v>895</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="E579" s="4"/>
     </row>
@@ -18386,7 +18389,7 @@
         <v>895</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="E580" s="4"/>
     </row>
@@ -18401,7 +18404,7 @@
         <v>896</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="E581" s="4">
         <v>7083</v>
@@ -18418,7 +18421,7 @@
         <v>896</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="E582" s="4"/>
     </row>
@@ -18433,7 +18436,7 @@
         <v>897</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="E583" s="4"/>
     </row>
@@ -18448,7 +18451,7 @@
         <v>898</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="E584" s="4">
         <v>7089</v>
@@ -18465,7 +18468,7 @@
         <v>898</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="E585" s="4"/>
     </row>
@@ -18480,7 +18483,7 @@
         <v>899</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="E586" s="4">
         <v>7082</v>
@@ -18497,7 +18500,7 @@
         <v>899</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="E587" s="4"/>
     </row>
@@ -18512,7 +18515,7 @@
         <v>899</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="E588" s="4"/>
     </row>
@@ -18527,7 +18530,7 @@
         <v>900</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="E589" s="4">
         <v>7094</v>
@@ -18544,7 +18547,7 @@
         <v>901</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="E590" s="4">
         <v>7084</v>
@@ -18561,7 +18564,7 @@
         <v>901</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="E591" s="4"/>
     </row>
@@ -18576,7 +18579,7 @@
         <v>902</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="E592" s="4"/>
     </row>
@@ -18591,7 +18594,7 @@
         <v>904</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="E593" s="4"/>
     </row>
@@ -18606,7 +18609,7 @@
         <v>906</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="E594" s="4"/>
     </row>
@@ -18621,7 +18624,7 @@
         <v>879</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="E595" s="4"/>
     </row>
@@ -18636,10 +18639,10 @@
         <v>909</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -18653,10 +18656,10 @@
         <v>910</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="E597" s="4" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -18670,7 +18673,7 @@
         <v>912</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="E598" s="4"/>
     </row>
@@ -18685,7 +18688,7 @@
         <v>912</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="E599" s="4"/>
     </row>
@@ -18700,7 +18703,7 @@
         <v>648</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="E600" s="4"/>
     </row>
@@ -18715,7 +18718,7 @@
         <v>660</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="E601" s="4"/>
     </row>
@@ -18724,16 +18727,16 @@
         <v>21</v>
       </c>
       <c r="B602" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C602" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="C602" s="4" t="s">
-        <v>916</v>
-      </c>
       <c r="D602" s="4" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="E602" s="4" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -18741,16 +18744,16 @@
         <v>21</v>
       </c>
       <c r="B603" t="s">
-        <v>915</v>
+        <v>1734</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -18758,16 +18761,16 @@
         <v>21</v>
       </c>
       <c r="B604" t="s">
-        <v>918</v>
+        <v>1735</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="E604" s="4" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -18775,13 +18778,13 @@
         <v>21</v>
       </c>
       <c r="B605" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C605" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="C605" s="4" t="s">
-        <v>920</v>
-      </c>
       <c r="D605" s="4" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="E605" s="4"/>
     </row>
@@ -18790,16 +18793,16 @@
         <v>21</v>
       </c>
       <c r="B606" t="s">
-        <v>918</v>
+        <v>1735</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="E606" s="4" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -18807,13 +18810,13 @@
         <v>21</v>
       </c>
       <c r="B607" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="E607" s="4"/>
     </row>
@@ -18822,13 +18825,13 @@
         <v>21</v>
       </c>
       <c r="B608" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="E608" s="4"/>
     </row>
@@ -18837,13 +18840,13 @@
         <v>21</v>
       </c>
       <c r="B609" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="E609" s="4"/>
     </row>
@@ -18852,13 +18855,13 @@
         <v>21</v>
       </c>
       <c r="B610" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="E610" s="4"/>
     </row>
@@ -18867,13 +18870,13 @@
         <v>21</v>
       </c>
       <c r="B611" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C611" s="4" t="s">
-        <v>925</v>
-      </c>
       <c r="D611" s="4" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="E611" s="4"/>
     </row>
@@ -18882,13 +18885,13 @@
         <v>21</v>
       </c>
       <c r="B612" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="E612" s="4"/>
     </row>
@@ -18897,13 +18900,13 @@
         <v>21</v>
       </c>
       <c r="B613" t="s">
-        <v>922</v>
+        <v>1736</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="E613" s="4"/>
     </row>
@@ -18912,13 +18915,13 @@
         <v>21</v>
       </c>
       <c r="B614" t="s">
-        <v>928</v>
+        <v>1737</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="E614" s="4"/>
     </row>
@@ -18927,13 +18930,13 @@
         <v>21</v>
       </c>
       <c r="B615" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="E615" s="4"/>
     </row>
@@ -18942,13 +18945,13 @@
         <v>21</v>
       </c>
       <c r="B616" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="E616" s="4"/>
     </row>
@@ -18957,13 +18960,13 @@
         <v>21</v>
       </c>
       <c r="B617" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="E617" s="4"/>
     </row>
@@ -18972,13 +18975,13 @@
         <v>21</v>
       </c>
       <c r="B618" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="E618" s="4"/>
     </row>
@@ -18987,13 +18990,13 @@
         <v>21</v>
       </c>
       <c r="B619" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="C619" s="4" t="s">
-        <v>935</v>
-      </c>
       <c r="D619" s="4" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="E619" s="4"/>
     </row>
@@ -19002,13 +19005,13 @@
         <v>21</v>
       </c>
       <c r="B620" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="E620" s="4"/>
     </row>
@@ -19017,13 +19020,13 @@
         <v>21</v>
       </c>
       <c r="B621" t="s">
-        <v>930</v>
+        <v>1738</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="E621" s="4"/>
     </row>
@@ -19032,13 +19035,13 @@
         <v>21</v>
       </c>
       <c r="B622" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="E622" s="4"/>
     </row>
@@ -19047,13 +19050,13 @@
         <v>21</v>
       </c>
       <c r="B623" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="E623" s="4"/>
     </row>
@@ -19062,13 +19065,13 @@
         <v>21</v>
       </c>
       <c r="B624" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="E624" s="4"/>
     </row>
@@ -19077,13 +19080,13 @@
         <v>21</v>
       </c>
       <c r="B625" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="E625" s="4"/>
     </row>
@@ -19092,13 +19095,13 @@
         <v>21</v>
       </c>
       <c r="B626" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="E626" s="4"/>
     </row>
@@ -19107,13 +19110,13 @@
         <v>21</v>
       </c>
       <c r="B627" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C627" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="C627" s="4" t="s">
-        <v>944</v>
-      </c>
       <c r="D627" s="4" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="E627" s="4"/>
     </row>
@@ -19122,13 +19125,13 @@
         <v>21</v>
       </c>
       <c r="B628" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="E628" s="4"/>
     </row>
@@ -19137,13 +19140,13 @@
         <v>21</v>
       </c>
       <c r="B629" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="E629" s="4"/>
     </row>
@@ -19152,13 +19155,13 @@
         <v>21</v>
       </c>
       <c r="B630" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="E630" s="4"/>
     </row>
@@ -19167,13 +19170,13 @@
         <v>21</v>
       </c>
       <c r="B631" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="E631" s="4"/>
     </row>
@@ -19182,13 +19185,13 @@
         <v>21</v>
       </c>
       <c r="B632" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="E632" s="4"/>
     </row>
@@ -19197,13 +19200,13 @@
         <v>21</v>
       </c>
       <c r="B633" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E633" s="4"/>
     </row>
@@ -19212,13 +19215,13 @@
         <v>21</v>
       </c>
       <c r="B634" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="E634" s="4"/>
     </row>
@@ -19227,13 +19230,13 @@
         <v>21</v>
       </c>
       <c r="B635" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="E635" s="4"/>
     </row>
@@ -19242,13 +19245,13 @@
         <v>21</v>
       </c>
       <c r="B636" t="s">
-        <v>938</v>
+        <v>1739</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="E636" s="4"/>
     </row>
@@ -19257,16 +19260,16 @@
         <v>21</v>
       </c>
       <c r="B637" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -19274,16 +19277,16 @@
         <v>21</v>
       </c>
       <c r="B638" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -19291,16 +19294,16 @@
         <v>21</v>
       </c>
       <c r="B639" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -19308,16 +19311,16 @@
         <v>21</v>
       </c>
       <c r="B640" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -19325,16 +19328,16 @@
         <v>21</v>
       </c>
       <c r="B641" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -19342,16 +19345,16 @@
         <v>21</v>
       </c>
       <c r="B642" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -19359,16 +19362,16 @@
         <v>21</v>
       </c>
       <c r="B643" t="s">
-        <v>953</v>
+        <v>1740</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="E643" s="4" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -19376,13 +19379,13 @@
         <v>21</v>
       </c>
       <c r="B644" t="s">
-        <v>960</v>
+        <v>1741</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="E644" s="4"/>
     </row>
@@ -19391,13 +19394,13 @@
         <v>21</v>
       </c>
       <c r="B645" t="s">
-        <v>962</v>
+        <v>1742</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="E645" s="4"/>
     </row>
@@ -19406,13 +19409,13 @@
         <v>21</v>
       </c>
       <c r="B646" t="s">
-        <v>962</v>
+        <v>1742</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="E646" s="4"/>
     </row>
@@ -19421,13 +19424,13 @@
         <v>21</v>
       </c>
       <c r="B647" t="s">
-        <v>962</v>
+        <v>1742</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="E647" s="4"/>
     </row>
@@ -19436,16 +19439,16 @@
         <v>21</v>
       </c>
       <c r="B648" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C648" s="4">
         <v>14517</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -19453,13 +19456,13 @@
         <v>21</v>
       </c>
       <c r="B649" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="E649" s="4"/>
     </row>
@@ -19468,13 +19471,13 @@
         <v>21</v>
       </c>
       <c r="B650" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="E650" s="4"/>
     </row>
@@ -19483,13 +19486,13 @@
         <v>21</v>
       </c>
       <c r="B651" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="E651" s="4"/>
     </row>
@@ -19498,16 +19501,16 @@
         <v>21</v>
       </c>
       <c r="B652" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="E652" s="4" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -19515,16 +19518,16 @@
         <v>21</v>
       </c>
       <c r="B653" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -19532,16 +19535,16 @@
         <v>21</v>
       </c>
       <c r="B654" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -19549,16 +19552,16 @@
         <v>21</v>
       </c>
       <c r="B655" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -19566,16 +19569,16 @@
         <v>21</v>
       </c>
       <c r="B656" t="s">
-        <v>966</v>
+        <v>1743</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -19583,13 +19586,13 @@
         <v>22</v>
       </c>
       <c r="B657" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="E657" s="4"/>
     </row>
@@ -19598,13 +19601,13 @@
         <v>22</v>
       </c>
       <c r="B658" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="E658" s="4"/>
     </row>
@@ -19613,13 +19616,13 @@
         <v>22</v>
       </c>
       <c r="B659" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="E659" s="4">
         <v>7048</v>
@@ -19630,13 +19633,13 @@
         <v>22</v>
       </c>
       <c r="B660" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="E660" s="4"/>
     </row>
@@ -19645,13 +19648,13 @@
         <v>22</v>
       </c>
       <c r="B661" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="E661" s="4"/>
     </row>
@@ -19660,13 +19663,13 @@
         <v>22</v>
       </c>
       <c r="B662" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="D662" s="4" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="E662" s="4"/>
     </row>
@@ -19675,13 +19678,13 @@
         <v>22</v>
       </c>
       <c r="B663" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="E663" s="4"/>
     </row>
@@ -19690,16 +19693,16 @@
         <v>22</v>
       </c>
       <c r="B664" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="E664" s="4" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -19707,16 +19710,16 @@
         <v>22</v>
       </c>
       <c r="B665" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="E665" s="4" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -19724,13 +19727,13 @@
         <v>22</v>
       </c>
       <c r="B666" t="s">
+        <v>963</v>
+      </c>
+      <c r="C666" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="C666" s="4" t="s">
-        <v>983</v>
-      </c>
       <c r="D666" s="4" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="E666" s="4"/>
     </row>
@@ -19739,13 +19742,13 @@
         <v>22</v>
       </c>
       <c r="B667" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="E667" s="4"/>
     </row>
@@ -19754,13 +19757,13 @@
         <v>22</v>
       </c>
       <c r="B668" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="E668" s="4"/>
     </row>
@@ -19769,13 +19772,13 @@
         <v>22</v>
       </c>
       <c r="B669" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="E669" s="4"/>
     </row>
@@ -19784,13 +19787,13 @@
         <v>22</v>
       </c>
       <c r="B670" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="E670" s="4"/>
     </row>
@@ -19799,13 +19802,13 @@
         <v>22</v>
       </c>
       <c r="B671" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="E671" s="4"/>
     </row>
@@ -19814,16 +19817,16 @@
         <v>22</v>
       </c>
       <c r="B672" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="E672" s="4" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -19831,13 +19834,13 @@
         <v>22</v>
       </c>
       <c r="B673" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="E673" s="4"/>
     </row>
@@ -19846,13 +19849,13 @@
         <v>22</v>
       </c>
       <c r="B674" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="E674" s="4"/>
     </row>
@@ -19861,13 +19864,13 @@
         <v>22</v>
       </c>
       <c r="B675" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="E675" s="4"/>
     </row>
@@ -19876,13 +19879,13 @@
         <v>22</v>
       </c>
       <c r="B676" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="E676" s="4"/>
     </row>
@@ -19891,13 +19894,13 @@
         <v>22</v>
       </c>
       <c r="B677" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="E677" s="4"/>
     </row>
@@ -19906,13 +19909,13 @@
         <v>22</v>
       </c>
       <c r="B678" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="E678" s="4"/>
     </row>
@@ -19921,13 +19924,13 @@
         <v>22</v>
       </c>
       <c r="B679" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="E679" s="4"/>
     </row>
@@ -19936,13 +19939,13 @@
         <v>22</v>
       </c>
       <c r="B680" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="E680" s="4"/>
     </row>
@@ -19951,13 +19954,13 @@
         <v>22</v>
       </c>
       <c r="B681" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="E681" s="4"/>
     </row>
@@ -19966,13 +19969,13 @@
         <v>22</v>
       </c>
       <c r="B682" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="E682" s="4"/>
     </row>
@@ -19981,13 +19984,13 @@
         <v>22</v>
       </c>
       <c r="B683" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="E683" s="4"/>
     </row>
@@ -19996,13 +19999,13 @@
         <v>22</v>
       </c>
       <c r="B684" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="E684" s="4"/>
     </row>
@@ -20011,13 +20014,13 @@
         <v>22</v>
       </c>
       <c r="B685" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="E685" s="4"/>
     </row>
@@ -20026,13 +20029,13 @@
         <v>22</v>
       </c>
       <c r="B686" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="E686" s="4"/>
     </row>
@@ -20041,13 +20044,13 @@
         <v>22</v>
       </c>
       <c r="B687" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="E687" s="4"/>
     </row>
@@ -20056,13 +20059,13 @@
         <v>22</v>
       </c>
       <c r="B688" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="E688" s="4"/>
     </row>
@@ -20071,13 +20074,13 @@
         <v>22</v>
       </c>
       <c r="B689" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="E689" s="4"/>
     </row>
@@ -20086,13 +20089,13 @@
         <v>22</v>
       </c>
       <c r="B690" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="E690" s="4"/>
     </row>
@@ -20101,13 +20104,13 @@
         <v>22</v>
       </c>
       <c r="B691" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="E691" s="4"/>
     </row>
@@ -20116,13 +20119,13 @@
         <v>22</v>
       </c>
       <c r="B692" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="E692" s="4"/>
     </row>
@@ -20131,13 +20134,13 @@
         <v>22</v>
       </c>
       <c r="B693" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="E693" s="4"/>
     </row>
@@ -20146,13 +20149,13 @@
         <v>22</v>
       </c>
       <c r="B694" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="E694" s="4"/>
     </row>
@@ -20161,13 +20164,13 @@
         <v>22</v>
       </c>
       <c r="B695" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="E695" s="4"/>
     </row>
@@ -20176,13 +20179,13 @@
         <v>22</v>
       </c>
       <c r="B696" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="E696" s="4"/>
     </row>
@@ -20191,13 +20194,13 @@
         <v>22</v>
       </c>
       <c r="B697" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="E697" s="4"/>
     </row>
@@ -20206,13 +20209,13 @@
         <v>22</v>
       </c>
       <c r="B698" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="E698" s="4"/>
     </row>
@@ -20221,13 +20224,13 @@
         <v>22</v>
       </c>
       <c r="B699" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="E699" s="4"/>
     </row>
@@ -20236,13 +20239,13 @@
         <v>22</v>
       </c>
       <c r="B700" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="D700" s="4" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="E700" s="4"/>
     </row>
@@ -20251,13 +20254,13 @@
         <v>22</v>
       </c>
       <c r="B701" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="E701" s="4"/>
     </row>
@@ -20266,13 +20269,13 @@
         <v>22</v>
       </c>
       <c r="B702" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="E702" s="4"/>
     </row>
@@ -20281,13 +20284,13 @@
         <v>22</v>
       </c>
       <c r="B703" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="E703" s="4"/>
     </row>
@@ -20296,13 +20299,13 @@
         <v>22</v>
       </c>
       <c r="B704" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="E704" s="4"/>
     </row>
@@ -20311,13 +20314,13 @@
         <v>22</v>
       </c>
       <c r="B705" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="E705" s="4"/>
     </row>
@@ -20326,13 +20329,13 @@
         <v>22</v>
       </c>
       <c r="B706" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="E706" s="4"/>
     </row>
@@ -20341,13 +20344,13 @@
         <v>22</v>
       </c>
       <c r="B707" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="E707" s="4"/>
     </row>
@@ -20356,13 +20359,13 @@
         <v>22</v>
       </c>
       <c r="B708" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="E708" s="4"/>
     </row>
@@ -20371,13 +20374,13 @@
         <v>22</v>
       </c>
       <c r="B709" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="E709" s="4"/>
     </row>
@@ -20386,13 +20389,13 @@
         <v>22</v>
       </c>
       <c r="B710" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="E710" s="4"/>
     </row>
@@ -20401,13 +20404,13 @@
         <v>22</v>
       </c>
       <c r="B711" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="E711" s="4"/>
     </row>
@@ -20416,13 +20419,13 @@
         <v>22</v>
       </c>
       <c r="B712" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="E712" s="4"/>
     </row>
@@ -20431,13 +20434,13 @@
         <v>22</v>
       </c>
       <c r="B713" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="E713" s="4"/>
     </row>
@@ -20446,13 +20449,13 @@
         <v>22</v>
       </c>
       <c r="B714" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="E714" s="4"/>
     </row>
@@ -20461,13 +20464,13 @@
         <v>22</v>
       </c>
       <c r="B715" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="E715" s="4"/>
     </row>
@@ -20476,13 +20479,13 @@
         <v>22</v>
       </c>
       <c r="B716" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="E716" s="4"/>
     </row>
@@ -20491,13 +20494,13 @@
         <v>22</v>
       </c>
       <c r="B717" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="E717" s="4"/>
     </row>
@@ -20506,13 +20509,13 @@
         <v>22</v>
       </c>
       <c r="B718" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="E718" s="4"/>
     </row>
@@ -20521,13 +20524,13 @@
         <v>22</v>
       </c>
       <c r="B719" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="E719" s="4"/>
     </row>
@@ -20536,13 +20539,13 @@
         <v>22</v>
       </c>
       <c r="B720" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="E720" s="4"/>
     </row>
@@ -20551,13 +20554,13 @@
         <v>22</v>
       </c>
       <c r="B721" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="E721" s="4"/>
     </row>
@@ -20566,13 +20569,13 @@
         <v>22</v>
       </c>
       <c r="B722" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="E722" s="4"/>
     </row>
@@ -20581,13 +20584,13 @@
         <v>22</v>
       </c>
       <c r="B723" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="E723" s="4"/>
     </row>
@@ -20596,13 +20599,13 @@
         <v>22</v>
       </c>
       <c r="B724" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="E724" s="4"/>
     </row>
@@ -20611,18 +20614,19 @@
         <v>22</v>
       </c>
       <c r="B725" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="E725" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E725"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>